--- a/data/livia/Modello Analitico.xlsx
+++ b/data/livia/Modello Analitico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/livia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="13_ncr:1_{1EDDA4D1-F262-4D96-8D7D-E629F99C4381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5FE307C-1FA8-4858-A2E4-A99E11836373}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:1_{1EDDA4D1-F262-4D96-8D7D-E629F99C4381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4530565C-C4F7-473D-9758-9229ADD8CC9D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="4" r:id="rId1"/>
@@ -41,8 +41,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>oem</author>
+  </authors>
+  <commentList>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{BFE52652-119F-47BE-A720-D9CE882583BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>livia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+tempo medio costante per un intervento di trapianto di rene</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{11BEEFDC-2A18-4EFD-9A88-D1695F300E3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>livia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Non c'è una coda di trapianto</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="141">
   <si>
     <t>Input</t>
   </si>
@@ -425,31 +483,46 @@
     <t>o/giorno (2009-2013)</t>
   </si>
   <si>
-    <t>d/anno</t>
-  </si>
-  <si>
-    <t>d/giorno</t>
-  </si>
-  <si>
     <t>PAZIENTI - ABBANDONI</t>
   </si>
   <si>
     <t>PAZIENTI - TRAPIANTI</t>
   </si>
   <si>
-    <t>r/anno</t>
+    <t>P(Bt AND Pr)</t>
   </si>
   <si>
-    <t>r/giorno</t>
+    <t>d/anno (2014-2019)</t>
   </si>
   <si>
-    <t>t/anno</t>
+    <t>d/giorno (2014-2019)</t>
   </si>
   <si>
-    <t>t/giorno</t>
+    <t>r/anno (2014-2019)</t>
   </si>
   <si>
-    <t>P(Bt AND Pr)</t>
+    <t>r/giorno (2014-2019)</t>
+  </si>
+  <si>
+    <t>t/anno (2014-2019)</t>
+  </si>
+  <si>
+    <t>t/giorno (2014-2019)</t>
+  </si>
+  <si>
+    <t>Years PT</t>
+  </si>
+  <si>
+    <t>Rigetto</t>
+  </si>
+  <si>
+    <t>No rigetto</t>
+  </si>
+  <si>
+    <t>P(successo)</t>
+  </si>
+  <si>
+    <t>P(Rigetto)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +534,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -550,6 +623,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -650,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -931,39 +1017,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,7 +1208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,7 +1245,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,13 +1287,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,40 +1299,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="80">
     <dxf>
       <font>
         <b val="0"/>
@@ -1279,11 +1334,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1298,11 +1353,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1317,7 +1371,79 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1337,72 +1463,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="166" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1537,36 +1597,6 @@
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1603,6 +1633,44 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1678,6 +1746,128 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1882,8 +2072,55 @@
         <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1979,6 +2216,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -2147,7 +2385,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -2242,6 +2479,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -2412,61 +2650,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -2483,8 +2666,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Stile tabella 1" pivot="0" count="2" xr9:uid="{BF85A88F-A7FF-4D1C-A4F7-27B4F7D53083}">
-      <tableStyleElement type="firstRowStripe" dxfId="72"/>
-      <tableStyleElement type="secondRowStripe" dxfId="71"/>
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2634,7 +2817,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00FA675F-3059-4DBD-8823-A7D13C9A7F41}" name="Tabella1" displayName="Tabella1" ref="O2:AA17" totalsRowShown="0" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00FA675F-3059-4DBD-8823-A7D13C9A7F41}" name="Tabella1" displayName="Tabella1" ref="O2:AA17" totalsRowShown="0" dataDxfId="77">
   <autoFilter ref="O2:AA17" xr:uid="{00FA675F-3059-4DBD-8823-A7D13C9A7F41}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2651,26 +2834,52 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{519DB5BD-19BA-4DF1-A5F2-79269EEDFECE}" name="ABO" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{80A4B5A5-532A-44D5-8D9F-9B94CBE3F471}" name="Donor type" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{288F75E7-3C6E-4B23-AD7F-AA02E357102E}" name="2019" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{D5E548A8-0144-48C1-9E9F-B1892B883367}" name="2018" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{24C5F729-1023-4EAF-8C60-3F6D2E3EDFD1}" name="2017" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{165F2656-582C-49CD-98F9-91146B3B6BBB}" name="2016" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{7937AEA9-9487-44E1-8C0B-4CD6383DA916}" name="2015" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{A9428821-81D1-4420-88B7-2E7A6FA6D993}" name="2014" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{AF715886-99E0-429E-A252-B54A9A2F7435}" name="2013" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{0080CF72-1B31-4FFD-9F74-B53AD0EB6753}" name="2012" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{EB62911F-5B0C-40B1-A2D5-14A2C068A483}" name="2011" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{B0261715-C035-4FAC-A0BD-58345182EDFF}" name="2010" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{E2E8F788-4443-4931-B633-37417204AA66}" name="2009" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{519DB5BD-19BA-4DF1-A5F2-79269EEDFECE}" name="ABO" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{80A4B5A5-532A-44D5-8D9F-9B94CBE3F471}" name="Donor type" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{288F75E7-3C6E-4B23-AD7F-AA02E357102E}" name="2019" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{D5E548A8-0144-48C1-9E9F-B1892B883367}" name="2018" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{24C5F729-1023-4EAF-8C60-3F6D2E3EDFD1}" name="2017" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{165F2656-582C-49CD-98F9-91146B3B6BBB}" name="2016" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{7937AEA9-9487-44E1-8C0B-4CD6383DA916}" name="2015" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{A9428821-81D1-4420-88B7-2E7A6FA6D993}" name="2014" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{AF715886-99E0-429E-A252-B54A9A2F7435}" name="2013" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{0080CF72-1B31-4FFD-9F74-B53AD0EB6753}" name="2012" dataDxfId="67"/>
+    <tableColumn id="11" xr3:uid="{EB62911F-5B0C-40B1-A2D5-14A2C068A483}" name="2011" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{B0261715-C035-4FAC-A0BD-58345182EDFF}" name="2010" dataDxfId="65"/>
+    <tableColumn id="13" xr3:uid="{E2E8F788-4443-4931-B633-37417204AA66}" name="2009" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{39AAB439-C7A2-4554-9DEE-D58A9FBC0849}" name="Tabella511" displayName="Tabella511" ref="G2:K22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D2E20788-D8CF-443B-8179-454A6ED06E49}" name="Tabella5" displayName="Tabella5" ref="A2:E22" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A2:E22" xr:uid="{D2E20788-D8CF-443B-8179-454A6ED06E49}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5D68F1AC-2673-48AE-B689-E045331C99CC}" name="ABO" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{2B1A20B1-555F-402A-B379-FD2E82AE4007}" name="Priorità" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{ABB29F11-5181-45EC-80CB-6A669006D59E}" name="d/anno (2014-2019)" dataDxfId="23">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!C26:H26)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{060F1E36-E93F-4714-8653-11CE1C0F6151}" name="d/giorno (2014-2019)" dataDxfId="22">
+      <calculatedColumnFormula>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F35DC9D1-14A6-459F-981C-93D856287F2D}" name="P(Bt AND Pr)" dataDxfId="21">
+      <calculatedColumnFormula>C3/$C$3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{39AAB439-C7A2-4554-9DEE-D58A9FBC0849}" name="Tabella511" displayName="Tabella511" ref="G2:K22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="G2:K22" xr:uid="{39AAB439-C7A2-4554-9DEE-D58A9FBC0849}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2679,24 +2888,24 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6969A00D-C2E1-4748-A3BA-21040F806A22}" name="ABO" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F76DB913-F997-4A5F-8938-CA5E4E584E90}" name="Priorità" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{EF4E2C40-9F19-4F9D-87E8-E09E50726E85}" name="r/anno" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{6969A00D-C2E1-4748-A3BA-21040F806A22}" name="ABO" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F76DB913-F997-4A5F-8938-CA5E4E584E90}" name="Priorità" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{EF4E2C40-9F19-4F9D-87E8-E09E50726E85}" name="r/anno (2014-2019)" dataDxfId="16">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q49:V49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A220BCC8-294E-4883-8387-63FD0FA08B49}" name="r/giorno" dataDxfId="6">
-      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno]]/365</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{A220BCC8-294E-4883-8387-63FD0FA08B49}" name="r/giorno (2014-2019)" dataDxfId="15">
+      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0DDE1C79-381B-438A-8816-46DFAA18D207}" name="P(Bt AND Pr)" dataDxfId="3">
-      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno]]/$I$3</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{0DDE1C79-381B-438A-8816-46DFAA18D207}" name="P(Bt AND Pr)" dataDxfId="14">
+      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{28BD7902-7D1C-42DB-8AB5-8106B1D8B572}" name="Tabella512" displayName="Tabella512" ref="A25:E45" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{28BD7902-7D1C-42DB-8AB5-8106B1D8B572}" name="Tabella512" displayName="Tabella512" ref="A25:E45" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A25:E45" xr:uid="{28BD7902-7D1C-42DB-8AB5-8106B1D8B572}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2705,16 +2914,16 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{398CB269-8B17-4707-91CD-80702DE30D6E}" name="ABO" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{87FC4533-623C-4854-827B-E5544324A9FE}" name="Priorità" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{FD4B1F93-A46D-4255-B864-8A6866753822}" name="t/anno" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{398CB269-8B17-4707-91CD-80702DE30D6E}" name="ABO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{87FC4533-623C-4854-827B-E5544324A9FE}" name="Priorità" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FD4B1F93-A46D-4255-B864-8A6866753822}" name="t/anno (2014-2019)" dataDxfId="9">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!C49:H49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7199DA96-C5C7-4593-B8D6-26D61410C5B8}" name="t/giorno" dataDxfId="23">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno]]/365</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{7199DA96-C5C7-4593-B8D6-26D61410C5B8}" name="t/giorno (2014-2019)" dataDxfId="8">
+      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CB61000E-F381-43CB-ADCE-A8143993D18E}" name="P(Bt AND Pr)" dataDxfId="0">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno]]/$C$26</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{CB61000E-F381-43CB-ADCE-A8143993D18E}" name="P(Bt AND Pr)" dataDxfId="7">
+      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2722,21 +2931,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFC3C8C9-3751-4605-AE40-A8E0611D5EC3}" name="Tabella2" displayName="Tabella2" ref="A2:M22" totalsRowShown="0" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FFC3C8C9-3751-4605-AE40-A8E0611D5EC3}" name="Tabella2" displayName="Tabella2" ref="A2:M22" totalsRowShown="0" dataDxfId="63">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{64851773-8A28-4382-9779-AD89DEA07618}" name="ABO" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{7C7B751B-DC8E-494C-A19A-E6EDD22AAE66}" name="Priorità" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{3908F269-D3C9-451D-8FB5-97CA785B0EF9}" name="2019" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{01AE3C86-3D50-46BD-A15A-03ED1F4D5717}" name="2018" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{51ADFDA8-7558-4BC8-AE9C-C5FF49A631D6}" name="2017" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{B2625354-5641-4830-AFE1-B09735718F0E}" name="2016" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{D50DE7D4-8BF6-4B8D-9B5E-621A2C9FB24F}" name="2015" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{08FE134F-A7DB-4DF5-A96A-DBE2DC00DF18}" name="2014" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{F0347D48-CA3B-4B80-A0B9-DE372B4EFB37}" name="2013" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{65A4879B-6530-4949-B7FA-EC0727F6E269}" name="2012" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{9D777F88-3985-4C55-BED2-44D9AA03943D}" name="2011" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{BBB4FF4F-2643-4CB7-BFEF-12053B002996}" name="2010" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{59BBDF16-24E8-4D04-9106-3340C9F8B302}" name="2009" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{64851773-8A28-4382-9779-AD89DEA07618}" name="ABO" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{7C7B751B-DC8E-494C-A19A-E6EDD22AAE66}" name="Priorità" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{3908F269-D3C9-451D-8FB5-97CA785B0EF9}" name="2019" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{01AE3C86-3D50-46BD-A15A-03ED1F4D5717}" name="2018" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{51ADFDA8-7558-4BC8-AE9C-C5FF49A631D6}" name="2017" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{B2625354-5641-4830-AFE1-B09735718F0E}" name="2016" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{D50DE7D4-8BF6-4B8D-9B5E-621A2C9FB24F}" name="2015" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{08FE134F-A7DB-4DF5-A96A-DBE2DC00DF18}" name="2014" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{F0347D48-CA3B-4B80-A0B9-DE372B4EFB37}" name="2013" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{65A4879B-6530-4949-B7FA-EC0727F6E269}" name="2012" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{9D777F88-3985-4C55-BED2-44D9AA03943D}" name="2011" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{BBB4FF4F-2643-4CB7-BFEF-12053B002996}" name="2010" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{59BBDF16-24E8-4D04-9106-3340C9F8B302}" name="2009" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2748,16 +2957,16 @@
     <tableColumn id="1" xr3:uid="{5A9F554A-C810-493F-9C4C-70D129C37097}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{75BE70A0-045E-46D7-9D24-AA56B4BC0C1A}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{03D9493B-AB42-4000-B2D5-9AF1E9CE14D1}" name="2019"/>
-    <tableColumn id="4" xr3:uid="{1E79CA8A-6A5F-4E7E-A364-0A23E95ACEA1}" name="2018" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{C5B6259E-D09F-45D3-895A-CC657D82F840}" name="2017" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{FB787A5F-8926-42D2-A357-9AE056037A8D}" name="2016" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{E922DF3B-F4D5-44BD-AA2D-F0D5E5813F36}" name="2015" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{A4D08FB3-3954-4894-BC72-92E0A2F728D1}" name="2014" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{2D5EE4FF-F182-448B-BCE0-98465A9549AE}" name="2013" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{2F685DCB-D40A-4BD3-830B-14FF541C5E2D}" name="2012" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{E50B4466-F9EB-4F57-B915-56BF99E6F351}" name="2011" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{3568D710-8A72-4F99-8CED-F809A5B14D60}" name="2010" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{2A5ABB7C-200A-4FFE-9620-7F0DBF0D23CA}" name="2009" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1E79CA8A-6A5F-4E7E-A364-0A23E95ACEA1}" name="2018" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{C5B6259E-D09F-45D3-895A-CC657D82F840}" name="2017" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{FB787A5F-8926-42D2-A357-9AE056037A8D}" name="2016" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{E922DF3B-F4D5-44BD-AA2D-F0D5E5813F36}" name="2015" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{A4D08FB3-3954-4894-BC72-92E0A2F728D1}" name="2014" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{2D5EE4FF-F182-448B-BCE0-98465A9549AE}" name="2013" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{2F685DCB-D40A-4BD3-830B-14FF541C5E2D}" name="2012" dataDxfId="43"/>
+    <tableColumn id="11" xr3:uid="{E50B4466-F9EB-4F57-B915-56BF99E6F351}" name="2011" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{3568D710-8A72-4F99-8CED-F809A5B14D60}" name="2010" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{2A5ABB7C-200A-4FFE-9620-7F0DBF0D23CA}" name="2009" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2894,6 +3103,28 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{98E44941-D6FC-4BF1-BEED-68D0983F7482}" name="Tabella6" displayName="Tabella6" ref="A71:E86" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A71:E86" xr:uid="{98E44941-D6FC-4BF1-BEED-68D0983F7482}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E73D8101-2A94-485B-8EBC-E6AE77329FF0}" name="ABO" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{976C1B5A-D80F-4281-A14E-DF332C932ABD}" name="Years PT" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{38D648C0-53F4-4F21-9B9F-CFF2C18D1D44}" name="No rigetto" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{25EFA65C-BF89-4430-855E-6116DA6E215C}" name="P(successo)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C2C67BC7-9C5F-495C-A97D-0AAB08F62633}" name="P(Rigetto)" dataDxfId="0">
+      <calculatedColumnFormula>1-Tabella6[[#This Row],[P(successo)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{120A279E-7D25-4EB7-8467-3E446C7FF4E1}" name="Tabella3" displayName="Tabella3" ref="A1:F13" totalsRowShown="0">
   <autoFilter ref="A1:F13" xr:uid="{120A279E-7D25-4EB7-8467-3E446C7FF4E1}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -2904,18 +3135,18 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{83815F07-1465-4B44-9C9A-A6A4C703CE3E}" name="Lambda-Pazienti" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{305E1CC3-AB79-41C5-AC1F-A0E863C7265C}" name="Priorità" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{955F09BD-67A1-451D-B446-E82F1D1DB67B}" name="p/anno (2014-2019)" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{83815F07-1465-4B44-9C9A-A6A4C703CE3E}" name="Lambda-Pazienti" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{305E1CC3-AB79-41C5-AC1F-A0E863C7265C}" name="Priorità" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{955F09BD-67A1-451D-B446-E82F1D1DB67B}" name="p/anno (2014-2019)" dataDxfId="37">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!C8:H8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A1CBC839-E0F4-4336-9BCA-F0565EBF46FE}" name="p/giorno (2014-2019)" dataDxfId="37">
+    <tableColumn id="7" xr3:uid="{A1CBC839-E0F4-4336-9BCA-F0565EBF46FE}" name="p/giorno (2014-2019)" dataDxfId="36">
       <calculatedColumnFormula>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1079B020-216B-4696-8670-BC2A206CD367}" name="p/anno (2009-2013)" dataDxfId="38">
+    <tableColumn id="5" xr3:uid="{1079B020-216B-4696-8670-BC2A206CD367}" name="p/anno (2009-2013)" dataDxfId="35">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!I8:M8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{460FA252-B9FF-4539-B2F0-F81853F6B773}" name="p/giorno (2009-2013)" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{460FA252-B9FF-4539-B2F0-F81853F6B773}" name="p/giorno (2009-2013)" dataDxfId="34">
       <calculatedColumnFormula>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2923,7 +3154,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC216F22-6E9E-41A0-97D2-72ADAA5F1AF9}" name="Tabella4" displayName="Tabella4" ref="A15:F27" totalsRowShown="0">
   <autoFilter ref="A15:F27" xr:uid="{CC216F22-6E9E-41A0-97D2-72ADAA5F1AF9}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -2934,45 +3165,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C122BAB9-B1F1-4597-88C8-A4BB3483A3C5}" name="Lambda - Organi" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{6DDA60BD-7BC0-4E8A-9D2D-CEB5733C141C}" name="Tipo" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{61930DE4-96A2-4E50-B7A2-EC316F394E6E}" name="o/anno (2014-2019)" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{C122BAB9-B1F1-4597-88C8-A4BB3483A3C5}" name="Lambda - Organi" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{6DDA60BD-7BC0-4E8A-9D2D-CEB5733C141C}" name="Tipo" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{61930DE4-96A2-4E50-B7A2-EC316F394E6E}" name="o/anno (2014-2019)" dataDxfId="31">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q6:V6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3B4AD049-1BFD-4BA4-887E-8F739AA06CDF}" name="o/giorno (2014-2019)" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{3B4AD049-1BFD-4BA4-887E-8F739AA06CDF}" name="o/giorno (2014-2019)" dataDxfId="30">
       <calculatedColumnFormula>C16/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5915D8DB-621D-4A81-94BB-E4EB02EB5701}" name="o/anno (2009-2013)" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{5915D8DB-621D-4A81-94BB-E4EB02EB5701}" name="o/anno (2009-2013)" dataDxfId="29">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!W6:AA6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9FEA8255-F08A-4CA2-98D9-F2A55424B1C6}" name="o/giorno (2009-2013)" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{9FEA8255-F08A-4CA2-98D9-F2A55424B1C6}" name="o/giorno (2009-2013)" dataDxfId="28">
       <calculatedColumnFormula>E16/365</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D2E20788-D8CF-443B-8179-454A6ED06E49}" name="Tabella5" displayName="Tabella5" ref="A2:E22" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A2:E22" xr:uid="{D2E20788-D8CF-443B-8179-454A6ED06E49}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5D68F1AC-2673-48AE-B689-E045331C99CC}" name="ABO" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2B1A20B1-555F-402A-B379-FD2E82AE4007}" name="Priorità" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{ABB29F11-5181-45EC-80CB-6A669006D59E}" name="d/anno" dataDxfId="28">
-      <calculatedColumnFormula>AVERAGE(Dati_OPTN!C26:H26)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{060F1E36-E93F-4714-8653-11CE1C0F6151}" name="d/giorno" dataDxfId="27">
-      <calculatedColumnFormula>Tabella5[[#This Row],[d/anno]]/365</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{F35DC9D1-14A6-459F-981C-93D856287F2D}" name="P(Bt AND Pr)" dataDxfId="12">
-      <calculatedColumnFormula>C3/$C$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3276,53 +3481,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F731C7-EE25-4066-8749-63253BDC3278}">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49:P68"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="86" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="86" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="86" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" style="86"/>
-    <col min="16" max="16" width="9.7109375" style="86" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="11.42578125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="85" customWidth="1"/>
+    <col min="6" max="15" width="9.140625" style="85"/>
+    <col min="16" max="16" width="9.7109375" style="85" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="O1" s="109" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="O1" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="s">
@@ -3429,19 +3636,19 @@
       <c r="H3">
         <v>36154</v>
       </c>
-      <c r="I3" s="89">
+      <c r="I3" s="88">
         <v>36393</v>
       </c>
-      <c r="J3" s="89">
+      <c r="J3" s="88">
         <v>34831</v>
       </c>
-      <c r="K3" s="89">
+      <c r="K3" s="88">
         <v>33560</v>
       </c>
-      <c r="L3" s="89">
+      <c r="L3" s="88">
         <v>34400</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="88">
         <v>33646</v>
       </c>
       <c r="O3" t="s">
@@ -3468,19 +3675,19 @@
       <c r="V3">
         <v>13302</v>
       </c>
-      <c r="W3" s="89">
+      <c r="W3" s="88">
         <v>13282</v>
       </c>
-      <c r="X3" s="89">
+      <c r="X3" s="88">
         <v>13040</v>
       </c>
-      <c r="Y3" s="89">
+      <c r="Y3" s="88">
         <v>13207</v>
       </c>
-      <c r="Z3" s="89">
+      <c r="Z3" s="88">
         <v>13519</v>
       </c>
-      <c r="AA3" s="89">
+      <c r="AA3" s="88">
         <v>13636</v>
       </c>
     </row>
@@ -3507,19 +3714,19 @@
       <c r="H4">
         <v>36</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="88">
         <v>29</v>
       </c>
-      <c r="J4" s="89">
+      <c r="J4" s="88">
         <v>28</v>
       </c>
-      <c r="K4" s="89">
+      <c r="K4" s="88">
         <v>29</v>
       </c>
-      <c r="L4" s="89">
+      <c r="L4" s="88">
         <v>34</v>
       </c>
-      <c r="M4" s="89">
+      <c r="M4" s="88">
         <v>35</v>
       </c>
       <c r="O4"/>
@@ -3544,19 +3751,19 @@
       <c r="V4">
         <v>7763</v>
       </c>
-      <c r="W4" s="89">
+      <c r="W4" s="88">
         <v>7548</v>
       </c>
-      <c r="X4" s="89">
+      <c r="X4" s="88">
         <v>7421</v>
       </c>
-      <c r="Y4" s="89">
+      <c r="Y4" s="88">
         <v>7434</v>
       </c>
-      <c r="Z4" s="89">
+      <c r="Z4" s="88">
         <v>7241</v>
       </c>
-      <c r="AA4" s="89">
+      <c r="AA4" s="88">
         <v>7248</v>
       </c>
     </row>
@@ -3583,19 +3790,19 @@
       <c r="H5">
         <v>25197</v>
       </c>
-      <c r="I5" s="89">
+      <c r="I5" s="88">
         <v>25120</v>
       </c>
-      <c r="J5" s="89">
+      <c r="J5" s="88">
         <v>24125</v>
       </c>
-      <c r="K5" s="89">
+      <c r="K5" s="88">
         <v>23502</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="88">
         <v>24367</v>
       </c>
-      <c r="M5" s="89">
+      <c r="M5" s="88">
         <v>24299</v>
       </c>
       <c r="O5"/>
@@ -3620,19 +3827,19 @@
       <c r="V5">
         <v>5539</v>
       </c>
-      <c r="W5" s="89">
+      <c r="W5" s="88">
         <v>5734</v>
       </c>
-      <c r="X5" s="89">
+      <c r="X5" s="88">
         <v>5619</v>
       </c>
-      <c r="Y5" s="89">
+      <c r="Y5" s="88">
         <v>5773</v>
       </c>
-      <c r="Z5" s="89">
+      <c r="Z5" s="88">
         <v>6278</v>
       </c>
-      <c r="AA5" s="89">
+      <c r="AA5" s="88">
         <v>6388</v>
       </c>
     </row>
@@ -3659,19 +3866,19 @@
       <c r="H6">
         <v>11390</v>
       </c>
-      <c r="I6" s="89">
+      <c r="I6" s="88">
         <v>11725</v>
       </c>
-      <c r="J6" s="89">
+      <c r="J6" s="88">
         <v>11107</v>
       </c>
-      <c r="K6" s="89">
+      <c r="K6" s="88">
         <v>10405</v>
       </c>
-      <c r="L6" s="89">
+      <c r="L6" s="88">
         <v>10365</v>
       </c>
-      <c r="M6" s="89">
+      <c r="M6" s="88">
         <v>9726</v>
       </c>
       <c r="O6" t="s">
@@ -3698,19 +3905,19 @@
       <c r="V6">
         <v>7156</v>
       </c>
-      <c r="W6" s="89">
+      <c r="W6" s="88">
         <v>7211</v>
       </c>
-      <c r="X6" s="89">
+      <c r="X6" s="88">
         <v>7064</v>
       </c>
-      <c r="Y6" s="89">
+      <c r="Y6" s="88">
         <v>7244</v>
       </c>
-      <c r="Z6" s="89">
+      <c r="Z6" s="88">
         <v>7431</v>
       </c>
-      <c r="AA6" s="89">
+      <c r="AA6" s="88">
         <v>7653</v>
       </c>
     </row>
@@ -3739,19 +3946,19 @@
       <c r="H7">
         <v>17581</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="88">
         <v>17643</v>
       </c>
-      <c r="J7" s="89">
+      <c r="J7" s="88">
         <v>16975</v>
       </c>
-      <c r="K7" s="89">
+      <c r="K7" s="88">
         <v>16237</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="88">
         <v>16668</v>
       </c>
-      <c r="M7" s="89">
+      <c r="M7" s="88">
         <v>16325</v>
       </c>
       <c r="O7"/>
@@ -3776,19 +3983,19 @@
       <c r="V7">
         <v>3683</v>
       </c>
-      <c r="W7" s="89">
+      <c r="W7" s="88">
         <v>3614</v>
       </c>
-      <c r="X7" s="89">
+      <c r="X7" s="88">
         <v>3463</v>
       </c>
-      <c r="Y7" s="89">
+      <c r="Y7" s="88">
         <v>3566</v>
       </c>
-      <c r="Z7" s="89">
+      <c r="Z7" s="88">
         <v>3449</v>
       </c>
-      <c r="AA7" s="89">
+      <c r="AA7" s="88">
         <v>3458</v>
       </c>
     </row>
@@ -3815,19 +4022,19 @@
       <c r="H8">
         <v>14</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="88">
         <v>13</v>
       </c>
-      <c r="J8" s="89">
+      <c r="J8" s="88">
         <v>20</v>
       </c>
-      <c r="K8" s="89">
+      <c r="K8" s="88">
         <v>16</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L8" s="88">
         <v>16</v>
       </c>
-      <c r="M8" s="89">
+      <c r="M8" s="88">
         <v>15</v>
       </c>
       <c r="O8"/>
@@ -3852,19 +4059,19 @@
       <c r="V8">
         <v>3473</v>
       </c>
-      <c r="W8" s="89">
+      <c r="W8" s="88">
         <v>3597</v>
       </c>
-      <c r="X8" s="89">
+      <c r="X8" s="88">
         <v>3601</v>
       </c>
-      <c r="Y8" s="89">
+      <c r="Y8" s="88">
         <v>3678</v>
       </c>
-      <c r="Z8" s="89">
+      <c r="Z8" s="88">
         <v>3982</v>
       </c>
-      <c r="AA8" s="89">
+      <c r="AA8" s="88">
         <v>4195</v>
       </c>
     </row>
@@ -3891,19 +4098,19 @@
       <c r="H9">
         <v>12356</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="88">
         <v>12164</v>
       </c>
-      <c r="J9" s="89">
+      <c r="J9" s="88">
         <v>11814</v>
       </c>
-      <c r="K9" s="89">
+      <c r="K9" s="88">
         <v>11454</v>
       </c>
-      <c r="L9" s="89">
+      <c r="L9" s="88">
         <v>11807</v>
       </c>
-      <c r="M9" s="89">
+      <c r="M9" s="88">
         <v>11751</v>
       </c>
       <c r="O9" t="s">
@@ -3930,19 +4137,19 @@
       <c r="V9">
         <v>4399</v>
       </c>
-      <c r="W9" s="89">
+      <c r="W9" s="88">
         <v>4392</v>
       </c>
-      <c r="X9" s="89">
+      <c r="X9" s="88">
         <v>4282</v>
       </c>
-      <c r="Y9" s="89">
+      <c r="Y9" s="88">
         <v>4257</v>
       </c>
-      <c r="Z9" s="89">
+      <c r="Z9" s="88">
         <v>4328</v>
       </c>
-      <c r="AA9" s="89">
+      <c r="AA9" s="88">
         <v>4360</v>
       </c>
     </row>
@@ -3969,19 +4176,19 @@
       <c r="H10">
         <v>5434</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="88">
         <v>5680</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="88">
         <v>5334</v>
       </c>
-      <c r="K10" s="89">
+      <c r="K10" s="88">
         <v>4945</v>
       </c>
-      <c r="L10" s="89">
+      <c r="L10" s="88">
         <v>5031</v>
       </c>
-      <c r="M10" s="89">
+      <c r="M10" s="88">
         <v>4759</v>
       </c>
       <c r="O10"/>
@@ -4006,19 +4213,19 @@
       <c r="V10">
         <v>2882</v>
       </c>
-      <c r="W10" s="89">
+      <c r="W10" s="88">
         <v>2815</v>
       </c>
-      <c r="X10" s="89">
+      <c r="X10" s="88">
         <v>2766</v>
       </c>
-      <c r="Y10" s="89">
+      <c r="Y10" s="88">
         <v>2715</v>
       </c>
-      <c r="Z10" s="89">
+      <c r="Z10" s="88">
         <v>2638</v>
       </c>
-      <c r="AA10" s="89">
+      <c r="AA10" s="88">
         <v>2722</v>
       </c>
     </row>
@@ -4047,19 +4254,19 @@
       <c r="H11">
         <v>11808</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="88">
         <v>11907</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="88">
         <v>11429</v>
       </c>
-      <c r="K11" s="89">
+      <c r="K11" s="88">
         <v>11234</v>
       </c>
-      <c r="L11" s="89">
+      <c r="L11" s="88">
         <v>11387</v>
       </c>
-      <c r="M11" s="89">
+      <c r="M11" s="88">
         <v>11084</v>
       </c>
       <c r="O11"/>
@@ -4084,19 +4291,19 @@
       <c r="V11">
         <v>1517</v>
       </c>
-      <c r="W11" s="89">
+      <c r="W11" s="88">
         <v>1577</v>
       </c>
-      <c r="X11" s="89">
+      <c r="X11" s="88">
         <v>1516</v>
       </c>
-      <c r="Y11" s="89">
+      <c r="Y11" s="88">
         <v>1542</v>
       </c>
-      <c r="Z11" s="89">
+      <c r="Z11" s="88">
         <v>1690</v>
       </c>
-      <c r="AA11" s="89">
+      <c r="AA11" s="88">
         <v>1638</v>
       </c>
     </row>
@@ -4123,19 +4330,19 @@
       <c r="H12">
         <v>16</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="88">
         <v>10</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="88">
         <v>7</v>
       </c>
-      <c r="K12" s="89">
+      <c r="K12" s="88">
         <v>7</v>
       </c>
-      <c r="L12" s="89">
+      <c r="L12" s="88">
         <v>12</v>
       </c>
-      <c r="M12" s="89">
+      <c r="M12" s="88">
         <v>7</v>
       </c>
       <c r="O12" t="s">
@@ -4162,19 +4369,19 @@
       <c r="V12">
         <v>1400</v>
       </c>
-      <c r="W12" s="89">
+      <c r="W12" s="88">
         <v>1361</v>
       </c>
-      <c r="X12" s="89">
+      <c r="X12" s="88">
         <v>1362</v>
       </c>
-      <c r="Y12" s="89">
+      <c r="Y12" s="88">
         <v>1374</v>
       </c>
-      <c r="Z12" s="89">
+      <c r="Z12" s="88">
         <v>1442</v>
       </c>
-      <c r="AA12" s="89">
+      <c r="AA12" s="88">
         <v>1349</v>
       </c>
     </row>
@@ -4201,19 +4408,19 @@
       <c r="H13">
         <v>8153</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="88">
         <v>8253</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="88">
         <v>7919</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="88">
         <v>7809</v>
       </c>
-      <c r="L13" s="89">
+      <c r="L13" s="88">
         <v>8128</v>
       </c>
-      <c r="M13" s="89">
+      <c r="M13" s="88">
         <v>8044</v>
       </c>
       <c r="O13"/>
@@ -4238,19 +4445,19 @@
       <c r="V13">
         <v>929</v>
       </c>
-      <c r="W13" s="89">
+      <c r="W13" s="88">
         <v>874</v>
       </c>
-      <c r="X13" s="89">
+      <c r="X13" s="88">
         <v>935</v>
       </c>
-      <c r="Y13" s="89">
+      <c r="Y13" s="88">
         <v>889</v>
       </c>
-      <c r="Z13" s="89">
+      <c r="Z13" s="88">
         <v>896</v>
       </c>
-      <c r="AA13" s="89">
+      <c r="AA13" s="88">
         <v>850</v>
       </c>
     </row>
@@ -4277,19 +4484,19 @@
       <c r="H14">
         <v>3782</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I14" s="88">
         <v>3814</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="88">
         <v>3650</v>
       </c>
-      <c r="K14" s="89">
+      <c r="K14" s="88">
         <v>3541</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="88">
         <v>3359</v>
       </c>
-      <c r="M14" s="89">
+      <c r="M14" s="88">
         <v>3156</v>
       </c>
       <c r="O14"/>
@@ -4314,19 +4521,19 @@
       <c r="V14">
         <v>471</v>
       </c>
-      <c r="W14" s="89">
+      <c r="W14" s="88">
         <v>487</v>
       </c>
-      <c r="X14" s="89">
+      <c r="X14" s="88">
         <v>427</v>
       </c>
-      <c r="Y14" s="89">
+      <c r="Y14" s="88">
         <v>485</v>
       </c>
-      <c r="Z14" s="89">
+      <c r="Z14" s="88">
         <v>546</v>
       </c>
-      <c r="AA14" s="89">
+      <c r="AA14" s="88">
         <v>499</v>
       </c>
     </row>
@@ -4355,19 +4562,19 @@
       <c r="H15">
         <v>5394</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="88">
         <v>5489</v>
       </c>
-      <c r="J15" s="89">
+      <c r="J15" s="88">
         <v>5085</v>
       </c>
-      <c r="K15" s="89">
+      <c r="K15" s="88">
         <v>4830</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L15" s="88">
         <v>4991</v>
       </c>
-      <c r="M15" s="89">
+      <c r="M15" s="88">
         <v>4917</v>
       </c>
       <c r="O15" t="s">
@@ -4394,19 +4601,19 @@
       <c r="V15">
         <v>347</v>
       </c>
-      <c r="W15" s="89">
+      <c r="W15" s="88">
         <v>318</v>
       </c>
-      <c r="X15" s="89">
+      <c r="X15" s="88">
         <v>332</v>
       </c>
-      <c r="Y15" s="89">
+      <c r="Y15" s="88">
         <v>332</v>
       </c>
-      <c r="Z15" s="89">
+      <c r="Z15" s="88">
         <v>318</v>
       </c>
-      <c r="AA15" s="89">
+      <c r="AA15" s="88">
         <v>274</v>
       </c>
     </row>
@@ -4433,19 +4640,19 @@
       <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" s="89">
+      <c r="I16" s="88">
         <v>5</v>
       </c>
-      <c r="J16" s="89">
+      <c r="J16" s="88">
         <v>1</v>
       </c>
-      <c r="K16" s="89">
+      <c r="K16" s="88">
         <v>3</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="88">
         <v>5</v>
       </c>
-      <c r="M16" s="89">
+      <c r="M16" s="88">
         <v>13</v>
       </c>
       <c r="O16"/>
@@ -4470,19 +4677,19 @@
       <c r="V16">
         <v>269</v>
       </c>
-      <c r="W16" s="89">
+      <c r="W16" s="88">
         <v>245</v>
       </c>
-      <c r="X16" s="89">
+      <c r="X16" s="88">
         <v>257</v>
       </c>
-      <c r="Y16" s="89">
+      <c r="Y16" s="88">
         <v>264</v>
       </c>
-      <c r="Z16" s="89">
+      <c r="Z16" s="88">
         <v>258</v>
       </c>
-      <c r="AA16" s="89">
+      <c r="AA16" s="88">
         <v>218</v>
       </c>
     </row>
@@ -4509,19 +4716,19 @@
       <c r="H17">
         <v>3716</v>
       </c>
-      <c r="I17" s="89">
+      <c r="I17" s="88">
         <v>3790</v>
       </c>
-      <c r="J17" s="89">
+      <c r="J17" s="88">
         <v>3478</v>
       </c>
-      <c r="K17" s="89">
+      <c r="K17" s="88">
         <v>3371</v>
       </c>
-      <c r="L17" s="89">
+      <c r="L17" s="88">
         <v>3517</v>
       </c>
-      <c r="M17" s="89">
+      <c r="M17" s="88">
         <v>3554</v>
       </c>
       <c r="O17"/>
@@ -4546,19 +4753,19 @@
       <c r="V17">
         <v>78</v>
       </c>
-      <c r="W17" s="89">
+      <c r="W17" s="88">
         <v>73</v>
       </c>
-      <c r="X17" s="89">
+      <c r="X17" s="88">
         <v>75</v>
       </c>
-      <c r="Y17" s="89">
+      <c r="Y17" s="88">
         <v>68</v>
       </c>
-      <c r="Z17" s="89">
+      <c r="Z17" s="88">
         <v>60</v>
       </c>
-      <c r="AA17" s="89">
+      <c r="AA17" s="88">
         <v>56</v>
       </c>
     </row>
@@ -4585,19 +4792,19 @@
       <c r="H18">
         <v>1758</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="88">
         <v>1773</v>
       </c>
-      <c r="J18" s="89">
+      <c r="J18" s="88">
         <v>1680</v>
       </c>
-      <c r="K18" s="89">
+      <c r="K18" s="88">
         <v>1517</v>
       </c>
-      <c r="L18" s="89">
+      <c r="L18" s="88">
         <v>1518</v>
       </c>
-      <c r="M18" s="89">
+      <c r="M18" s="88">
         <v>1424</v>
       </c>
     </row>
@@ -4626,19 +4833,19 @@
       <c r="H19">
         <v>1371</v>
       </c>
-      <c r="I19" s="89">
+      <c r="I19" s="88">
         <v>1355</v>
       </c>
-      <c r="J19" s="89">
+      <c r="J19" s="88">
         <v>1343</v>
       </c>
-      <c r="K19" s="89">
+      <c r="K19" s="88">
         <v>1260</v>
       </c>
-      <c r="L19" s="89">
+      <c r="L19" s="88">
         <v>1354</v>
       </c>
-      <c r="M19" s="89">
+      <c r="M19" s="88">
         <v>1323</v>
       </c>
     </row>
@@ -4665,19 +4872,19 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="88">
         <v>1</v>
       </c>
-      <c r="J20" s="89">
-        <v>0</v>
-      </c>
-      <c r="K20" s="89">
+      <c r="J20" s="88">
+        <v>0</v>
+      </c>
+      <c r="K20" s="88">
         <v>3</v>
       </c>
-      <c r="L20" s="89">
+      <c r="L20" s="88">
         <v>1</v>
       </c>
-      <c r="M20" s="89">
+      <c r="M20" s="88">
         <v>0</v>
       </c>
     </row>
@@ -4704,19 +4911,19 @@
       <c r="H21">
         <v>973</v>
       </c>
-      <c r="I21" s="89">
+      <c r="I21" s="88">
         <v>914</v>
       </c>
-      <c r="J21" s="89">
+      <c r="J21" s="88">
         <v>915</v>
       </c>
-      <c r="K21" s="89">
+      <c r="K21" s="88">
         <v>869</v>
       </c>
-      <c r="L21" s="89">
+      <c r="L21" s="88">
         <v>915</v>
       </c>
-      <c r="M21" s="89">
+      <c r="M21" s="88">
         <v>952</v>
       </c>
     </row>
@@ -4743,19 +4950,19 @@
       <c r="H22">
         <v>416</v>
       </c>
-      <c r="I22" s="89">
+      <c r="I22" s="88">
         <v>458</v>
       </c>
-      <c r="J22" s="89">
+      <c r="J22" s="88">
         <v>443</v>
       </c>
-      <c r="K22" s="89">
+      <c r="K22" s="88">
         <v>402</v>
       </c>
-      <c r="L22" s="89">
+      <c r="L22" s="88">
         <v>457</v>
       </c>
-      <c r="M22" s="89">
+      <c r="M22" s="88">
         <v>388</v>
       </c>
     </row>
@@ -4768,43 +4975,43 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="O24" s="109" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="O24" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="112"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
@@ -6427,37 +6634,37 @@
       </c>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="102"/>
-      <c r="S47" s="102"/>
-      <c r="T47" s="102"/>
-      <c r="U47" s="102"/>
-      <c r="V47" s="102"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="102"/>
-      <c r="Y47" s="102"/>
-      <c r="Z47" s="102"/>
-      <c r="AA47" s="102"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47"/>
+      <c r="O47" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="P47" s="101"/>
+      <c r="Q47" s="101"/>
+      <c r="R47" s="101"/>
+      <c r="S47" s="101"/>
+      <c r="T47" s="101"/>
+      <c r="U47" s="101"/>
+      <c r="V47" s="101"/>
+      <c r="W47" s="101"/>
+      <c r="X47" s="101"/>
+      <c r="Y47" s="101"/>
+      <c r="Z47" s="101"/>
+      <c r="AA47" s="101"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
@@ -8299,8 +8506,275 @@
         <v>147</v>
       </c>
     </row>
+    <row r="70" spans="1:27">
+      <c r="A70" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="117"/>
+      <c r="E70" s="117"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="85">
+        <v>1</v>
+      </c>
+      <c r="C72" s="85">
+        <v>64123</v>
+      </c>
+      <c r="D72" s="88">
+        <v>0.94600000000000006</v>
+      </c>
+      <c r="E72" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>5.3999999999999937E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="B73" s="85">
+        <v>3</v>
+      </c>
+      <c r="C73" s="85">
+        <v>56240</v>
+      </c>
+      <c r="D73" s="88">
+        <v>0.878</v>
+      </c>
+      <c r="E73" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="B74" s="85">
+        <v>5</v>
+      </c>
+      <c r="C74" s="85">
+        <v>47638</v>
+      </c>
+      <c r="D74" s="88">
+        <v>0.78674999999999995</v>
+      </c>
+      <c r="E74" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.21325000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="85">
+        <v>1</v>
+      </c>
+      <c r="C75" s="85">
+        <v>28779</v>
+      </c>
+      <c r="D75" s="88">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E75" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>5.4000000000000048E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="B76" s="85">
+        <v>3</v>
+      </c>
+      <c r="C76" s="85">
+        <v>25312</v>
+      </c>
+      <c r="D76" s="88">
+        <v>0.87599999999999989</v>
+      </c>
+      <c r="E76" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.12400000000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="B77" s="85">
+        <v>5</v>
+      </c>
+      <c r="C77" s="85">
+        <v>21429</v>
+      </c>
+      <c r="D77" s="88">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E77" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.21499999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="85">
+        <v>1</v>
+      </c>
+      <c r="C78" s="85">
+        <v>23687</v>
+      </c>
+      <c r="D78" s="88">
+        <v>0.94700000000000006</v>
+      </c>
+      <c r="E78" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>5.2999999999999936E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="B79" s="85">
+        <v>3</v>
+      </c>
+      <c r="C79" s="85">
+        <v>20747</v>
+      </c>
+      <c r="D79" s="88">
+        <v>0.878</v>
+      </c>
+      <c r="E79" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="B80" s="85">
+        <v>5</v>
+      </c>
+      <c r="C80" s="85">
+        <v>17602</v>
+      </c>
+      <c r="D80" s="88">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E80" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.21499999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="85">
+        <v>1</v>
+      </c>
+      <c r="C81" s="85">
+        <v>8436</v>
+      </c>
+      <c r="D81" s="88">
+        <v>0.94400000000000006</v>
+      </c>
+      <c r="E81" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>5.5999999999999939E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" s="85">
+        <v>3</v>
+      </c>
+      <c r="C82" s="85">
+        <v>7380</v>
+      </c>
+      <c r="D82" s="88">
+        <v>0.87599999999999989</v>
+      </c>
+      <c r="E82" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.12400000000000011</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="B83" s="85">
+        <v>5</v>
+      </c>
+      <c r="C83" s="85">
+        <v>6279</v>
+      </c>
+      <c r="D83" s="88">
+        <v>0.77599999999999991</v>
+      </c>
+      <c r="E83" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.22400000000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="85">
+        <v>1</v>
+      </c>
+      <c r="C84" s="85">
+        <v>3221</v>
+      </c>
+      <c r="D84" s="88">
+        <v>0.94700000000000006</v>
+      </c>
+      <c r="E84" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>5.2999999999999936E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" s="85">
+        <v>3</v>
+      </c>
+      <c r="C85" s="85">
+        <v>2801</v>
+      </c>
+      <c r="D85" s="88">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E85" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="B86" s="85">
+        <v>5</v>
+      </c>
+      <c r="C86" s="85">
+        <v>2328</v>
+      </c>
+      <c r="D86" s="88">
+        <v>0.80099999999999993</v>
+      </c>
+      <c r="E86" s="88">
+        <f>1-Tabella6[[#This Row],[P(successo)]]</f>
+        <v>0.19900000000000007</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A70:E70"/>
     <mergeCell ref="O1:AA1"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A24:M24"/>
@@ -8311,13 +8785,14 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8327,7 +8802,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8930,74 +9405,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C352D2A5-AA55-4C61-9BC5-CB46B0A80C06}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="86" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="86" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="86" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="86" customWidth="1"/>
-    <col min="6" max="6" width="14" style="86" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="86" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="86" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="86"/>
-    <col min="11" max="11" width="11.85546875" style="86" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="86"/>
-    <col min="14" max="14" width="11.7109375" style="86" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="11.85546875" style="85" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="85" customWidth="1"/>
+    <col min="3" max="4" width="21.42578125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="85" customWidth="1"/>
+    <col min="6" max="6" width="14" style="85" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="85" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="85" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="85" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="85"/>
+    <col min="14" max="14" width="11.7109375" style="85" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="G1" s="119" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="G1" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="87" t="s">
+      <c r="G2" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="H2" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="87" t="s">
+      <c r="I2" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="87" t="s">
-        <v>135</v>
+      <c r="J2" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9007,15 +9481,15 @@
       <c r="B3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="93">
         <f>AVERAGE(Dati_OPTN!C26:H26)</f>
         <v>4418.5</v>
       </c>
-      <c r="D3" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D3" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>12.105479452054794</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="93">
         <f>C3/$C$3</f>
         <v>1</v>
       </c>
@@ -9025,16 +9499,16 @@
       <c r="H3" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="113">
+      <c r="I3" s="93">
         <f>AVERAGE(Dati_OPTN!Q49:V49)</f>
         <v>11046.5</v>
       </c>
-      <c r="J3" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J3" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>30.264383561643836</v>
       </c>
-      <c r="K3" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K3" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>1</v>
       </c>
     </row>
@@ -9043,15 +9517,15 @@
       <c r="B4" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="93">
         <f>AVERAGE(Dati_OPTN!C27:H27)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="D4" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D4" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.6529680365296802E-3</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E4" s="93">
         <f t="shared" ref="E4:E22" si="0">C4/$C$3</f>
         <v>3.0176153294858739E-4</v>
       </c>
@@ -9059,16 +9533,16 @@
       <c r="H4" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="113">
+      <c r="I4" s="93">
         <f>AVERAGE(Dati_OPTN!Q50:V50)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J4" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J4" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>9.1324200913242021E-3</v>
       </c>
-      <c r="K4" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K4" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>3.0175470360144241E-4</v>
       </c>
     </row>
@@ -9077,15 +9551,15 @@
       <c r="B5" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="93">
         <f>AVERAGE(Dati_OPTN!C28:H28)</f>
         <v>1681</v>
       </c>
-      <c r="D5" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D5" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>4.6054794520547944</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="93">
         <f t="shared" si="0"/>
         <v>0.38044585266493153</v>
       </c>
@@ -9093,16 +9567,16 @@
       <c r="H5" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="113">
+      <c r="I5" s="93">
         <f>AVERAGE(Dati_OPTN!Q51:V51)</f>
         <v>2905.8333333333335</v>
       </c>
-      <c r="J5" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J5" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.961187214611873</v>
       </c>
-      <c r="K5" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K5" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.26305466286455742</v>
       </c>
     </row>
@@ -9111,15 +9585,15 @@
       <c r="B6" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="93">
         <f>AVERAGE(Dati_OPTN!C29:H29)</f>
         <v>2813.5</v>
       </c>
-      <c r="D6" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D6" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>7.7082191780821914</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="93">
         <f t="shared" si="0"/>
         <v>0.63675455471313791</v>
       </c>
@@ -9127,16 +9601,16 @@
       <c r="H6" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="93">
         <f>AVERAGE(Dati_OPTN!Q52:V52)</f>
         <v>9278.6666666666661</v>
       </c>
-      <c r="J6" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J6" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>25.421004566210044</v>
       </c>
-      <c r="K6" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K6" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.83996439294497494</v>
       </c>
     </row>
@@ -9147,15 +9621,15 @@
       <c r="B7" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="93">
         <f>AVERAGE(Dati_OPTN!C30:H30)</f>
         <v>2313.5</v>
       </c>
-      <c r="D7" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D7" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>6.338356164383562</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="93">
         <f t="shared" si="0"/>
         <v>0.52359397985741762</v>
       </c>
@@ -9165,16 +9639,16 @@
       <c r="H7" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="113">
+      <c r="I7" s="93">
         <f>AVERAGE(Dati_OPTN!Q53:V53)</f>
         <v>5731.833333333333</v>
       </c>
-      <c r="J7" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J7" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>15.703652968036529</v>
       </c>
-      <c r="K7" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K7" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.51888230057786022</v>
       </c>
     </row>
@@ -9183,15 +9657,15 @@
       <c r="B8" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="93">
         <f>AVERAGE(Dati_OPTN!C31:H31)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D8" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="93">
         <f t="shared" si="0"/>
         <v>2.2632114971144054E-4</v>
       </c>
@@ -9199,16 +9673,16 @@
       <c r="H8" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="93">
         <f>AVERAGE(Dati_OPTN!Q54:V54)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="J8" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J8" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>6.392694063926941E-3</v>
       </c>
-      <c r="K8" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K8" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>2.1122829252100968E-4</v>
       </c>
     </row>
@@ -9217,15 +9691,15 @@
       <c r="B9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="113">
+      <c r="C9" s="93">
         <f>AVERAGE(Dati_OPTN!C32:H32)</f>
         <v>913.83333333333337</v>
       </c>
-      <c r="D9" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D9" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.5036529680365298</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="93">
         <f t="shared" si="0"/>
         <v>0.20681981064463809</v>
       </c>
@@ -9233,16 +9707,16 @@
       <c r="H9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="93">
         <f>AVERAGE(Dati_OPTN!Q55:V55)</f>
         <v>1521.5</v>
       </c>
-      <c r="J9" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J9" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.1684931506849319</v>
       </c>
-      <c r="K9" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K9" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.13773593445887838</v>
       </c>
     </row>
@@ -9251,15 +9725,15 @@
       <c r="B10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="113">
+      <c r="C10" s="93">
         <f>AVERAGE(Dati_OPTN!C33:H33)</f>
         <v>1440.6666666666667</v>
       </c>
-      <c r="D10" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D10" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.9470319634703199</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="93">
         <f t="shared" si="0"/>
         <v>0.32605333635094869</v>
       </c>
@@ -9267,16 +9741,16 @@
       <c r="H10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="113">
+      <c r="I10" s="93">
         <f>AVERAGE(Dati_OPTN!Q56:V56)</f>
         <v>4760.833333333333</v>
       </c>
-      <c r="J10" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J10" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>13.043378995433789</v>
       </c>
-      <c r="K10" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K10" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.43098115541876009</v>
       </c>
     </row>
@@ -9287,15 +9761,15 @@
       <c r="B11" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="93">
         <f>AVERAGE(Dati_OPTN!C34:H34)</f>
         <v>1276.8333333333333</v>
       </c>
-      <c r="D11" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D11" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.4981735159817351</v>
       </c>
-      <c r="E11" s="113">
+      <c r="E11" s="93">
         <f t="shared" si="0"/>
         <v>0.28897438798989095</v>
       </c>
@@ -9305,16 +9779,16 @@
       <c r="H11" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="113">
+      <c r="I11" s="93">
         <f>AVERAGE(Dati_OPTN!Q57:V57)</f>
         <v>3254.1666666666665</v>
       </c>
-      <c r="J11" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J11" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>8.9155251141552512</v>
       </c>
-      <c r="K11" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K11" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.29458802939090811</v>
       </c>
     </row>
@@ -9323,15 +9797,15 @@
       <c r="B12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="93">
         <f>AVERAGE(Dati_OPTN!C35:H35)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D12" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>9.1324200913242006E-4</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="93">
         <f t="shared" si="0"/>
         <v>7.5440383237146847E-5</v>
       </c>
@@ -9339,16 +9813,16 @@
       <c r="H12" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="93">
         <f>AVERAGE(Dati_OPTN!Q58:V58)</f>
         <v>0.5</v>
       </c>
-      <c r="J12" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J12" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="K12" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K12" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>4.5263205540216361E-5</v>
       </c>
     </row>
@@ -9357,15 +9831,15 @@
       <c r="B13" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="93">
         <f>AVERAGE(Dati_OPTN!C36:H36)</f>
         <v>445.5</v>
       </c>
-      <c r="D13" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D13" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.2205479452054795</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="93">
         <f t="shared" si="0"/>
         <v>0.10082607219644676</v>
       </c>
@@ -9373,16 +9847,16 @@
       <c r="H13" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="93">
         <f>AVERAGE(Dati_OPTN!Q59:V59)</f>
         <v>853.33333333333337</v>
       </c>
-      <c r="J13" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J13" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>2.3378995433789957</v>
       </c>
-      <c r="K13" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K13" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>7.7249204121969256E-2</v>
       </c>
     </row>
@@ -9391,15 +9865,15 @@
       <c r="B14" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="113">
+      <c r="C14" s="93">
         <f>AVERAGE(Dati_OPTN!C37:H37)</f>
         <v>848.16666666666663</v>
       </c>
-      <c r="D14" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D14" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.3237442922374427</v>
       </c>
-      <c r="E14" s="113">
+      <c r="E14" s="93">
         <f t="shared" si="0"/>
         <v>0.19195805514692013</v>
       </c>
@@ -9407,360 +9881,361 @@
       <c r="H14" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="113">
+      <c r="I14" s="93">
         <f>AVERAGE(Dati_OPTN!Q60:V60)</f>
         <v>2782.5</v>
       </c>
-      <c r="J14" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J14" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.6232876712328768</v>
       </c>
-      <c r="K14" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K14" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.25188973883130406</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="93">
         <f>AVERAGE(Dati_OPTN!C38:H38)</f>
         <v>708.83333333333337</v>
       </c>
-      <c r="D15" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D15" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.9420091324200914</v>
       </c>
-      <c r="E15" s="113">
+      <c r="E15" s="93">
         <f t="shared" si="0"/>
         <v>0.16042397495379276</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="113">
+      <c r="I15" s="93">
         <f>AVERAGE(Dati_OPTN!Q61:V61)</f>
         <v>1750.8333333333333</v>
       </c>
-      <c r="J15" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J15" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.7968036529680367</v>
       </c>
-      <c r="K15" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K15" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.15849665806665761</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="93">
         <f>AVERAGE(Dati_OPTN!C39:H39)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="113">
+      <c r="D16" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88" t="s">
+      <c r="G16" s="87"/>
+      <c r="H16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="I16" s="113">
+      <c r="I16" s="93">
         <f>AVERAGE(Dati_OPTN!Q62:V62)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="J16" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="93">
         <f>AVERAGE(Dati_OPTN!C40:H40)</f>
         <v>283.16666666666669</v>
       </c>
-      <c r="D17" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D17" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.77579908675799092</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="93">
         <f t="shared" si="0"/>
         <v>6.4086605559956253E-2</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88" t="s">
+      <c r="G17" s="87"/>
+      <c r="H17" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="113">
+      <c r="I17" s="93">
         <f>AVERAGE(Dati_OPTN!Q63:V63)</f>
         <v>454</v>
       </c>
-      <c r="J17" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J17" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.2438356164383562</v>
       </c>
-      <c r="K17" s="113">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K17" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>4.1098990630516453E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="93">
         <f>AVERAGE(Dati_OPTN!C41:H41)</f>
         <v>442.5</v>
       </c>
-      <c r="D18" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D18" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.2123287671232876</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="93">
         <f t="shared" si="0"/>
         <v>0.10014710874731243</v>
       </c>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88" t="s">
+      <c r="G18" s="87"/>
+      <c r="H18" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="113">
+      <c r="I18" s="93">
         <f>AVERAGE(Dati_OPTN!Q64:V64)</f>
         <v>1459.6666666666667</v>
       </c>
-      <c r="J18" s="120">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J18" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>3.999086757990868</v>
       </c>
-      <c r="K18" s="118">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K18" s="94">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>0.13213838470707162</v>
       </c>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="93">
         <f>AVERAGE(Dati_OPTN!C42:H42)</f>
         <v>119.33333333333333</v>
       </c>
-      <c r="D19" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D19" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.32694063926940636</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="93">
         <f t="shared" si="0"/>
         <v>2.7007657198898569E-2</v>
       </c>
-      <c r="G19" s="88" t="s">
+      <c r="G19" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="113">
+      <c r="I19" s="93">
         <f>AVERAGE(Dati_OPTN!Q65:V65)</f>
         <v>309.83333333333331</v>
       </c>
-      <c r="J19" s="120">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J19" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.84885844748858441</v>
       </c>
-      <c r="K19" s="118">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K19" s="94">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>2.8048099699754067E-2</v>
       </c>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="93">
         <f>AVERAGE(Dati_OPTN!C43:H43)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="113">
+      <c r="D20" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88" t="s">
+      <c r="G20" s="87"/>
+      <c r="H20" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="113">
+      <c r="I20" s="93">
         <f>AVERAGE(Dati_OPTN!Q66:V66)</f>
         <v>0.5</v>
       </c>
-      <c r="J20" s="120">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J20" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="K20" s="118">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K20" s="94">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>4.5263205540216361E-5</v>
       </c>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="93">
         <f>AVERAGE(Dati_OPTN!C44:H44)</f>
         <v>38.5</v>
       </c>
-      <c r="D21" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D21" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.10547945205479452</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="93">
         <f t="shared" si="0"/>
         <v>8.7133642638904611E-3</v>
       </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88" t="s">
+      <c r="G21" s="87"/>
+      <c r="H21" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="113">
+      <c r="I21" s="93">
         <f>AVERAGE(Dati_OPTN!Q67:V67)</f>
         <v>77</v>
       </c>
-      <c r="J21" s="120">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J21" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.21095890410958903</v>
       </c>
-      <c r="K21" s="118">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K21" s="94">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>6.970533653193319E-3</v>
       </c>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="93">
         <f>AVERAGE(Dati_OPTN!C45:H45)</f>
         <v>82.166666666666671</v>
       </c>
-      <c r="D22" s="113">
-        <f>Tabella5[[#This Row],[d/anno]]/365</f>
+      <c r="D22" s="93">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.22511415525114156</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="93">
         <f t="shared" si="0"/>
         <v>1.8596054467956698E-2</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88" t="s">
+      <c r="G22" s="87"/>
+      <c r="H22" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="113">
+      <c r="I22" s="93">
         <f>AVERAGE(Dati_OPTN!Q68:V68)</f>
         <v>275.83333333333331</v>
       </c>
-      <c r="J22" s="120">
-        <f>Tabella511[[#This Row],[r/anno]]/365</f>
+      <c r="J22" s="93">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.75570776255707761</v>
       </c>
-      <c r="K22" s="118">
-        <f>Tabella511[[#This Row],[r/anno]]/$I$3</f>
+      <c r="K22" s="94">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$I$3</f>
         <v>2.4970201723019357E-2</v>
       </c>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="114" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
+      <c r="A24" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="87" t="s">
+      <c r="C25" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="87" t="s">
+      <c r="D25" s="86" t="s">
         <v>135</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -9770,16 +10245,16 @@
       <c r="B26" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="93">
         <f>AVERAGE(Dati_OPTN!C49:H49)</f>
         <v>19743.833333333332</v>
       </c>
-      <c r="D26" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D26" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>54.092694063926935</v>
       </c>
-      <c r="E26" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E26" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>1</v>
       </c>
     </row>
@@ -9788,16 +10263,16 @@
       <c r="B27" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="113">
+      <c r="C27" s="93">
         <f>AVERAGE(Dati_OPTN!C50:H50)</f>
         <v>16.5</v>
       </c>
-      <c r="D27" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D27" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.5205479452054796E-2</v>
       </c>
-      <c r="E27" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E27" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>8.3570397508082699E-4</v>
       </c>
     </row>
@@ -9806,16 +10281,16 @@
       <c r="B28" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="93">
         <f>AVERAGE(Dati_OPTN!C51:H51)</f>
         <v>18036.166666666668</v>
       </c>
-      <c r="D28" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D28" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>49.414155251141558</v>
       </c>
-      <c r="E28" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E28" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>0.91350885930628145</v>
       </c>
     </row>
@@ -9824,16 +10299,16 @@
       <c r="B29" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="113">
+      <c r="C29" s="93">
         <f>AVERAGE(Dati_OPTN!C52:H52)</f>
         <v>1546</v>
       </c>
-      <c r="D29" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D29" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.2356164383561641</v>
       </c>
-      <c r="E29" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E29" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>7.830293002878537E-2</v>
       </c>
     </row>
@@ -9844,16 +10319,16 @@
       <c r="B30" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="113">
+      <c r="C30" s="93">
         <f>AVERAGE(Dati_OPTN!C53:H53)</f>
         <v>8915.5</v>
       </c>
-      <c r="D30" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D30" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>24.426027397260274</v>
       </c>
-      <c r="E30" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E30" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>0.45155871453534019</v>
       </c>
     </row>
@@ -9862,16 +10337,16 @@
       <c r="B31" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="113">
+      <c r="C31" s="93">
         <f>AVERAGE(Dati_OPTN!C54:H54)</f>
         <v>7.5</v>
       </c>
-      <c r="D31" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D31" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.0547945205479451E-2</v>
       </c>
-      <c r="E31" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E31" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>3.7986544321855773E-4</v>
       </c>
     </row>
@@ -9880,16 +10355,16 @@
       <c r="B32" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="93">
         <f>AVERAGE(Dati_OPTN!C55:H55)</f>
         <v>8187</v>
       </c>
-      <c r="D32" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D32" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>22.43013698630137</v>
       </c>
-      <c r="E32" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E32" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>0.41466111781737758</v>
       </c>
     </row>
@@ -9898,16 +10373,16 @@
       <c r="B33" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="113">
+      <c r="C33" s="93">
         <f>AVERAGE(Dati_OPTN!C56:H56)</f>
         <v>657.16666666666663</v>
       </c>
-      <c r="D33" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D33" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.800456621004566</v>
       </c>
-      <c r="E33" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E33" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>3.3284654280239398E-2</v>
       </c>
     </row>
@@ -9918,16 +10393,16 @@
       <c r="B34" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="93">
         <f>AVERAGE(Dati_OPTN!C57:H57)</f>
         <v>7162.333333333333</v>
       </c>
-      <c r="D34" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D34" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>19.62283105022831</v>
       </c>
-      <c r="E34" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E34" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>0.36276305681942883</v>
       </c>
     </row>
@@ -9936,16 +10411,16 @@
       <c r="B35" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="113">
+      <c r="C35" s="93">
         <f>AVERAGE(Dati_OPTN!C58:H58)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="D35" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D35" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.187214611872146E-2</v>
       </c>
-      <c r="E35" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E35" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>2.1947781163738888E-4</v>
       </c>
     </row>
@@ -9954,16 +10429,16 @@
       <c r="B36" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="93">
         <f>AVERAGE(Dati_OPTN!C59:H59)</f>
         <v>6475</v>
       </c>
-      <c r="D36" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D36" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>17.739726027397261</v>
       </c>
-      <c r="E36" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E36" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>0.32795049931202147</v>
       </c>
     </row>
@@ -9972,172 +10447,172 @@
       <c r="B37" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="113">
+      <c r="C37" s="93">
         <f>AVERAGE(Dati_OPTN!C60:H60)</f>
         <v>625.33333333333337</v>
       </c>
-      <c r="D37" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D37" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.7132420091324201</v>
       </c>
-      <c r="E37" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E37" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>3.1672336510133972E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="113">
+      <c r="C38" s="93">
         <f>AVERAGE(Dati_OPTN!C61:H61)</f>
         <v>2700.5</v>
       </c>
-      <c r="D38" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D38" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>7.3986301369863012</v>
       </c>
-      <c r="E38" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E38" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>0.13677688392156201</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="113">
+      <c r="C39" s="93">
         <f>AVERAGE(Dati_OPTN!C62:H62)</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="D39" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D39" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.0502283105022832E-2</v>
       </c>
-      <c r="E39" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E39" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>1.9415344875615173E-4</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="113">
+      <c r="C40" s="93">
         <f>AVERAGE(Dati_OPTN!C63:H63)</f>
         <v>2481.5</v>
       </c>
-      <c r="D40" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D40" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>6.7986301369863016</v>
       </c>
-      <c r="E40" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E40" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>0.12568481297958012</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="113">
+      <c r="C41" s="93">
         <f>AVERAGE(Dati_OPTN!C64:H64)</f>
         <v>198.16666666666666</v>
       </c>
-      <c r="D41" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D41" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>0.54292237442922375</v>
       </c>
-      <c r="E41" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E41" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>1.0036889155263668E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="113">
+      <c r="C42" s="93">
         <f>AVERAGE(Dati_OPTN!C65:H65)</f>
         <v>965.5</v>
       </c>
-      <c r="D42" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D42" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.6452054794520548</v>
       </c>
-      <c r="E42" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E42" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>4.8901344723668999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="113">
+      <c r="C43" s="93">
         <f>AVERAGE(Dati_OPTN!C66:H66)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D43" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D43" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.2831050228310505E-3</v>
       </c>
-      <c r="E43" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E43" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>4.2207271468728638E-5</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="113">
+      <c r="C44" s="93">
         <f>AVERAGE(Dati_OPTN!C67:H67)</f>
         <v>892.66666666666663</v>
       </c>
-      <c r="D44" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D44" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.4456621004566208</v>
       </c>
-      <c r="E44" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E44" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>4.5212429197302111E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="113">
+      <c r="C45" s="93">
         <f>AVERAGE(Dati_OPTN!C68:H68)</f>
         <v>65.333333333333329</v>
       </c>
-      <c r="D45" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/365</f>
+      <c r="D45" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>0.17899543378995433</v>
       </c>
-      <c r="E45" s="113">
-        <f>Tabella512[[#This Row],[t/anno]]/$C$26</f>
+      <c r="E45" s="93">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$26</f>
         <v>3.3090500831483246E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A24:D24"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10151,11 +10626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C51F10-E92F-4724-A144-37CC052D4688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C51F10-E92F-4724-A144-37CC052D4688}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10166,51 +10641,56 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="99" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="96"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="62" t="s">
         <v>9</v>
       </c>
@@ -10246,17 +10726,17 @@
       <c r="G3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="91" t="s">
         <v>102</v>
       </c>
       <c r="I3" s="57" t="s">
         <v>92</v>
       </c>
       <c r="J3" s="65"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="83" t="s">
         <v>98</v>
       </c>
       <c r="M3" s="65"/>
@@ -10287,10 +10767,10 @@
         <f>C4*(1-Uscite!E8-Uscite!K8)</f>
         <v>5.2032017974239959E-2</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="59">
@@ -10298,28 +10778,34 @@
         <v>22.411872146118721</v>
       </c>
       <c r="J4" s="73">
-        <f>1/I$4</f>
-        <v>4.4619208671203295E-2</v>
+        <f>1/(I$4+SUM(F$4:F$6))</f>
+        <v>1.9946762001335716E-2</v>
       </c>
       <c r="K4" s="77">
         <f>F4*J4</f>
-        <v>2.3216274675764135E-3</v>
+        <v>1.0378702789813866E-3</v>
       </c>
       <c r="L4" s="77">
         <f>SUM(K$4:K$6)</f>
-        <v>1.2369148771221818</v>
+        <v>0.55295572029700468</v>
       </c>
       <c r="M4" s="73">
         <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K3)*(1-K3-K4)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K2-K3)*(1-L4)))))</f>
-        <v>5.5318592173888965E-2</v>
+        <v>1.1041135416336339E-2</v>
       </c>
       <c r="N4" s="73">
         <f t="shared" ref="N4:N15" si="0">M4+J4</f>
-        <v>9.9937800845092267E-2</v>
-      </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="85">
+        <v>3.0987897417672057E-2</v>
+      </c>
+      <c r="O4" s="73">
+        <f>M4*F4</f>
+        <v>5.7449255643882982E-4</v>
+      </c>
+      <c r="P4" s="73">
+        <f>N4*F4</f>
+        <v>1.6123628354202165E-3</v>
+      </c>
+      <c r="Q4" s="84">
         <f t="shared" ref="Q4:Q15" si="1">(D4/E4)</f>
         <v>0.39999094735889196</v>
       </c>
@@ -10345,8 +10831,8 @@
         <f>C5*(1-Uscite!E9-Uscite!K9)</f>
         <v>24.697378956190793</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I5" s="59">
@@ -10354,28 +10840,34 @@
         <v>12.106849315068493</v>
       </c>
       <c r="J5" s="73">
-        <f>1/I$4</f>
-        <v>4.4619208671203295E-2</v>
+        <f>J4</f>
+        <v>1.9946762001335716E-2</v>
       </c>
       <c r="K5" s="77">
         <f t="shared" ref="K5:K15" si="2">F5*J5</f>
-        <v>1.101977505278062</v>
+        <v>0.49263274009593488</v>
       </c>
       <c r="L5" s="77">
-        <f t="shared" ref="L5:L6" si="3">SUM(K$4:K$6)</f>
-        <v>1.2369148771221818</v>
+        <f>L4</f>
+        <v>0.55295572029700468</v>
       </c>
       <c r="M5" s="73">
         <f>IF(MOD(ROW(),3)=1,(L5*J5)/(1-K5),IF(MOD(ROW(),3)=2,(L5*J5)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L5*J5)/((1-K3-K4)*(1-L5)))))</f>
-        <v>-0.53038400912496841</v>
+        <v>2.1806230573563679E-2</v>
       </c>
       <c r="N5" s="73">
         <f t="shared" si="0"/>
-        <v>-0.48576480045376513</v>
-      </c>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="85">
+        <v>4.1752992574899395E-2</v>
+      </c>
+      <c r="O5" s="73">
+        <f t="shared" ref="O5:O15" si="3">M5*F5</f>
+        <v>0.53855674008137588</v>
+      </c>
+      <c r="P5" s="73">
+        <f t="shared" ref="P5:P15" si="4">N5*F5</f>
+        <v>1.0311894801773107</v>
+      </c>
+      <c r="Q5" s="84">
         <f t="shared" si="1"/>
         <v>0.39999999999999991</v>
       </c>
@@ -10401,8 +10893,8 @@
         <f>C6*(1-Uscite!E10-Uscite!K10)</f>
         <v>2.9721671075294531</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="89"/>
+      <c r="H6" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I6" s="59">
@@ -10410,28 +10902,34 @@
         <v>10.305022831050229</v>
       </c>
       <c r="J6" s="73">
-        <f t="shared" ref="J5:J6" si="4">1/I$4</f>
-        <v>4.4619208671203295E-2</v>
+        <f>J5</f>
+        <v>1.9946762001335716E-2</v>
       </c>
       <c r="K6" s="77">
         <f t="shared" si="2"/>
-        <v>0.13261574437654339</v>
+        <v>5.928510992208838E-2</v>
       </c>
       <c r="L6" s="77">
-        <f t="shared" si="3"/>
-        <v>1.2369148771221818</v>
+        <f>L5</f>
+        <v>0.55295572029700468</v>
       </c>
       <c r="M6" s="73">
         <f>IF(MOD(ROW(),3)=1,(L6*J6)/(1-K6),IF(MOD(ROW(),3)=2,(L6*J6)/((1-K5)*(1-K5-K6)), IF(MOD(ROW(),3)=0,(L6*J6)/((1-K4-K5)*(1-L6)))))</f>
-        <v>2.2335138319242218</v>
+        <v>4.8728055640097266E-2</v>
       </c>
       <c r="N6" s="73">
         <f t="shared" si="0"/>
-        <v>2.2781330405954252</v>
-      </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="85">
+        <v>6.8674817641432989E-2</v>
+      </c>
+      <c r="O6" s="73">
+        <f t="shared" si="3"/>
+        <v>0.14482792418736215</v>
+      </c>
+      <c r="P6" s="73">
+        <f t="shared" si="4"/>
+        <v>0.20411303410945056</v>
+      </c>
+      <c r="Q6" s="84">
         <f t="shared" si="1"/>
         <v>0.57849154000573555</v>
       </c>
@@ -10459,10 +10957,10 @@
         <f>C7*(1-Uscite!E12-Uscite!K12)</f>
         <v>2.9220216881423858E-2</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="90" t="s">
         <v>105</v>
       </c>
       <c r="I7" s="59">
@@ -10470,28 +10968,34 @@
         <v>13.938356164383562</v>
       </c>
       <c r="J7" s="73">
-        <f>1/I$7</f>
-        <v>7.1744471744471738E-2</v>
+        <f>1/(I$7+SUM(F7:F9))</f>
+        <v>2.5609757636762279E-2</v>
       </c>
       <c r="K7" s="77">
         <f t="shared" si="2"/>
-        <v>2.0963890244166498E-3</v>
+        <v>7.4832267242689471E-4</v>
       </c>
       <c r="L7" s="77">
         <f>SUM(K$7:K$9)</f>
-        <v>1.8014506330776059</v>
+        <v>0.64304207677526548</v>
       </c>
       <c r="M7" s="73">
         <f t="shared" ref="M7:M14" si="5">IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K6)*(1-K6-K7)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K5-K6)*(1-L7)))))</f>
-        <v>0.12951563920842385</v>
+        <v>1.6480484456626303E-2</v>
       </c>
       <c r="N7" s="73">
         <f t="shared" si="0"/>
-        <v>0.20126011095289559</v>
-      </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="85">
+        <v>4.2090242093388582E-2</v>
+      </c>
+      <c r="O7" s="73">
+        <f t="shared" si="3"/>
+        <v>4.8156333013355538E-4</v>
+      </c>
+      <c r="P7" s="73">
+        <f t="shared" si="4"/>
+        <v>1.22988600256045E-3</v>
+      </c>
+      <c r="Q7" s="84">
         <f t="shared" si="1"/>
         <v>0.30322244575370022</v>
       </c>
@@ -10517,8 +11021,8 @@
         <f>C8*(1-Uscite!E13-Uscite!K13)</f>
         <v>20.27376787605273</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="59">
@@ -10526,28 +11030,34 @@
         <v>9.3986301369863021</v>
       </c>
       <c r="J8" s="73">
-        <f t="shared" ref="J8:J9" si="6">1/I$7</f>
-        <v>7.1744471744471738E-2</v>
+        <f>J7</f>
+        <v>2.5609757636762279E-2</v>
       </c>
       <c r="K8" s="77">
         <f t="shared" si="2"/>
-        <v>1.4545307665374438</v>
+        <v>0.51920628168968719</v>
       </c>
       <c r="L8" s="77">
-        <f t="shared" ref="L8:L9" si="7">SUM(K$7:K$9)</f>
-        <v>1.8014506330776059</v>
+        <f>L7</f>
+        <v>0.64304207677526548</v>
       </c>
       <c r="M8" s="73">
         <f t="shared" si="5"/>
-        <v>-0.28363542910421158</v>
+        <v>3.4331095780487549E-2</v>
       </c>
       <c r="N8" s="73">
         <f t="shared" si="0"/>
-        <v>-0.21189095735973984</v>
-      </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="85">
+        <v>5.9940853417249827E-2</v>
+      </c>
+      <c r="O8" s="73">
+        <f t="shared" si="3"/>
+        <v>0.69602066678413788</v>
+      </c>
+      <c r="P8" s="73">
+        <f t="shared" si="4"/>
+        <v>1.2152269484738252</v>
+      </c>
+      <c r="Q8" s="84">
         <f t="shared" si="1"/>
         <v>0.40362304091186652</v>
       </c>
@@ -10573,8 +11083,8 @@
         <f>C9*(1-Uscite!E14-Uscite!K14)</f>
         <v>4.806272443455768</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I9" s="59">
@@ -10582,28 +11092,34 @@
         <v>4.5397260273972604</v>
       </c>
       <c r="J9" s="73">
-        <f t="shared" si="6"/>
-        <v>7.1744471744471738E-2</v>
+        <f>J8</f>
+        <v>2.5609757636762279E-2</v>
       </c>
       <c r="K9" s="77">
         <f t="shared" si="2"/>
-        <v>0.34482347751574549</v>
+        <v>0.12308747241315145</v>
       </c>
       <c r="L9" s="77">
-        <f t="shared" si="7"/>
-        <v>1.8014506330776059</v>
+        <f>L8</f>
+        <v>0.64304207677526548</v>
       </c>
       <c r="M9" s="73">
         <f t="shared" si="5"/>
-        <v>0.35316064049611201</v>
+        <v>9.6104898676104361E-2</v>
       </c>
       <c r="N9" s="73">
         <f t="shared" si="0"/>
-        <v>0.42490511224058375</v>
-      </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="85">
+        <v>0.12171465631286664</v>
+      </c>
+      <c r="O9" s="73">
+        <f t="shared" si="3"/>
+        <v>0.46190632618806909</v>
+      </c>
+      <c r="P9" s="73">
+        <f t="shared" si="4"/>
+        <v>0.58499379860122058</v>
+      </c>
+      <c r="Q9" s="84">
         <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
@@ -10631,10 +11147,10 @@
         <f>C10*(1-Uscite!E16-Uscite!K16)</f>
         <v>1.643835616438356E-2</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="90" t="s">
         <v>105</v>
       </c>
       <c r="I10" s="59">
@@ -10642,28 +11158,34 @@
         <v>4.3242009132420085</v>
       </c>
       <c r="J10" s="73">
-        <f>1/I$10</f>
-        <v>0.2312565997888068</v>
+        <f>1/(I$10+SUM(F10:F12))</f>
+        <v>5.7169957965793758E-2</v>
       </c>
       <c r="K10" s="77">
         <f t="shared" si="2"/>
-        <v>3.8014783526927141E-3</v>
+        <v>9.3978013094455487E-4</v>
       </c>
       <c r="L10" s="77">
         <f>SUM(K$10:K$12)</f>
-        <v>3.0450720626237562</v>
+        <v>0.75278561555430723</v>
       </c>
       <c r="M10" s="73">
         <f t="shared" si="5"/>
-        <v>0.7068802010966746</v>
+        <v>4.3077205099943477E-2</v>
       </c>
       <c r="N10" s="73">
         <f t="shared" si="0"/>
-        <v>0.93813680088548135</v>
-      </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="85">
+        <v>0.10024716306573724</v>
+      </c>
+      <c r="O10" s="73">
+        <f t="shared" si="3"/>
+        <v>7.081184399990708E-4</v>
+      </c>
+      <c r="P10" s="73">
+        <f t="shared" si="4"/>
+        <v>1.6478985709436256E-3</v>
+      </c>
+      <c r="Q10" s="84">
         <f t="shared" si="1"/>
         <v>0.60061342972943366</v>
       </c>
@@ -10689,8 +11211,8 @@
         <f>C11*(1-Uscite!E17-Uscite!K17)</f>
         <v>10.291591416965467</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91" t="s">
+      <c r="G11" s="89"/>
+      <c r="H11" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I11" s="59">
@@ -10698,28 +11220,34 @@
         <v>2.9876712328767123</v>
       </c>
       <c r="J11" s="73">
-        <f t="shared" ref="J11:J12" si="8">1/I$10</f>
-        <v>0.2312565997888068</v>
+        <f>J10</f>
+        <v>5.7169957965793758E-2</v>
       </c>
       <c r="K11" s="77">
         <f t="shared" si="2"/>
-        <v>2.3799984375031022</v>
+        <v>0.58836984870903952</v>
       </c>
       <c r="L11" s="77">
-        <f t="shared" ref="L11:L12" si="9">SUM(K$10:K$12)</f>
-        <v>3.0450720626237562</v>
+        <f>L10</f>
+        <v>0.75278561555430723</v>
       </c>
       <c r="M11" s="73">
         <f t="shared" si="5"/>
-        <v>-0.51082544015007603</v>
+        <v>0.10488973719610156</v>
       </c>
       <c r="N11" s="73">
         <f t="shared" si="0"/>
-        <v>-0.27956884036126922</v>
-      </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="85">
+        <v>0.16205969516189533</v>
+      </c>
+      <c r="O11" s="73">
+        <f t="shared" si="3"/>
+        <v>1.0794823190551623</v>
+      </c>
+      <c r="P11" s="73">
+        <f t="shared" si="4"/>
+        <v>1.667852167764202</v>
+      </c>
+      <c r="Q11" s="84">
         <f t="shared" si="1"/>
         <v>0.30260808681953444</v>
       </c>
@@ -10745,8 +11273,8 @@
         <f>C12*(1-Uscite!E18-Uscite!K18)</f>
         <v>2.8594736209555203</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91" t="s">
+      <c r="G12" s="89"/>
+      <c r="H12" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I12" s="59">
@@ -10754,28 +11282,34 @@
         <v>1.3365296803652968</v>
       </c>
       <c r="J12" s="73">
-        <f t="shared" si="8"/>
-        <v>0.2312565997888068</v>
+        <f>J11</f>
+        <v>5.7169957965793758E-2</v>
       </c>
       <c r="K12" s="77">
         <f t="shared" si="2"/>
-        <v>0.66127214676796098</v>
+        <v>0.16347598671432317</v>
       </c>
       <c r="L12" s="77">
-        <f t="shared" si="9"/>
-        <v>3.0450720626237562</v>
+        <f>L11</f>
+        <v>0.75278561555430723</v>
       </c>
       <c r="M12" s="73">
         <f t="shared" si="5"/>
-        <v>0.24883404237817461</v>
+        <v>0.4238878095225273</v>
       </c>
       <c r="N12" s="73">
         <f t="shared" si="0"/>
-        <v>0.48009064216698139</v>
-      </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="85">
+        <v>0.48105776748832108</v>
+      </c>
+      <c r="O12" s="73">
+        <f t="shared" si="3"/>
+        <v>1.212096009574285</v>
+      </c>
+      <c r="P12" s="73">
+        <f t="shared" si="4"/>
+        <v>1.3755719962886082</v>
+      </c>
+      <c r="Q12" s="84">
         <f t="shared" si="1"/>
         <v>0.39236875800256082</v>
       </c>
@@ -10803,10 +11337,10 @@
         <f>C13*(1-Uscite!E20-Uscite!K20)</f>
         <v>4.5660033643582648E-3</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="H13" s="90" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="59">
@@ -10814,28 +11348,34 @@
         <v>1.0904109589041096</v>
       </c>
       <c r="J13" s="73">
-        <f>1/I$13</f>
-        <v>0.91708542713567842</v>
+        <f>1/(I$13+SUM(F13:F15))</f>
+        <v>0.20389464241010324</v>
       </c>
       <c r="K13" s="77">
         <f t="shared" si="2"/>
-        <v>4.1874151457054441E-3</v>
+        <v>9.3098362321915676E-4</v>
       </c>
       <c r="L13" s="77">
         <f>SUM(K$13:K$15)</f>
-        <v>3.4978397484868671</v>
+        <v>0.77767104745418902</v>
       </c>
       <c r="M13" s="73">
         <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K12)*(1-K12-K13)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K11-K12)*(1-L13)))))</f>
-        <v>3.2213068087130012</v>
+        <v>0.15871071721191596</v>
       </c>
       <c r="N13" s="73">
         <f t="shared" si="0"/>
-        <v>4.1383922358486798</v>
-      </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="85">
+        <v>0.36260535962201923</v>
+      </c>
+      <c r="O13" s="73">
+        <f t="shared" si="3"/>
+        <v>7.2467366874932144E-4</v>
+      </c>
+      <c r="P13" s="73">
+        <f t="shared" si="4"/>
+        <v>1.6556572919684783E-3</v>
+      </c>
+      <c r="Q13" s="84">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
@@ -10861,8 +11401,8 @@
         <f>C14*(1-Uscite!E21-Uscite!K21)</f>
         <v>2.8347404821173301</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91" t="s">
+      <c r="G14" s="89"/>
+      <c r="H14" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="59">
@@ -10870,28 +11410,34 @@
         <v>0.87168949771689508</v>
       </c>
       <c r="J14" s="73">
-        <f t="shared" ref="J14:J15" si="10">1/I$13</f>
-        <v>0.91708542713567842</v>
+        <f>J13</f>
+        <v>0.20389464241010324</v>
       </c>
       <c r="K14" s="77">
         <f>F14*J14</f>
-        <v>2.5996991858613705</v>
+        <v>0.57798839692675674</v>
       </c>
       <c r="L14" s="77">
-        <f t="shared" ref="L14:L15" si="11">SUM(K$13:K$15)</f>
-        <v>3.4978397484868671</v>
+        <f>L13</f>
+        <v>0.77767104745418902</v>
       </c>
       <c r="M14" s="73">
         <f t="shared" si="5"/>
-        <v>-2.0084380072072126</v>
+        <v>0.37691289952790746</v>
       </c>
       <c r="N14" s="73">
         <f t="shared" si="0"/>
-        <v>-1.091352580071534</v>
-      </c>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="85">
+        <v>0.58080754193801076</v>
+      </c>
+      <c r="O14" s="73">
+        <f t="shared" si="3"/>
+        <v>1.0684502545239811</v>
+      </c>
+      <c r="P14" s="73">
+        <f t="shared" si="4"/>
+        <v>1.6464386514507381</v>
+      </c>
+      <c r="Q14" s="84">
         <f t="shared" si="1"/>
         <v>0.52207031249999991</v>
       </c>
@@ -10917,8 +11463,8 @@
         <f>C15*(1-Uscite!E22-Uscite!K22)</f>
         <v>0.97477630875878618</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91" t="s">
+      <c r="G15" s="89"/>
+      <c r="H15" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I15" s="59">
@@ -10926,28 +11472,34 @@
         <v>0.21872146118721461</v>
       </c>
       <c r="J15" s="73">
-        <f t="shared" si="10"/>
-        <v>0.91708542713567842</v>
+        <f>J14</f>
+        <v>0.20389464241010324</v>
       </c>
       <c r="K15" s="77">
         <f t="shared" si="2"/>
-        <v>0.89395314747979138</v>
+        <v>0.19875166690421309</v>
       </c>
       <c r="L15" s="77">
-        <f t="shared" si="11"/>
-        <v>3.4978397484868671</v>
+        <f>L14</f>
+        <v>0.77767104745418902</v>
       </c>
       <c r="M15" s="73">
         <f>IF(MOD(ROW(),3)=1,(L15*J15)/(1-K15),IF(MOD(ROW(),3)=2,(L15*J15)/((1-K14)*(1-K14-K15)), IF(MOD(ROW(),3)=0,(L15*J15)/((1-K13-K14)*(1-L15)))))</f>
-        <v>0.80070302535949034</v>
+        <v>1.6937155304299658</v>
       </c>
       <c r="N15" s="73">
         <f t="shared" si="0"/>
-        <v>1.7177884524951688</v>
-      </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="85">
+        <v>1.8976101728400692</v>
+      </c>
+      <c r="O15" s="73">
+        <f t="shared" si="3"/>
+        <v>1.6509937728399517</v>
+      </c>
+      <c r="P15" s="73">
+        <f t="shared" si="4"/>
+        <v>1.8497454397441648</v>
+      </c>
+      <c r="Q15" s="84">
         <f t="shared" si="1"/>
         <v>0.30482180293501043</v>
       </c>
@@ -10959,492 +11511,408 @@
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
       <c r="F16" s="74"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A18" s="100" t="s">
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A18" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="81" t="s">
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A19" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="79" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="79" t="s">
+      <c r="F19" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="G19" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="62" t="s">
+      <c r="H19" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="64" t="s">
+      <c r="I19" s="64" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:9">
       <c r="A20" s="75" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="76" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C20" s="76">
+        <f>Uscite!D31</f>
+        <v>2.0547945205479451E-2</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
-      <c r="F20" s="74" t="e">
-        <f>C20*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
+      <c r="F20" s="77">
+        <f>4/24</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="77">
-        <f>1/I$5</f>
-        <v>8.2597872821905408E-2</v>
-      </c>
-      <c r="H20" s="77" t="e">
-        <f t="shared" ref="H20:H31" si="12">F20*G20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="77" t="e">
-        <f>IF(B20="Critical",(H20*G20)/(1-H20),IF(B20="Normal",((H20+#REF!)*G20)/((1-H20-#REF!)*(1-H20)),IF(B20="Low",((H20+#REF!+H19)*G20)/((1-H20-#REF!-H19)*(1-H20-#REF!)))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="77" t="e">
-        <f t="shared" ref="J20:J31" si="13">I20+G20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-    </row>
-    <row r="21" spans="1:13">
+        <f>F20*C20</f>
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="H20" s="77">
+        <f>F20</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I20" s="77">
+        <f>H20*C20</f>
+        <v>3.4246575342465752E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="69"/>
       <c r="B21" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C21" s="76">
+        <f>Uscite!D32</f>
+        <v>22.43013698630137</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
-      <c r="F21" s="74" t="e">
-        <f>C21*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="73">
-        <f>1/I$5</f>
-        <v>8.2597872821905408E-2</v>
-      </c>
-      <c r="H21" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="73" t="e">
-        <f>IF(B21="Critical",(H21*G21)/(1-H21),IF(B21="Normal",((H21+H20)*G21)/((1-H21-H20)*(1-H21)),IF(B21="Low",((H21+H20+#REF!)*G21)/((1-H21-H20-#REF!)*(1-H21-H20)))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="F21" s="77">
+        <f t="shared" ref="F21:F31" si="6">4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G21" s="77">
+        <f>F21*C21</f>
+        <v>3.7383561643835614</v>
+      </c>
+      <c r="H21" s="77">
+        <f t="shared" ref="H21:H31" si="7">F21</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I21" s="77">
+        <f>H21*C21</f>
+        <v>3.7383561643835614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="70"/>
       <c r="B22" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C22" s="76">
+        <f>Uscite!D33</f>
+        <v>1.800456621004566</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="74"/>
-      <c r="F22" s="74" t="e">
-        <f>C22*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="73">
-        <f>1/I$5</f>
-        <v>8.2597872821905408E-2</v>
-      </c>
-      <c r="H22" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="73" t="e">
-        <f t="shared" ref="I22:I31" si="14">IF(B22="Critical",(H22*G22)/(1-H22),IF(B22="Normal",((H22+H21)*G22)/((1-H22-H21)*(1-H22)),IF(B22="Low",((H22+H21+H20)*G22)/((1-H22-H21-H20)*(1-H22-H21)))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J22" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="60"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="F22" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G22" s="77">
+        <f>F22*C22</f>
+        <v>0.30007610350076097</v>
+      </c>
+      <c r="H22" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I22" s="77">
+        <f>H22*C22</f>
+        <v>0.30007610350076097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="68" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C23" s="53">
+        <f>Uscite!D35</f>
+        <v>1.187214611872146E-2</v>
       </c>
       <c r="D23" s="74"/>
       <c r="E23" s="74"/>
-      <c r="F23" s="74" t="e">
-        <f>C23*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="73">
-        <f>1/I$6</f>
-        <v>9.7040056717476064E-2</v>
-      </c>
-      <c r="H23" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="60"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="F23" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G23" s="77">
+        <f>F23*C23</f>
+        <v>1.9786910197869098E-3</v>
+      </c>
+      <c r="H23" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I23" s="77">
+        <f>H23*C23</f>
+        <v>1.9786910197869098E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="69"/>
       <c r="B24" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C24" s="53">
+        <f>Uscite!D36</f>
+        <v>17.739726027397261</v>
       </c>
       <c r="D24" s="74"/>
       <c r="E24" s="74"/>
-      <c r="F24" s="74" t="e">
-        <f>C24*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="73">
-        <f>1/I$6</f>
-        <v>9.7040056717476064E-2</v>
-      </c>
-      <c r="H24" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="F24" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G24" s="77">
+        <f>F24*C24</f>
+        <v>2.9566210045662098</v>
+      </c>
+      <c r="H24" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I24" s="77">
+        <f>H24*C24</f>
+        <v>2.9566210045662098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="70"/>
       <c r="B25" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C25" s="53">
+        <f>Uscite!D37</f>
+        <v>1.7132420091324201</v>
       </c>
       <c r="D25" s="74"/>
       <c r="E25" s="74"/>
-      <c r="F25" s="74" t="e">
-        <f>C25*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="73">
-        <f>1/I$6</f>
-        <v>9.7040056717476064E-2</v>
-      </c>
-      <c r="H25" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="F25" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G25" s="77">
+        <f>F25*C25</f>
+        <v>0.28554033485540331</v>
+      </c>
+      <c r="H25" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I25" s="77">
+        <f>H25*C25</f>
+        <v>0.28554033485540331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="68" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C26" s="53">
+        <f>Uscite!D39</f>
+        <v>1.0502283105022832E-2</v>
       </c>
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
-      <c r="F26" s="74" t="e">
-        <f>C26*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="73">
-        <f>1/I$8</f>
-        <v>0.10639848418597871</v>
-      </c>
-      <c r="H26" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="F26" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G26" s="77">
+        <f>F26*C26</f>
+        <v>1.7503805175038052E-3</v>
+      </c>
+      <c r="H26" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I26" s="77">
+        <f>H26*C26</f>
+        <v>1.7503805175038052E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="69"/>
       <c r="B27" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C27" s="53">
+        <f>Uscite!D40</f>
+        <v>6.7986301369863016</v>
       </c>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
-      <c r="F27" s="74" t="e">
-        <f>C27*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="73">
-        <f>1/I$8</f>
-        <v>0.10639848418597871</v>
-      </c>
-      <c r="H27" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J27" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="F27" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G27" s="77">
+        <f>F27*C27</f>
+        <v>1.1331050228310502</v>
+      </c>
+      <c r="H27" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I27" s="77">
+        <f>H27*C27</f>
+        <v>1.1331050228310502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="70"/>
       <c r="B28" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C28" s="53">
+        <f>Uscite!D41</f>
+        <v>0.54292237442922375</v>
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
-      <c r="F28" s="74" t="e">
-        <f>C28*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="73">
-        <f>1/I$8</f>
-        <v>0.10639848418597871</v>
-      </c>
-      <c r="H28" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="F28" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G28" s="77">
+        <f>F28*C28</f>
+        <v>9.0487062404870616E-2</v>
+      </c>
+      <c r="H28" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I28" s="77">
+        <f>H28*C28</f>
+        <v>9.0487062404870616E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="68" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C29" s="53">
+        <f>Uscite!D43</f>
+        <v>2.2831050228310505E-3</v>
       </c>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
-      <c r="F29" s="74" t="e">
-        <f>C29*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="73">
-        <f>1/I$9</f>
-        <v>0.22027761013880506</v>
-      </c>
-      <c r="H29" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="F29" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G29" s="77">
+        <f>F29*C29</f>
+        <v>3.8051750380517507E-4</v>
+      </c>
+      <c r="H29" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I29" s="77">
+        <f>H29*C29</f>
+        <v>3.8051750380517507E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="69"/>
       <c r="B30" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C30" s="53">
+        <f>Uscite!D44</f>
+        <v>2.4456621004566208</v>
       </c>
       <c r="D30" s="74"/>
       <c r="E30" s="74"/>
-      <c r="F30" s="74" t="e">
-        <f>C30*(1-Uscite!#REF!-Uscite!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="73">
-        <f>1/I$9</f>
-        <v>0.22027761013880506</v>
-      </c>
-      <c r="H30" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I30" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J30" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="F30" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G30" s="77">
+        <f>F30*C30</f>
+        <v>0.40761035007610347</v>
+      </c>
+      <c r="H30" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I30" s="77">
+        <f>H30*C30</f>
+        <v>0.40761035007610347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="70"/>
       <c r="B31" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="53" t="e">
-        <f>Uscite!#REF!</f>
-        <v>#REF!</v>
+      <c r="C31" s="53">
+        <f>Uscite!D45</f>
+        <v>0.17899543378995433</v>
       </c>
       <c r="D31" s="74"/>
       <c r="E31" s="74"/>
-      <c r="F31" s="74" t="e">
-        <f>C31*(1-Uscite!F38-Uscite!G38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="73">
-        <f>1/I$9</f>
-        <v>0.22027761013880506</v>
-      </c>
-      <c r="H31" s="73" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="73" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J31" s="73" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
+      <c r="F31" s="77">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G31" s="77">
+        <f>F31*C31</f>
+        <v>2.983257229832572E-2</v>
+      </c>
+      <c r="H31" s="77">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I31" s="77">
+        <f>H31*C31</f>
+        <v>2.983257229832572E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11462,46 +11930,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="99" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="96"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="62" t="s">
         <v>9</v>
       </c>
@@ -11537,17 +12005,17 @@
       <c r="G3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="91" t="s">
         <v>102</v>
       </c>
       <c r="I3" s="57" t="s">
         <v>92</v>
       </c>
       <c r="J3" s="65"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="83" t="s">
         <v>98</v>
       </c>
       <c r="M3" s="65"/>
@@ -11578,13 +12046,13 @@
         <f>C4*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="92">
         <f>SUM(I5:I6)</f>
         <v>34.518721461187212</v>
       </c>
@@ -11632,8 +12100,8 @@
         <f>C5*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I5" s="59">
@@ -11684,8 +12152,8 @@
         <f>C6*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="89"/>
+      <c r="H6" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I6" s="59">
@@ -11738,13 +12206,13 @@
         <f>C7*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="91" t="s">
+      <c r="H7" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I7" s="92">
         <f>SUM(I8:I9)</f>
         <v>24.24337899543379</v>
       </c>
@@ -11792,8 +12260,8 @@
         <f>C8*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I8" s="59">
@@ -11844,8 +12312,8 @@
         <f>C9*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I9" s="59">
@@ -11898,13 +12366,13 @@
         <f>C10*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="92">
         <f>SUM(I11:I12)</f>
         <v>13.938356164383563</v>
       </c>
@@ -11952,8 +12420,8 @@
         <f>C11*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="91" t="s">
+      <c r="G11" s="89"/>
+      <c r="H11" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I11" s="59">
@@ -12004,8 +12472,8 @@
         <f>C12*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91" t="s">
+      <c r="G12" s="89"/>
+      <c r="H12" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I12" s="59">
@@ -12058,13 +12526,13 @@
         <f>C13*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="H13" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="92">
         <f>SUM(I14:I15)</f>
         <v>7.3118721461187208</v>
       </c>
@@ -12112,8 +12580,8 @@
         <f>C14*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91" t="s">
+      <c r="G14" s="89"/>
+      <c r="H14" s="90" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="59">
@@ -12164,8 +12632,8 @@
         <f>C15*(1-Uscite!#REF!-Uscite!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91" t="s">
+      <c r="G15" s="89"/>
+      <c r="H15" s="90" t="s">
         <v>104</v>
       </c>
       <c r="I15" s="59">
@@ -12241,23 +12709,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="H1" s="105" t="s">
+      <c r="A1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="H1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="107"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="112"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="9"/>
@@ -12474,14 +12942,14 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9">
@@ -12574,19 +13042,19 @@
         <f>ROUND(D8/E8,6)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="105" t="s">
+      <c r="H8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="107"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="112"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -12774,11 +13242,11 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="H12" s="26">
@@ -12911,19 +13379,19 @@
         <f>ROUND(1/B15,6)</f>
         <v>1.1110999999999999E-2</v>
       </c>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="107"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="112"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -13149,10 +13617,10 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="109"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9">
@@ -13240,19 +13708,19 @@
         <f>1-D22</f>
         <v>0.74299999999999999</v>
       </c>
-      <c r="H22" s="105" t="s">
+      <c r="H22" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="107"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="112"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
@@ -13482,12 +13950,12 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9">
@@ -13567,18 +14035,18 @@
         <f>B29*($B$8*H3+$B$9*H4+$B$10*H5)/30</f>
         <v>2260</v>
       </c>
-      <c r="H29" s="104" t="s">
+      <c r="H29" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
@@ -13963,16 +14431,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="H29:Q29"/>
+    <mergeCell ref="H15:R15"/>
+    <mergeCell ref="H22:R22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="H8:R8"/>
     <mergeCell ref="H1:R1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="H29:Q29"/>
-    <mergeCell ref="H15:R15"/>
-    <mergeCell ref="H22:R22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13994,11 +14462,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/livia/Modello Analitico.xlsx
+++ b/data/livia/Modello Analitico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/livia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C892A061-DC3A-40AC-BC56-81C91297D769}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B73E90-B330-4CFA-B1DB-42FF8BA97E1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="82">
   <si>
     <t>PAZIENTI - ARRIVI</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>P(Rigetto)</t>
-  </si>
-  <si>
-    <t>Lambda-Pazienti</t>
   </si>
   <si>
     <t>p/anno (2014-2019)</t>
@@ -377,12 +374,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -403,8 +394,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +467,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFF4B183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -593,52 +597,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,13 +630,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,13 +645,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -703,13 +673,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,11 +703,87 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
@@ -860,6 +918,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="O2:AA17" totalsRowShown="0">
   <autoFilter ref="O2:AA17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -950,7 +1012,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="t/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="t/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="P(Bt AND Pr)" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="P(Bt AND Pr)" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{425A1A75-06E6-4CC9-B972-727A212EC0D3}" name="P(Bt | Pr)"/>
     <tableColumn id="7" xr3:uid="{74CF2C72-BA58-4801-A149-31F371AAE7DA}" name="P(Pr | Bt)"/>
   </tableColumns>
@@ -1081,30 +1143,53 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A2:F22" totalsRowShown="0">
+  <autoFilter ref="A2:F22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Lambda-Pazienti"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="p/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="p/anno (2009-2013)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="p/giorno (2009-2013)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!C3:H3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="p/giorno (2014-2019)">
+      <calculatedColumnFormula>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="p/anno (2009-2013)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!I3:M3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="p/giorno (2009-2013)">
+      <calculatedColumnFormula>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabella4" displayName="Tabella4" ref="A15:F27" totalsRowShown="0">
-  <autoFilter ref="A15:F27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabella4" displayName="Tabella4" ref="A25:F40" totalsRowShown="0">
+  <autoFilter ref="A25:F40" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Deceased Donor"/>
+        <filter val="Living Donor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Lambda - Organi"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="o/anno (2014-2019)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="o/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="o/anno (2009-2013)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="o/giorno (2009-2013)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="o/anno (2014-2019)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q3:V3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="o/giorno (2014-2019)">
+      <calculatedColumnFormula>C26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="o/anno (2009-2013)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!W3:AA3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="o/giorno (2009-2013)">
+      <calculatedColumnFormula>E26/365</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1409,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,36 +1509,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1560,19 +1645,19 @@
       <c r="H3">
         <v>36154</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="3">
         <v>36393</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="3">
         <v>34831</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="3">
         <v>33560</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="3">
         <v>34400</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="3">
         <v>33646</v>
       </c>
       <c r="O3" t="s">
@@ -1599,19 +1684,19 @@
       <c r="V3">
         <v>13302</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="3">
         <v>13282</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="3">
         <v>13040</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="3">
         <v>13207</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="3">
         <v>13519</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="3">
         <v>13636</v>
       </c>
     </row>
@@ -1637,19 +1722,19 @@
       <c r="H4">
         <v>36</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="3">
         <v>29</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="3">
         <v>28</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="3">
         <v>29</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="3">
         <v>34</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="3">
         <v>35</v>
       </c>
       <c r="P4" t="s">
@@ -1673,19 +1758,19 @@
       <c r="V4">
         <v>7763</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="3">
         <v>7548</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="3">
         <v>7421</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="3">
         <v>7434</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="3">
         <v>7241</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="3">
         <v>7248</v>
       </c>
     </row>
@@ -1711,19 +1796,19 @@
       <c r="H5">
         <v>25197</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="3">
         <v>25120</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="3">
         <v>24125</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="3">
         <v>23502</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="3">
         <v>24367</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="3">
         <v>24299</v>
       </c>
       <c r="P5" t="s">
@@ -1747,19 +1832,19 @@
       <c r="V5">
         <v>5539</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="3">
         <v>5734</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="3">
         <v>5619</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="3">
         <v>5773</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="3">
         <v>6278</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="3">
         <v>6388</v>
       </c>
     </row>
@@ -1785,19 +1870,19 @@
       <c r="H6">
         <v>11390</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="3">
         <v>11725</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="3">
         <v>11107</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="3">
         <v>10405</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="3">
         <v>10365</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="3">
         <v>9726</v>
       </c>
       <c r="O6" t="s">
@@ -1824,19 +1909,19 @@
       <c r="V6">
         <v>7156</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="3">
         <v>7211</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="3">
         <v>7064</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="3">
         <v>7244</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="3">
         <v>7431</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="3">
         <v>7653</v>
       </c>
     </row>
@@ -1865,19 +1950,19 @@
       <c r="H7">
         <v>17581</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="3">
         <v>17643</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="3">
         <v>16975</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="3">
         <v>16237</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="3">
         <v>16668</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="3">
         <v>16325</v>
       </c>
       <c r="P7" t="s">
@@ -1901,19 +1986,19 @@
       <c r="V7">
         <v>3683</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="3">
         <v>3614</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="3">
         <v>3463</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="3">
         <v>3566</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="3">
         <v>3449</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="3">
         <v>3458</v>
       </c>
     </row>
@@ -1939,19 +2024,19 @@
       <c r="H8">
         <v>14</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="3">
         <v>13</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="3">
         <v>20</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="3">
         <v>16</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="3">
         <v>16</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="3">
         <v>15</v>
       </c>
       <c r="P8" t="s">
@@ -1975,19 +2060,19 @@
       <c r="V8">
         <v>3473</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="3">
         <v>3597</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="3">
         <v>3601</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="3">
         <v>3678</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="3">
         <v>3982</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="3">
         <v>4195</v>
       </c>
     </row>
@@ -2013,19 +2098,19 @@
       <c r="H9">
         <v>12356</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="3">
         <v>12164</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="3">
         <v>11814</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="3">
         <v>11454</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="3">
         <v>11807</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="3">
         <v>11751</v>
       </c>
       <c r="O9" t="s">
@@ -2052,19 +2137,19 @@
       <c r="V9">
         <v>4399</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="3">
         <v>4392</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="3">
         <v>4282</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="3">
         <v>4257</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="3">
         <v>4328</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="3">
         <v>4360</v>
       </c>
     </row>
@@ -2090,19 +2175,19 @@
       <c r="H10">
         <v>5434</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="3">
         <v>5680</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="3">
         <v>5334</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="3">
         <v>4945</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="3">
         <v>5031</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="3">
         <v>4759</v>
       </c>
       <c r="P10" t="s">
@@ -2126,19 +2211,19 @@
       <c r="V10">
         <v>2882</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="3">
         <v>2815</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="3">
         <v>2766</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="3">
         <v>2715</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="3">
         <v>2638</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="3">
         <v>2722</v>
       </c>
     </row>
@@ -2167,19 +2252,19 @@
       <c r="H11">
         <v>11808</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="3">
         <v>11907</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="3">
         <v>11429</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="3">
         <v>11234</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="3">
         <v>11387</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="3">
         <v>11084</v>
       </c>
       <c r="P11" t="s">
@@ -2203,19 +2288,19 @@
       <c r="V11">
         <v>1517</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="3">
         <v>1577</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="3">
         <v>1516</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="3">
         <v>1542</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="3">
         <v>1690</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="3">
         <v>1638</v>
       </c>
     </row>
@@ -2241,19 +2326,19 @@
       <c r="H12">
         <v>16</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="3">
         <v>7</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="3">
         <v>7</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="3">
         <v>12</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="3">
         <v>7</v>
       </c>
       <c r="O12" t="s">
@@ -2280,19 +2365,19 @@
       <c r="V12">
         <v>1400</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="3">
         <v>1361</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="3">
         <v>1362</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="3">
         <v>1374</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="3">
         <v>1442</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="3">
         <v>1349</v>
       </c>
     </row>
@@ -2318,19 +2403,19 @@
       <c r="H13">
         <v>8153</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="3">
         <v>8253</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="3">
         <v>7919</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="3">
         <v>7809</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="3">
         <v>8128</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="3">
         <v>8044</v>
       </c>
       <c r="P13" t="s">
@@ -2354,19 +2439,19 @@
       <c r="V13">
         <v>929</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="3">
         <v>874</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="3">
         <v>935</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="3">
         <v>889</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="3">
         <v>896</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="3">
         <v>850</v>
       </c>
     </row>
@@ -2392,19 +2477,19 @@
       <c r="H14">
         <v>3782</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="3">
         <v>3814</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="3">
         <v>3650</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="3">
         <v>3541</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="3">
         <v>3359</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="3">
         <v>3156</v>
       </c>
       <c r="P14" t="s">
@@ -2428,19 +2513,19 @@
       <c r="V14">
         <v>471</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="3">
         <v>487</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="3">
         <v>427</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="3">
         <v>485</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="3">
         <v>546</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="3">
         <v>499</v>
       </c>
     </row>
@@ -2469,19 +2554,19 @@
       <c r="H15">
         <v>5394</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="3">
         <v>5489</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="3">
         <v>5085</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="3">
         <v>4830</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="3">
         <v>4991</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="3">
         <v>4917</v>
       </c>
       <c r="O15" t="s">
@@ -2508,19 +2593,19 @@
       <c r="V15">
         <v>347</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="3">
         <v>318</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="3">
         <v>332</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="3">
         <v>332</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="3">
         <v>318</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="3">
         <v>274</v>
       </c>
     </row>
@@ -2546,19 +2631,19 @@
       <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="3">
         <v>3</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="3">
         <v>5</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="3">
         <v>13</v>
       </c>
       <c r="P16" t="s">
@@ -2582,19 +2667,19 @@
       <c r="V16">
         <v>269</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="3">
         <v>245</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="3">
         <v>257</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="3">
         <v>264</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="3">
         <v>258</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16" s="3">
         <v>218</v>
       </c>
     </row>
@@ -2620,19 +2705,19 @@
       <c r="H17">
         <v>3716</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="3">
         <v>3790</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="3">
         <v>3478</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="3">
         <v>3371</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="3">
         <v>3517</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="3">
         <v>3554</v>
       </c>
       <c r="P17" t="s">
@@ -2656,19 +2741,19 @@
       <c r="V17">
         <v>78</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="3">
         <v>73</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="3">
         <v>75</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="3">
         <v>68</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="3">
         <v>60</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17" s="3">
         <v>56</v>
       </c>
     </row>
@@ -2694,19 +2779,19 @@
       <c r="H18">
         <v>1758</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="3">
         <v>1773</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="3">
         <v>1680</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="3">
         <v>1517</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="3">
         <v>1518</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="3">
         <v>1424</v>
       </c>
     </row>
@@ -2735,19 +2820,19 @@
       <c r="H19">
         <v>1371</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="3">
         <v>1355</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="3">
         <v>1343</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="3">
         <v>1260</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="3">
         <v>1354</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="3">
         <v>1323</v>
       </c>
     </row>
@@ -2773,19 +2858,19 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2811,19 +2896,19 @@
       <c r="H21">
         <v>973</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="3">
         <v>914</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="3">
         <v>915</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="3">
         <v>869</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="3">
         <v>915</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="3">
         <v>952</v>
       </c>
     </row>
@@ -2849,60 +2934,60 @@
       <c r="H22">
         <v>416</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="3">
         <v>458</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="3">
         <v>443</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="3">
         <v>402</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="3">
         <v>457</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="3">
         <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="O24" s="10" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="O24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4495,36 +4580,36 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="O47" s="10" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="O47" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6337,13 +6422,13 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -6372,10 +6457,10 @@
       <c r="C72">
         <v>64123</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.4000000000000048E-2</v>
       </c>
@@ -6387,10 +6472,10 @@
       <c r="C73">
         <v>56240</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="3">
         <v>0.878</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.122</v>
       </c>
@@ -6402,10 +6487,10 @@
       <c r="C74">
         <v>47638</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="3">
         <v>0.78674999999999995</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.21325000000000005</v>
       </c>
@@ -6420,10 +6505,10 @@
       <c r="C75">
         <v>28779</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.4000000000000048E-2</v>
       </c>
@@ -6435,10 +6520,10 @@
       <c r="C76">
         <v>25312</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="3">
         <v>0.876</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.124</v>
       </c>
@@ -6450,10 +6535,10 @@
       <c r="C77">
         <v>21429</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.21499999999999997</v>
       </c>
@@ -6468,10 +6553,10 @@
       <c r="C78">
         <v>23687</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="3">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.3000000000000047E-2</v>
       </c>
@@ -6483,10 +6568,10 @@
       <c r="C79">
         <v>20747</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="3">
         <v>0.878</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.122</v>
       </c>
@@ -6498,10 +6583,10 @@
       <c r="C80">
         <v>17602</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.21499999999999997</v>
       </c>
@@ -6516,10 +6601,10 @@
       <c r="C81">
         <v>8436</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.600000000000005E-2</v>
       </c>
@@ -6531,10 +6616,10 @@
       <c r="C82">
         <v>7380</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="3">
         <v>0.876</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.124</v>
       </c>
@@ -6546,10 +6631,10 @@
       <c r="C83">
         <v>6279</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="3">
         <v>0.77600000000000002</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.22399999999999998</v>
       </c>
@@ -6564,10 +6649,10 @@
       <c r="C84">
         <v>3221</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="3">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.3000000000000047E-2</v>
       </c>
@@ -6579,10 +6664,10 @@
       <c r="C85">
         <v>2801</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="3">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.11799999999999999</v>
       </c>
@@ -6594,10 +6679,10 @@
       <c r="C86">
         <v>2328</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="3">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.19899999999999995</v>
       </c>
@@ -6628,10 +6713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,598 +6729,870 @@
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <f>AVERAGE(Dati_OPTN!C3:H3)</f>
+        <v>37016.166666666664</v>
+      </c>
+      <c r="D3" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>101.41415525114155</v>
+      </c>
+      <c r="E3" s="3">
+        <f>AVERAGE(Dati_OPTN!I3:M3)</f>
+        <v>34566</v>
+      </c>
+      <c r="F3" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>94.701369863013696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <f>AVERAGE(Dati_OPTN!C4:H4)</f>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="D4" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>0.10228310502283106</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE(Dati_OPTN!I4:M4)</f>
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <f>AVERAGE(Dati_OPTN!C5:H5)</f>
+        <v>28004.833333333332</v>
+      </c>
+      <c r="D5" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>76.725570776255708</v>
+      </c>
+      <c r="E5" s="3">
+        <f>AVERAGE(Dati_OPTN!I5:M5)</f>
+        <v>24282.6</v>
+      </c>
+      <c r="F5" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>66.527671232876713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3">
+        <f>AVERAGE(Dati_OPTN!C6:H6)</f>
+        <v>9350.8333333333339</v>
+      </c>
+      <c r="D6" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>25.618721461187217</v>
+      </c>
+      <c r="E6" s="3">
+        <f>AVERAGE(Dati_OPTN!I6:M6)</f>
+        <v>10665.6</v>
+      </c>
+      <c r="F6" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>29.22082191780822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <f>AVERAGE(Dati_OPTN!C7:H7)</f>
+        <v>18053.666666666668</v>
+      </c>
+      <c r="D7" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>49.462100456621009</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(Dati_OPTN!I7:M7)</f>
+        <v>16769.599999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>45.944109589041091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C8" s="3">
         <f>AVERAGE(Dati_OPTN!C8:H8)</f>
         <v>19</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D8" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>5.2054794520547946E-2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E8" s="3">
         <f>AVERAGE(Dati_OPTN!I8:M8)</f>
         <v>16</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F8" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>4.3835616438356165E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C9" s="3">
         <f>AVERAGE(Dati_OPTN!C9:H9)</f>
         <v>13753.333333333334</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D9" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>37.680365296803657</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E9" s="3">
         <f>AVERAGE(Dati_OPTN!I9:M9)</f>
         <v>11798</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F9" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>32.323287671232876</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C10" s="3">
         <f>AVERAGE(Dati_OPTN!C10:H10)</f>
         <v>4465</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D10" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>12.232876712328768</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E10" s="3">
         <f>AVERAGE(Dati_OPTN!I10:M10)</f>
         <v>5149.8</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F10" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>14.109041095890412</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <f>AVERAGE(Dati_OPTN!C11:H11)</f>
+        <v>12047.166666666666</v>
+      </c>
+      <c r="D11" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>33.00593607305936</v>
+      </c>
+      <c r="E11" s="3">
+        <f>AVERAGE(Dati_OPTN!I11:M11)</f>
+        <v>11408.2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>31.255342465753426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C12" s="3">
         <f>AVERAGE(Dati_OPTN!C12:H12)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D12" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>2.9223744292237442E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E12" s="3">
         <f>AVERAGE(Dati_OPTN!I12:M12)</f>
         <v>8.6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F12" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.3561643835616437E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C13" s="3">
         <f>AVERAGE(Dati_OPTN!C13:H13)</f>
         <v>9003.1666666666661</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D13" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>24.666210045662098</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E13" s="3">
         <f>AVERAGE(Dati_OPTN!I13:M13)</f>
         <v>8030.6</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F13" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>22.001643835616438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C14" s="3">
         <f>AVERAGE(Dati_OPTN!C14:H14)</f>
         <v>3154.3333333333335</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D14" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>8.6420091324200925</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E14" s="3">
         <f>AVERAGE(Dati_OPTN!I14:M14)</f>
         <v>3504</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F14" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <f>AVERAGE(Dati_OPTN!C15:H15)</f>
+        <v>5505.166666666667</v>
+      </c>
+      <c r="D15" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>15.082648401826486</v>
+      </c>
+      <c r="E15" s="3">
+        <f>AVERAGE(Dati_OPTN!I15:M15)</f>
+        <v>5062.3999999999996</v>
+      </c>
+      <c r="F15" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>13.869589041095889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C16" s="3">
         <f>AVERAGE(Dati_OPTN!C16:H16)</f>
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D16" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>1.643835616438356E-2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E16" s="3">
         <f>AVERAGE(Dati_OPTN!I16:M16)</f>
         <v>5.4</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F16" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>1.4794520547945207E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C17" s="3">
         <f>AVERAGE(Dati_OPTN!C17:H17)</f>
         <v>4198</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D17" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>11.501369863013698</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E17" s="3">
         <f>AVERAGE(Dati_OPTN!I17:M17)</f>
         <v>3542</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F17" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>9.7041095890410958</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C18" s="3">
         <f>AVERAGE(Dati_OPTN!C18:H18)</f>
         <v>1359.5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D18" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>3.7246575342465755</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E18" s="3">
         <f>AVERAGE(Dati_OPTN!I18:M18)</f>
         <v>1582.4</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F18" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>4.335342465753425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <f>AVERAGE(Dati_OPTN!C19:H19)</f>
+        <v>1410.8333333333333</v>
+      </c>
+      <c r="D19" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>3.865296803652968</v>
+      </c>
+      <c r="E19" s="3">
+        <f>AVERAGE(Dati_OPTN!I19:M19)</f>
+        <v>1327</v>
+      </c>
+      <c r="F19" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>3.6356164383561644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C20" s="3">
         <f>AVERAGE(Dati_OPTN!C20:H20)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D20" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>4.5662100456621011E-3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E20" s="3">
         <f>AVERAGE(Dati_OPTN!I20:M20)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F20" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C21" s="3">
         <f>AVERAGE(Dati_OPTN!C21:H21)</f>
         <v>1051.1666666666667</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D21" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>2.8799086757990868</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E21" s="3">
         <f>AVERAGE(Dati_OPTN!I21:M21)</f>
         <v>913</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F21" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.5013698630136987</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C22" s="3">
         <f>AVERAGE(Dati_OPTN!C22:H22)</f>
         <v>372</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D22" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>1.0191780821917809</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E22" s="3">
         <f>AVERAGE(Dati_OPTN!I22:M22)</f>
         <v>429.6</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F22" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>1.1769863013698632</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <f>AVERAGE(Dati_OPTN!Q3:V3)</f>
+        <v>15244.166666666666</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D40" si="0">C26/365</f>
+        <v>41.764840182648399</v>
+      </c>
+      <c r="E26" s="3">
+        <f>AVERAGE(Dati_OPTN!W3:AA3)</f>
+        <v>13336.8</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:F40" si="1">E26/365</f>
+        <v>36.539178082191782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3">
+        <f>AVERAGE(Dati_OPTN!Q4:V4)</f>
+        <v>9258.1666666666661</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>25.3648401826484</v>
+      </c>
+      <c r="E27" s="3">
+        <f>AVERAGE(Dati_OPTN!W4:AA4)</f>
+        <v>7378.4</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>20.214794520547944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <f>AVERAGE(Dati_OPTN!Q5:V5)</f>
+        <v>5986</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <f>AVERAGE(Dati_OPTN!W5:AA5)</f>
+        <v>5958.4</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>16.324383561643835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C29" s="3">
         <f>AVERAGE(Dati_OPTN!Q6:V6)</f>
         <v>8180.333333333333</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" ref="D16:D27" si="0">C16/365</f>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
         <v>22.411872146118721</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E29" s="3">
         <f>AVERAGE(Dati_OPTN!W6:AA6)</f>
         <v>7320.6</v>
       </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:F27" si="1">E16/365</f>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
         <v>20.056438356164385</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C30" s="3">
         <f>AVERAGE(Dati_OPTN!Q7:V7)</f>
         <v>4419</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>12.106849315068493</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E30" s="3">
         <f>AVERAGE(Dati_OPTN!W7:AA7)</f>
         <v>3510</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>9.6164383561643838</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C31" s="3">
         <f>AVERAGE(Dati_OPTN!Q8:V8)</f>
         <v>3761.3333333333335</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>10.305022831050229</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E31" s="3">
         <f>AVERAGE(Dati_OPTN!W8:AA8)</f>
         <v>3810.6</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>10.44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C32" s="3">
         <f>AVERAGE(Dati_OPTN!Q9:V9)</f>
         <v>5087.5</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>13.938356164383562</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E32" s="3">
         <f>AVERAGE(Dati_OPTN!W9:AA9)</f>
         <v>4323.8</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>11.846027397260274</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C33" s="3">
         <f>AVERAGE(Dati_OPTN!Q10:V10)</f>
         <v>3430.5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>9.3986301369863021</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E33" s="3">
         <f>AVERAGE(Dati_OPTN!W10:AA10)</f>
         <v>2731.2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>7.4827397260273969</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C34" s="3">
         <f>AVERAGE(Dati_OPTN!Q11:V11)</f>
         <v>1657</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>4.5397260273972604</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E34" s="3">
         <f>AVERAGE(Dati_OPTN!W11:AA11)</f>
         <v>1592.6</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>4.3632876712328761</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C35" s="3">
         <f>AVERAGE(Dati_OPTN!Q12:V12)</f>
         <v>1578.3333333333333</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>4.3242009132420085</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E35" s="3">
         <f>AVERAGE(Dati_OPTN!W12:AA12)</f>
         <v>1377.6</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
         <v>3.7742465753424654</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C36" s="3">
         <f>AVERAGE(Dati_OPTN!Q13:V13)</f>
         <v>1090.5</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>2.9876712328767123</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E36" s="3">
         <f>AVERAGE(Dati_OPTN!W13:AA13)</f>
         <v>888.8</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>2.435068493150685</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C37" s="3">
         <f>AVERAGE(Dati_OPTN!Q14:V14)</f>
         <v>487.83333333333331</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>1.3365296803652968</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E37" s="3">
         <f>AVERAGE(Dati_OPTN!W14:AA14)</f>
         <v>488.8</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>1.3391780821917809</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C38" s="3">
         <f>AVERAGE(Dati_OPTN!Q15:V15)</f>
         <v>398</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>1.0904109589041096</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E38" s="3">
         <f>AVERAGE(Dati_OPTN!W15:AA15)</f>
         <v>314.8</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>0.86246575342465759</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C39" s="3">
         <f>AVERAGE(Dati_OPTN!Q16:V16)</f>
         <v>318.16666666666669</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>0.87168949771689508</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E39" s="3">
         <f>AVERAGE(Dati_OPTN!W16:AA16)</f>
         <v>248.4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>0.68054794520547945</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C40" s="3">
         <f>AVERAGE(Dati_OPTN!Q17:V17)</f>
         <v>79.833333333333329</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>0.21872146118721461</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E40" s="3">
         <f>AVERAGE(Dati_OPTN!W17:AA17)</f>
         <v>66.400000000000006</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F40" s="3">
         <f t="shared" si="1"/>
         <v>0.18191780821917811</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A24:F24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:E69"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7255,53 +7612,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="5">
         <f>AVERAGE(Dati_OPTN!C26:H26)</f>
         <v>4418.5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>12.105479452054794</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E22" si="0">C3/$C$3</f>
         <v>1</v>
       </c>
@@ -7315,19 +7672,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="5">
         <f>AVERAGE(Dati_OPTN!C27:H27)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.6529680365296802E-3</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>3.0176153294858739E-4</v>
       </c>
@@ -7341,19 +7698,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="5">
         <f>AVERAGE(Dati_OPTN!C28:H28)</f>
         <v>1681</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>4.6054794520547944</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>0.38044585266493153</v>
       </c>
@@ -7367,19 +7724,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="5">
         <f>AVERAGE(Dati_OPTN!C29:H29)</f>
         <v>2813.5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>7.7082191780821914</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0.63675455471313791</v>
       </c>
@@ -7393,21 +7750,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="5">
         <f>AVERAGE(Dati_OPTN!C30:H30)</f>
         <v>2313.5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>6.338356164383562</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>0.52359397985741762</v>
       </c>
@@ -7421,19 +7778,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <f>AVERAGE(Dati_OPTN!C31:H31)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>2.2632114971144054E-4</v>
       </c>
@@ -7447,19 +7804,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="5">
         <f>AVERAGE(Dati_OPTN!C32:H32)</f>
         <v>913.83333333333337</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.5036529680365298</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>0.20681981064463809</v>
       </c>
@@ -7473,19 +7830,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="5">
         <f>AVERAGE(Dati_OPTN!C33:H33)</f>
         <v>1440.6666666666667</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.9470319634703199</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>0.32605333635094869</v>
       </c>
@@ -7499,21 +7856,21 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="5">
         <f>AVERAGE(Dati_OPTN!C34:H34)</f>
         <v>1276.8333333333333</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.4981735159817351</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>0.28897438798989095</v>
       </c>
@@ -7527,19 +7884,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="5">
         <f>AVERAGE(Dati_OPTN!C35:H35)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>9.1324200913242006E-4</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>7.5440383237146847E-5</v>
       </c>
@@ -7553,19 +7910,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="5">
         <f>AVERAGE(Dati_OPTN!C36:H36)</f>
         <v>445.5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.2205479452054795</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>0.10082607219644676</v>
       </c>
@@ -7579,19 +7936,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="5">
         <f>AVERAGE(Dati_OPTN!C37:H37)</f>
         <v>848.16666666666663</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.3237442922374427</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>0.19195805514692013</v>
       </c>
@@ -7605,21 +7962,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="5">
         <f>AVERAGE(Dati_OPTN!C38:H38)</f>
         <v>708.83333333333337</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.9420091324200914</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>0.16042397495379276</v>
       </c>
@@ -7633,19 +7990,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="5">
         <f>AVERAGE(Dati_OPTN!C39:H39)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7659,19 +8016,19 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="5">
         <f>AVERAGE(Dati_OPTN!C40:H40)</f>
         <v>283.16666666666669</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.77579908675799092</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>6.4086605559956253E-2</v>
       </c>
@@ -7685,19 +8042,19 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="5">
         <f>AVERAGE(Dati_OPTN!C41:H41)</f>
         <v>442.5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.2123287671232876</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>0.10014710874731243</v>
       </c>
@@ -7709,27 +8066,27 @@
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="5">
         <f>AVERAGE(Dati_OPTN!C42:H42)</f>
         <v>119.33333333333333</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.32694063926940636</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>2.7007657198898569E-2</v>
       </c>
@@ -7741,25 +8098,25 @@
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="5">
         <f>AVERAGE(Dati_OPTN!C43:H43)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7771,25 +8128,25 @@
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="5">
         <f>AVERAGE(Dati_OPTN!C44:H44)</f>
         <v>38.5</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.10547945205479452</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>8.7133642638904611E-3</v>
       </c>
@@ -7801,25 +8158,25 @@
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="5">
         <f>AVERAGE(Dati_OPTN!C45:H45)</f>
         <v>82.166666666666671</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.22511415525114156</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>1.8596054467956698E-2</v>
       </c>
@@ -7831,75 +8188,75 @@
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="5">
         <f>AVERAGE(Dati_OPTN!Q49:V49)</f>
         <v>11046.5</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>30.264383561643836</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>1</v>
       </c>
@@ -7913,19 +8270,19 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="5">
         <f>AVERAGE(Dati_OPTN!Q50:V50)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>9.1324200913242021E-3</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>3.0175470360144241E-4</v>
       </c>
@@ -7939,19 +8296,19 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="5">
         <f>AVERAGE(Dati_OPTN!Q51:V51)</f>
         <v>2905.8333333333335</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.961187214611873</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.26305466286455742</v>
       </c>
@@ -7965,19 +8322,19 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="5">
         <f>AVERAGE(Dati_OPTN!Q52:V52)</f>
         <v>9278.6666666666661</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>25.421004566210044</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.83996439294497494</v>
       </c>
@@ -7991,21 +8348,21 @@
       </c>
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="5">
         <f>AVERAGE(Dati_OPTN!Q53:V53)</f>
         <v>5731.833333333333</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>15.703652968036529</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.51888230057786022</v>
       </c>
@@ -8019,19 +8376,19 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="5">
         <f>AVERAGE(Dati_OPTN!Q54:V54)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>6.392694063926941E-3</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>2.1122829252100968E-4</v>
       </c>
@@ -8045,19 +8402,19 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="5">
         <f>AVERAGE(Dati_OPTN!Q55:V55)</f>
         <v>1521.5</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.1684931506849319</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.13773593445887838</v>
       </c>
@@ -8071,19 +8428,19 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="5">
         <f>AVERAGE(Dati_OPTN!Q56:V56)</f>
         <v>4760.833333333333</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>13.043378995433789</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.43098115541876009</v>
       </c>
@@ -8097,21 +8454,21 @@
       </c>
     </row>
     <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="5">
         <f>AVERAGE(Dati_OPTN!Q57:V57)</f>
         <v>3254.1666666666665</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>8.9155251141552512</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.29458802939090811</v>
       </c>
@@ -8125,19 +8482,19 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="5">
         <f>AVERAGE(Dati_OPTN!Q58:V58)</f>
         <v>0.5</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>4.5263205540216361E-5</v>
       </c>
@@ -8151,19 +8508,19 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="5">
         <f>AVERAGE(Dati_OPTN!Q59:V59)</f>
         <v>853.33333333333337</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>2.3378995433789957</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>7.7249204121969256E-2</v>
       </c>
@@ -8177,19 +8534,19 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="5">
         <f>AVERAGE(Dati_OPTN!Q60:V60)</f>
         <v>2782.5</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.6232876712328768</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.25188973883130406</v>
       </c>
@@ -8203,21 +8560,21 @@
       </c>
     </row>
     <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="5">
         <f>AVERAGE(Dati_OPTN!Q61:V61)</f>
         <v>1750.8333333333333</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.7968036529680367</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.15849665806665761</v>
       </c>
@@ -8231,19 +8588,19 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="5">
         <f>AVERAGE(Dati_OPTN!Q62:V62)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0</v>
       </c>
@@ -8257,19 +8614,19 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="5">
         <f>AVERAGE(Dati_OPTN!Q63:V63)</f>
         <v>454</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.2438356164383562</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>4.1098990630516453E-2</v>
       </c>
@@ -8283,19 +8640,19 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="5">
         <f>AVERAGE(Dati_OPTN!Q64:V64)</f>
         <v>1459.6666666666667</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>3.999086757990868</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="6">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>0.13213838470707162</v>
       </c>
@@ -8309,21 +8666,21 @@
       </c>
     </row>
     <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="5">
         <f>AVERAGE(Dati_OPTN!Q65:V65)</f>
         <v>309.83333333333331</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.84885844748858441</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="6">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>2.8048099699754067E-2</v>
       </c>
@@ -8337,19 +8694,19 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="5">
         <f>AVERAGE(Dati_OPTN!Q66:V66)</f>
         <v>0.5</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="6">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>4.5263205540216361E-5</v>
       </c>
@@ -8363,19 +8720,19 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="5">
         <f>AVERAGE(Dati_OPTN!Q67:V67)</f>
         <v>77</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.21095890410958903</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="6">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>6.970533653193319E-3</v>
       </c>
@@ -8389,19 +8746,19 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="5">
         <f>AVERAGE(Dati_OPTN!Q68:V68)</f>
         <v>275.83333333333331</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.75570776255707761</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="6">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
         <v>2.4970201723019357E-2</v>
       </c>
@@ -8415,89 +8772,89 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="14" t="s">
+      <c r="D49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="14" t="s">
+      <c r="E49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="5">
         <f>AVERAGE(Dati_OPTN!C49:H49)</f>
         <v>19743.833333333332</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>54.092694063926935</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>1</v>
       </c>
@@ -8511,19 +8868,19 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="5">
         <f>AVERAGE(Dati_OPTN!C50:H50)</f>
         <v>16.5</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.5205479452054796E-2</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>8.3570397508082699E-4</v>
       </c>
@@ -8537,19 +8894,19 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="5">
         <f>AVERAGE(Dati_OPTN!C51:H51)</f>
         <v>18036.166666666668</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>49.414155251141558</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>0.91350885930628145</v>
       </c>
@@ -8563,19 +8920,19 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="5">
         <f>AVERAGE(Dati_OPTN!C52:H52)</f>
         <v>1546</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.2356164383561641</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>7.830293002878537E-2</v>
       </c>
@@ -8589,21 +8946,21 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="5">
         <f>AVERAGE(Dati_OPTN!C53:H53)</f>
         <v>8915.5</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>24.426027397260274</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>0.45155871453534019</v>
       </c>
@@ -8617,19 +8974,19 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="5">
         <f>AVERAGE(Dati_OPTN!C54:H54)</f>
         <v>7.5</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.0547945205479451E-2</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>3.7986544321855773E-4</v>
       </c>
@@ -8643,19 +9000,19 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="5">
         <f>AVERAGE(Dati_OPTN!C55:H55)</f>
         <v>8187</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>22.43013698630137</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>0.41466111781737758</v>
       </c>
@@ -8669,19 +9026,19 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="5">
         <f>AVERAGE(Dati_OPTN!C56:H56)</f>
         <v>657.16666666666663</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.800456621004566</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>3.3284654280239398E-2</v>
       </c>
@@ -8695,21 +9052,21 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="5">
         <f>AVERAGE(Dati_OPTN!C57:H57)</f>
         <v>7162.333333333333</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>19.62283105022831</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>0.36276305681942883</v>
       </c>
@@ -8723,19 +9080,19 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12" t="s">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="5">
         <f>AVERAGE(Dati_OPTN!C58:H58)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.187214611872146E-2</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>2.1947781163738888E-4</v>
       </c>
@@ -8749,19 +9106,19 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="5">
         <f>AVERAGE(Dati_OPTN!C59:H59)</f>
         <v>6475</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>17.739726027397261</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>0.32795049931202147</v>
       </c>
@@ -8775,19 +9132,19 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12" t="s">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="5">
         <f>AVERAGE(Dati_OPTN!C60:H60)</f>
         <v>625.33333333333337</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.7132420091324201</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>3.1672336510133972E-2</v>
       </c>
@@ -8801,21 +9158,21 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="5">
         <f>AVERAGE(Dati_OPTN!C61:H61)</f>
         <v>2700.5</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>7.3986301369863012</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>0.13677688392156201</v>
       </c>
@@ -8829,19 +9186,19 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12" t="s">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="5">
         <f>AVERAGE(Dati_OPTN!C62:H62)</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.0502283105022832E-2</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>1.9415344875615173E-4</v>
       </c>
@@ -8855,19 +9212,19 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12" t="s">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="5">
         <f>AVERAGE(Dati_OPTN!C63:H63)</f>
         <v>2481.5</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>6.7986301369863016</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>0.12568481297958012</v>
       </c>
@@ -8881,19 +9238,19 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12" t="s">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="5">
         <f>AVERAGE(Dati_OPTN!C64:H64)</f>
         <v>198.16666666666666</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>0.54292237442922375</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>1.0036889155263668E-2</v>
       </c>
@@ -8907,21 +9264,21 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="5">
         <f>AVERAGE(Dati_OPTN!C65:H65)</f>
         <v>965.5</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.6452054794520548</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>4.8901344723668999E-2</v>
       </c>
@@ -8935,19 +9292,19 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="5">
         <f>AVERAGE(Dati_OPTN!C66:H66)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.2831050228310505E-3</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>4.2207271468728638E-5</v>
       </c>
@@ -8961,19 +9318,19 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12" t="s">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="5">
         <f>AVERAGE(Dati_OPTN!C67:H67)</f>
         <v>892.66666666666663</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.4456621004566208</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>4.5212429197302111E-2</v>
       </c>
@@ -8987,19 +9344,19 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="5">
         <f>AVERAGE(Dati_OPTN!C68:H68)</f>
         <v>65.333333333333329</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>0.17899543378995433</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
         <v>3.3090500831483246E-3</v>
       </c>
@@ -9012,18 +9369,6 @@
         <v>6.7667875021577756E-2</v>
       </c>
     </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -9044,8 +9389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9066,1229 +9411,1205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="D3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="H3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="45">
-        <f>Arrivi!D2</f>
+      <c r="C4" s="18">
         <v>5.2054794520547946E-2</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="18">
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="18">
         <v>6.392694063926941E-3</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <f>C4*(1-Uscite!E8-Uscite!E31)</f>
         <v>5.2032017974239959E-2</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="32">
-        <f>Arrivi!D16</f>
+      <c r="H4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="18">
         <v>22.411872146118721</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="21">
         <f>1/(I$4+SUM(F$4:F$6))</f>
         <v>1.9946762001335716E-2</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="22">
         <f t="shared" ref="K4:K15" si="0">F4*J4</f>
         <v>1.0378702789813866E-3</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="22">
         <f>SUM(K$4:K$6)</f>
         <v>0.55295572029700468</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="21">
         <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
         <v>1.1041135416336339E-2</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="21">
         <f t="shared" ref="N4:N15" si="1">M4+J4</f>
         <v>3.0987897417672057E-2</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="21">
         <f t="shared" ref="O4:O15" si="2">M4*F4</f>
         <v>5.7449255643882982E-4</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="21">
         <f t="shared" ref="P4:P15" si="3">N4*F4</f>
         <v>1.6123628354202165E-3</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="23">
         <f t="shared" ref="Q4:Q15" si="4">(D4/E4)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="45">
-        <f>Arrivi!D3</f>
+      <c r="C5" s="18">
         <v>37.680365296803657</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="18">
         <v>2.5036529680365298</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="18">
         <v>4.1684931506849319</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <f>C5*(1-Uscite!E9-Uscite!E32)</f>
         <v>24.697378956190793</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="32">
-        <f>Arrivi!D17</f>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="18">
         <v>12.106849315068493</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="21">
         <f>J4</f>
         <v>1.9946762001335716E-2</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="22">
         <f t="shared" si="0"/>
         <v>0.49263274009593488</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="22">
         <f>L4</f>
         <v>0.55295572029700468</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="21">
         <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
         <v>2.1806230573563679E-2</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="21">
         <f t="shared" si="1"/>
         <v>4.1752992574899395E-2</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="21">
         <f t="shared" si="2"/>
         <v>0.53855674008137588</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="21">
         <f t="shared" si="3"/>
         <v>1.0311894801773107</v>
       </c>
-      <c r="Q5" s="35">
+      <c r="Q5" s="23">
         <f t="shared" si="4"/>
         <v>0.60061342972943366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="45">
-        <f>Arrivi!D4</f>
+      <c r="C6" s="18">
         <v>12.232876712328768</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="18">
         <v>3.9470319634703199</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="18">
         <v>13.043378995433789</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <f>C6*(1-Uscite!E10-Uscite!E33)</f>
         <v>2.9721671075294531</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="32">
-        <f>Arrivi!D18</f>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="18">
         <v>10.305022831050229</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="21">
         <f>J5</f>
         <v>1.9946762001335716E-2</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="22">
         <f t="shared" si="0"/>
         <v>5.928510992208838E-2</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="22">
         <f>L5</f>
         <v>0.55295572029700468</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="21">
         <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
         <v>4.8728055640097266E-2</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="21">
         <f t="shared" si="1"/>
         <v>6.8674817641432989E-2</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="21">
         <f t="shared" si="2"/>
         <v>0.14482792418736215</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="21">
         <f t="shared" si="3"/>
         <v>0.20411303410945056</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="23">
         <f t="shared" si="4"/>
         <v>0.30260808681953444</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="45">
-        <f>Arrivi!D5</f>
+      <c r="C7" s="18">
         <v>2.9223744292237442E-2</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="18">
         <v>9.1324200913242006E-4</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="18">
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="33">
         <f>C7*(1-Uscite!E12-Uscite!E35)</f>
         <v>2.9220216881423858E-2</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="32">
-        <f>Arrivi!D19</f>
+      <c r="H7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="18">
         <v>13.938356164383562</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="21">
         <f>1/(I$7+SUM(F7:F9))</f>
         <v>2.5609757636762279E-2</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="22">
         <f t="shared" si="0"/>
         <v>7.4832267242689471E-4</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="22">
         <f>SUM(K$7:K$9)</f>
         <v>0.64304207677526548</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="21">
         <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
         <v>1.6480484456626303E-2</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="21">
         <f t="shared" si="1"/>
         <v>4.2090242093388582E-2</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="21">
         <f t="shared" si="2"/>
         <v>4.8156333013355538E-4</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="21">
         <f t="shared" si="3"/>
         <v>1.22988600256045E-3</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="23">
         <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="45">
-        <f>Arrivi!D6</f>
+      <c r="C8" s="18">
         <v>24.666210045662098</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="18">
         <v>1.2205479452054795</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="18">
         <v>2.3378995433789957</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="33">
         <f>C8*(1-Uscite!E13-Uscite!E36)</f>
         <v>20.27376787605273</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="32">
-        <f>Arrivi!D20</f>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="18">
         <v>9.3986301369863021</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="21">
         <f>J7</f>
         <v>2.5609757636762279E-2</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="22">
         <f t="shared" si="0"/>
         <v>0.51920628168968719</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="22">
         <f>L7</f>
         <v>0.64304207677526548</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="21">
         <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
         <v>3.4331095780487549E-2</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="21">
         <f t="shared" si="1"/>
         <v>5.9940853417249827E-2</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="21">
         <f t="shared" si="2"/>
         <v>0.69602066678413788</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="21">
         <f t="shared" si="3"/>
         <v>1.2152269484738252</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="23">
         <f t="shared" si="4"/>
         <v>0.52207031249999991</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="45">
-        <f>Arrivi!D7</f>
+      <c r="C9" s="18">
         <v>8.6420091324200925</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="18">
         <v>2.3237442922374427</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="18">
         <v>7.6232876712328768</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <f>C9*(1-Uscite!E14-Uscite!E37)</f>
         <v>4.806272443455768</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="32">
-        <f>Arrivi!D21</f>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="18">
         <v>4.5397260273972604</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="21">
         <f>J8</f>
         <v>2.5609757636762279E-2</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="22">
         <f t="shared" si="0"/>
         <v>0.12308747241315145</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="22">
         <f>L8</f>
         <v>0.64304207677526548</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="21">
         <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
         <v>9.6104898676104361E-2</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="21">
         <f t="shared" si="1"/>
         <v>0.12171465631286664</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="21">
         <f t="shared" si="2"/>
         <v>0.46190632618806909</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="21">
         <f t="shared" si="3"/>
         <v>0.58499379860122058</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="23">
         <f t="shared" si="4"/>
         <v>0.30482180293501043</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="45">
-        <f>Arrivi!D8</f>
+      <c r="C10" s="18">
         <v>1.643835616438356E-2</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <f>C10*(1-Uscite!E16-Uscite!E39)</f>
         <v>1.643835616438356E-2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="32">
-        <f>Arrivi!D22</f>
+      <c r="H10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="18">
         <v>4.3242009132420085</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="21">
         <f>1/(I$10+SUM(F10:F12))</f>
         <v>5.7169957965793758E-2</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>9.3978013094455487E-4</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="22">
         <f>SUM(K$10:K$12)</f>
         <v>0.75278561555430723</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="21">
         <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
         <v>4.3077205099943477E-2</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="21">
         <f t="shared" si="1"/>
         <v>0.10024716306573724</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="21">
         <f t="shared" si="2"/>
         <v>7.081184399990708E-4</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="21">
         <f t="shared" si="3"/>
         <v>1.6478985709436256E-3</v>
       </c>
-      <c r="Q10" s="35" t="e">
+      <c r="Q10" s="23" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="45">
-        <f>Arrivi!D9</f>
+      <c r="C11" s="18">
         <v>11.501369863013698</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="18">
         <v>0.77579908675799092</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="18">
         <v>1.2438356164383562</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="33">
         <f>C11*(1-Uscite!E17-Uscite!E40)</f>
         <v>10.291591416965467</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="32">
-        <f>Arrivi!D23</f>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="18">
         <v>2.9876712328767123</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="21">
         <f>J10</f>
         <v>5.7169957965793758E-2</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="22">
         <f t="shared" si="0"/>
         <v>0.58836984870903952</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="22">
         <f>L10</f>
         <v>0.75278561555430723</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="21">
         <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
         <v>0.10488973719610156</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="21">
         <f t="shared" si="1"/>
         <v>0.16205969516189533</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="21">
         <f t="shared" si="2"/>
         <v>1.0794823190551623</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="21">
         <f t="shared" si="3"/>
         <v>1.667852167764202</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="23">
         <f t="shared" si="4"/>
         <v>0.62371512481644642</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="45">
-        <f>Arrivi!D10</f>
+      <c r="C12" s="18">
         <v>3.7246575342465755</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="18">
         <v>1.2123287671232876</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="18">
         <v>3.999086757990868</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="33">
         <f>C12*(1-Uscite!E18-Uscite!E41)</f>
         <v>2.8594736209555203</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="32">
-        <f>Arrivi!D24</f>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="18">
         <v>1.3365296803652968</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="21">
         <f>J11</f>
         <v>5.7169957965793758E-2</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="22">
         <f t="shared" si="0"/>
         <v>0.16347598671432317</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="22">
         <f>L11</f>
         <v>0.75278561555430723</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="21">
         <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
         <v>0.4238878095225273</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="21">
         <f t="shared" si="1"/>
         <v>0.48105776748832108</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="21">
         <f t="shared" si="2"/>
         <v>1.212096009574285</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="21">
         <f t="shared" si="3"/>
         <v>1.3755719962886082</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="23">
         <f t="shared" si="4"/>
         <v>0.30315140443023519</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="45">
-        <f>Arrivi!D11</f>
+      <c r="C13" s="18">
         <v>4.5662100456621011E-3</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="18">
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="33">
         <f>C13*(1-Uscite!E20-Uscite!E43)</f>
         <v>4.5660033643582648E-3</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="32">
-        <f>Arrivi!D25</f>
+      <c r="H13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="18">
         <v>1.0904109589041096</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="21">
         <f>1/(I$13+SUM(F13:F15))</f>
         <v>0.20389464241010324</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="22">
         <f t="shared" si="0"/>
         <v>9.3098362321915676E-4</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="22">
         <f>SUM(K$13:K$15)</f>
         <v>0.77767104745418902</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="21">
         <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
         <v>0.15871071721191596</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="21">
         <f t="shared" si="1"/>
         <v>0.36260535962201923</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="21">
         <f t="shared" si="2"/>
         <v>7.2467366874932144E-4</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="21">
         <f t="shared" si="3"/>
         <v>1.6556572919684783E-3</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="45">
-        <f>Arrivi!D12</f>
+      <c r="C14" s="18">
         <v>2.8799086757990868</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="18">
         <v>0.10547945205479452</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="18">
         <v>0.21095890410958903</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="33">
         <f>C14*(1-Uscite!E21-Uscite!E44)</f>
         <v>2.8347404821173301</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="32">
-        <f>Arrivi!D26</f>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="18">
         <v>0.87168949771689508</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="21">
         <f>J13</f>
         <v>0.20389464241010324</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="22">
         <f t="shared" si="0"/>
         <v>0.57798839692675674</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="22">
         <f>L13</f>
         <v>0.77767104745418902</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="21">
         <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
         <v>0.37691289952790746</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="21">
         <f t="shared" si="1"/>
         <v>0.58080754193801076</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="21">
         <f t="shared" si="2"/>
         <v>1.0684502545239811</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="21">
         <f t="shared" si="3"/>
         <v>1.6464386514507381</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="23">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="45">
-        <f>Arrivi!D13</f>
+      <c r="C15" s="18">
         <v>1.0191780821917809</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="18">
         <v>0.22511415525114156</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="18">
         <v>0.75570776255707761</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="33">
         <f>C15*(1-Uscite!E22-Uscite!E45)</f>
         <v>0.97477630875878618</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="32">
-        <f>Arrivi!D27</f>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="18">
         <v>0.21872146118721461</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="21">
         <f>J14</f>
         <v>0.20389464241010324</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="22">
         <f t="shared" si="0"/>
         <v>0.19875166690421309</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="22">
         <f>L14</f>
         <v>0.77767104745418902</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="21">
         <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
         <v>1.6937155304299658</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="21">
         <f t="shared" si="1"/>
         <v>1.8976101728400692</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="21">
         <f t="shared" si="2"/>
         <v>1.6509937728399517</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="21">
         <f t="shared" si="3"/>
         <v>1.8497454397441648</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="23">
         <f t="shared" si="4"/>
         <v>0.29788519637462235</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="D19" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="E19" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>65</v>
+      <c r="H19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="32">
         <f>Uscite!D55</f>
         <v>2.0547945205479451E-2</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="34">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="22">
         <f t="shared" ref="F20:F31" si="5">4/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="22">
         <f t="shared" ref="G20:G31" si="6">F20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="22">
         <f t="shared" ref="H20:H31" si="7">F20</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="22">
         <f t="shared" ref="I20:I31" si="8">H20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="32">
         <f>Uscite!D56</f>
         <v>22.43013698630137</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="34">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>3.7383561643835614</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="22">
         <f t="shared" si="8"/>
         <v>3.7383561643835614</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="32">
         <f>Uscite!D57</f>
         <v>1.800456621004566</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="34">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>0.30007610350076097</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="22">
         <f t="shared" si="8"/>
         <v>0.30007610350076097</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="18">
         <f>Uscite!D59</f>
         <v>1.187214611872146E-2</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="34">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>1.9786910197869098E-3</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="22">
         <f t="shared" si="8"/>
         <v>1.9786910197869098E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="18">
         <f>Uscite!D60</f>
         <v>17.739726027397261</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="34">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>2.9566210045662098</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I24" s="34">
+      <c r="I24" s="22">
         <f t="shared" si="8"/>
         <v>2.9566210045662098</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="28" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="18">
         <f>Uscite!D61</f>
         <v>1.7132420091324201</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="34">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>0.28554033485540331</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="22">
         <f t="shared" si="8"/>
         <v>0.28554033485540331</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="18">
         <f>Uscite!D63</f>
         <v>1.0502283105022832E-2</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="34">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>1.7503805175038052E-3</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="22">
         <f t="shared" si="8"/>
         <v>1.7503805175038052E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="18">
         <f>Uscite!D64</f>
         <v>6.7986301369863016</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="34">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="22">
         <f t="shared" si="6"/>
         <v>1.1331050228310502</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="22">
         <f t="shared" si="8"/>
         <v>1.1331050228310502</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="18">
         <f>Uscite!D65</f>
         <v>0.54292237442922375</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="34">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="22">
         <f t="shared" si="6"/>
         <v>9.0487062404870616E-2</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="22">
         <f t="shared" si="8"/>
         <v>9.0487062404870616E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="18">
         <f>Uscite!D67</f>
         <v>2.2831050228310505E-3</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="34">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="22">
         <f t="shared" si="6"/>
         <v>3.8051750380517507E-4</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="22">
         <f t="shared" si="8"/>
         <v>3.8051750380517507E-4</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="18">
         <f>Uscite!D68</f>
         <v>2.4456621004566208</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="34">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="22">
         <f t="shared" si="6"/>
         <v>0.40761035007610347</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="22">
         <f t="shared" si="8"/>
         <v>0.40761035007610347</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="18">
         <f>Uscite!D69</f>
         <v>0.17899543378995433</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="34">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="22">
         <f t="shared" si="6"/>
         <v>2.983257229832572E-2</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="22">
         <f t="shared" si="8"/>
         <v>2.983257229832572E-2</v>
       </c>
@@ -10322,11 +10643,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/livia/Modello Analitico.xlsx
+++ b/data/livia/Modello Analitico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/livia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B73E90-B330-4CFA-B1DB-42FF8BA97E1E}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5638E90-48B4-4966-9FDC-330A5CBA5922}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Centri - Identical" sheetId="4" r:id="rId4"/>
     <sheet name="Note" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="79">
   <si>
     <t>PAZIENTI - ARRIVI</t>
   </si>
@@ -228,9 +228,6 @@
     <t>p/giorno (2009-2013)</t>
   </si>
   <si>
-    <t>Lambda - Organi</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -331,12 +328,6 @@
   </si>
   <si>
     <t>Tasso di trapianto</t>
-  </si>
-  <si>
-    <t>Tasso di rigetto</t>
-  </si>
-  <si>
-    <t>Tasso di successo</t>
   </si>
   <si>
     <t>Tasso d'ingresso totale</t>
@@ -476,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -574,17 +565,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -597,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,10 +671,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,25 +716,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -744,6 +730,9 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -783,9 +772,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -973,13 +959,6 @@
         <filter val="O"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Critical"/>
-        <filter val="Low"/>
-        <filter val="Normal"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ABO"/>
@@ -1006,13 +985,19 @@
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabella512" displayName="Tabella512" ref="A49:G69" totalsRowShown="0">
-  <autoFilter ref="A49:G69" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <autoFilter ref="A49:G69" xr:uid="{00000000-0009-0000-0100-000007000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="All Types"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="t/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="t/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="P(Bt AND Pr)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="P(Bt AND Pr)" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{425A1A75-06E6-4CC9-B972-727A212EC0D3}" name="P(Bt | Pr)"/>
     <tableColumn id="7" xr3:uid="{74CF2C72-BA58-4801-A149-31F371AAE7DA}" name="P(Pr | Bt)"/>
   </tableColumns>
@@ -1146,8 +1131,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A2:F22" totalsRowShown="0">
   <autoFilter ref="A2:F22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!C3:H3)</calculatedColumnFormula>
     </tableColumn>
@@ -1167,16 +1152,9 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabella4" displayName="Tabella4" ref="A25:F40" totalsRowShown="0">
-  <autoFilter ref="A25:F40" xr:uid="{00000000-0009-0000-0100-000004000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Deceased Donor"/>
-        <filter val="Living Donor"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A25:F40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Lambda - Organi"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tipo"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="o/anno (2014-2019)">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q3:V3)</calculatedColumnFormula>
@@ -1494,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,6 +1483,7 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6715,8 +6694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D40"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6730,14 +6709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7214,36 +7193,36 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -7309,7 +7288,7 @@
         <v>16.324383561643835</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -7375,7 +7354,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -7441,7 +7420,7 @@
         <v>4.3632876712328761</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7507,7 +7486,7 @@
         <v>1.3391780821917809</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -7591,8 +7570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7612,13 +7591,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -7628,19 +7607,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8210,13 +8189,13 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -8226,19 +8205,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -8347,7 +8326,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -8453,7 +8432,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -8559,7 +8538,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -8665,7 +8644,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -8806,15 +8785,15 @@
       <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
+      <c r="A48" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -8824,19 +8803,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8867,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>19</v>
@@ -8893,7 +8872,7 @@
         <v>8.3570397508082699E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>21</v>
@@ -8919,7 +8898,7 @@
         <v>0.91350885930628145</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -8973,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>19</v>
@@ -8999,7 +8978,7 @@
         <v>8.4123156300824409E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>21</v>
@@ -9025,7 +9004,7 @@
         <v>0.91828837417979925</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -9079,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>19</v>
@@ -9105,7 +9084,7 @@
         <v>6.0501698701540462E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>21</v>
@@ -9131,7 +9110,7 @@
         <v>0.90403499790571051</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>23</v>
@@ -9185,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>19</v>
@@ -9211,7 +9190,7 @@
         <v>1.4194902178608899E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>21</v>
@@ -9237,7 +9216,7 @@
         <v>0.91890390668394739</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>23</v>
@@ -9291,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>19</v>
@@ -9317,7 +9296,7 @@
         <v>8.6311065078543069E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>21</v>
@@ -9343,7 +9322,7 @@
         <v>0.92456412912135333</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>23</v>
@@ -9376,21 +9355,21 @@
     <mergeCell ref="A48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9398,7 +9377,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
@@ -9411,57 +9390,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -9472,32 +9451,32 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -9528,7 +9507,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="18">
         <v>22.411872146118721</v>
@@ -9586,7 +9565,7 @@
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="18">
         <v>12.106849315068493</v>
@@ -9644,7 +9623,7 @@
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="18">
         <v>10.305022831050229</v>
@@ -9706,7 +9685,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="18">
         <v>13.938356164383562</v>
@@ -9764,7 +9743,7 @@
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="18">
         <v>9.3986301369863021</v>
@@ -9822,7 +9801,7 @@
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="18">
         <v>4.5397260273972604</v>
@@ -9884,7 +9863,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="18">
         <v>4.3242009132420085</v>
@@ -9942,7 +9921,7 @@
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="18">
         <v>2.9876712328767123</v>
@@ -10000,7 +9979,7 @@
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="18">
         <v>1.3365296803652968</v>
@@ -10062,7 +10041,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="18">
         <v>1.0904109589041096</v>
@@ -10120,7 +10099,7 @@
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="18">
         <v>0.87168949771689508</v>
@@ -10178,7 +10157,7 @@
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="18">
         <v>0.21872146118721461</v>
@@ -10228,20 +10207,19 @@
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>2</v>
       </c>
@@ -10249,28 +10227,22 @@
         <v>3</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>24</v>
       </c>
@@ -10281,26 +10253,24 @@
         <f>Uscite!D55</f>
         <v>2.0547945205479451E-2</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="D20" s="22">
+        <f>4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" ref="E20:E31" si="5">D20*C20</f>
+        <v>3.4246575342465752E-3</v>
+      </c>
       <c r="F20" s="22">
-        <f t="shared" ref="F20:F31" si="5">4/24</f>
+        <f t="shared" ref="F20:F31" si="6">D20</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" ref="G20:G31" si="6">F20*C20</f>
+        <f t="shared" ref="G20:G31" si="7">F20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
-      <c r="H20" s="22">
-        <f t="shared" ref="H20:H31" si="7">F20</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I20" s="22">
-        <f t="shared" ref="I20:I31" si="8">H20*C20</f>
-        <v>3.4246575342465752E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="17" t="s">
         <v>21</v>
@@ -10309,26 +10279,24 @@
         <f>Uscite!D56</f>
         <v>22.43013698630137</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="22">
+        <f t="shared" ref="D21:D31" si="8">4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="5"/>
+        <v>3.7383561643835614</v>
+      </c>
       <c r="F21" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7383561643835614</v>
       </c>
-      <c r="H21" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I21" s="22">
-        <f t="shared" si="8"/>
-        <v>3.7383561643835614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="17" t="s">
         <v>23</v>
@@ -10337,26 +10305,24 @@
         <f>Uscite!D57</f>
         <v>1.800456621004566</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E22" s="22">
+        <f t="shared" si="5"/>
+        <v>0.30007610350076097</v>
+      </c>
       <c r="F22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.30007610350076097</v>
       </c>
-      <c r="H22" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I22" s="22">
-        <f t="shared" si="8"/>
-        <v>0.30007610350076097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
@@ -10367,26 +10333,24 @@
         <f>Uscite!D59</f>
         <v>1.187214611872146E-2</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="5"/>
+        <v>1.9786910197869098E-3</v>
+      </c>
       <c r="F23" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9786910197869098E-3</v>
       </c>
-      <c r="H23" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I23" s="22">
-        <f t="shared" si="8"/>
-        <v>1.9786910197869098E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10395,26 +10359,24 @@
         <f>Uscite!D60</f>
         <v>17.739726027397261</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="D24" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="5"/>
+        <v>2.9566210045662098</v>
+      </c>
       <c r="F24" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G24" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9566210045662098</v>
       </c>
-      <c r="H24" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I24" s="22">
-        <f t="shared" si="8"/>
-        <v>2.9566210045662098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="17" t="s">
         <v>23</v>
@@ -10423,26 +10385,24 @@
         <f>Uscite!D61</f>
         <v>1.7132420091324201</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="5"/>
+        <v>0.28554033485540331</v>
+      </c>
       <c r="F25" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G25" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.28554033485540331</v>
       </c>
-      <c r="H25" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I25" s="22">
-        <f t="shared" si="8"/>
-        <v>0.28554033485540331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>26</v>
       </c>
@@ -10453,26 +10413,24 @@
         <f>Uscite!D63</f>
         <v>1.0502283105022832E-2</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="5"/>
+        <v>1.7503805175038052E-3</v>
+      </c>
       <c r="F26" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G26" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7503805175038052E-3</v>
       </c>
-      <c r="H26" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I26" s="22">
-        <f t="shared" si="8"/>
-        <v>1.7503805175038052E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10481,26 +10439,24 @@
         <f>Uscite!D64</f>
         <v>6.7986301369863016</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="5"/>
+        <v>1.1331050228310502</v>
+      </c>
       <c r="F27" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1331050228310502</v>
       </c>
-      <c r="H27" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I27" s="22">
-        <f t="shared" si="8"/>
-        <v>1.1331050228310502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="17" t="s">
         <v>23</v>
@@ -10509,26 +10465,24 @@
         <f>Uscite!D65</f>
         <v>0.54292237442922375</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="5"/>
+        <v>9.0487062404870616E-2</v>
+      </c>
       <c r="F28" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G28" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.0487062404870616E-2</v>
       </c>
-      <c r="H28" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I28" s="22">
-        <f t="shared" si="8"/>
-        <v>9.0487062404870616E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>27</v>
       </c>
@@ -10539,26 +10493,24 @@
         <f>Uscite!D67</f>
         <v>2.2831050228310505E-3</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="5"/>
+        <v>3.8051750380517507E-4</v>
+      </c>
       <c r="F29" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G29" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8051750380517507E-4</v>
       </c>
-      <c r="H29" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I29" s="22">
-        <f t="shared" si="8"/>
-        <v>3.8051750380517507E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10567,26 +10519,24 @@
         <f>Uscite!D68</f>
         <v>2.4456621004566208</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="5"/>
+        <v>0.40761035007610347</v>
+      </c>
       <c r="F30" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G30" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.40761035007610347</v>
       </c>
-      <c r="H30" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I30" s="22">
-        <f t="shared" si="8"/>
-        <v>0.40761035007610347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="17" t="s">
         <v>23</v>
@@ -10595,24 +10545,25 @@
         <f>Uscite!D69</f>
         <v>0.17899543378995433</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="22">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="5"/>
+        <v>2.983257229832572E-2</v>
+      </c>
       <c r="F31" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G31" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.983257229832572E-2</v>
       </c>
-      <c r="H31" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I31" s="22">
-        <f t="shared" si="8"/>
-        <v>2.983257229832572E-2</v>
-      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10620,7 +10571,7 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10643,11 +10594,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/livia/Modello Analitico.xlsx
+++ b/data/livia/Modello Analitico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/livia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C892A061-DC3A-40AC-BC56-81C91297D769}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7507E108-EB78-4234-B101-9C13BBA2CDC5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Arrivi" sheetId="2" r:id="rId2"/>
     <sheet name="Uscite" sheetId="3" r:id="rId3"/>
     <sheet name="Centri - Identical" sheetId="4" r:id="rId4"/>
-    <sheet name="Note" sheetId="7" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="8" r:id="rId5"/>
+    <sheet name="Note" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +46,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="84">
   <si>
     <t>PAZIENTI - ARRIVI</t>
   </si>
@@ -216,9 +217,6 @@
     <t>P(Rigetto)</t>
   </si>
   <si>
-    <t>Lambda-Pazienti</t>
-  </si>
-  <si>
     <t>p/anno (2014-2019)</t>
   </si>
   <si>
@@ -229,9 +227,6 @@
   </si>
   <si>
     <t>p/giorno (2009-2013)</t>
-  </si>
-  <si>
-    <t>Lambda - Organi</t>
   </si>
   <si>
     <t>Tipo</t>
@@ -253,9 +248,6 @@
   </si>
   <si>
     <t>d/giorno (2014-2019)</t>
-  </si>
-  <si>
-    <t>P(Bt AND Pr)</t>
   </si>
   <si>
     <t>r/anno (2014-2019)</t>
@@ -336,19 +328,31 @@
     <t>Tasso di trapianto</t>
   </si>
   <si>
-    <t>Tasso di rigetto</t>
-  </si>
-  <si>
-    <t>Tasso di successo</t>
-  </si>
-  <si>
     <t>Tasso d'ingresso totale</t>
   </si>
   <si>
-    <t>P(Bt | Pr)</t>
+    <t>Activation center</t>
   </si>
   <si>
-    <t>P(Pr | Bt)</t>
+    <t>Tasso di completamento</t>
+  </si>
+  <si>
+    <t>Waiting List</t>
+  </si>
+  <si>
+    <t>Organ Bank</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Probabilità</t>
+  </si>
+  <si>
+    <t>Probabilità di morte</t>
+  </si>
+  <si>
+    <t>Probabilità di renege</t>
   </si>
 </sst>
 </file>
@@ -360,7 +364,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -374,12 +378,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
@@ -403,8 +401,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,8 +482,74 @@
         <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF4B183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -570,7 +647,9 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -581,11 +660,74 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,52 +735,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,13 +768,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,18 +783,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,10 +807,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -712,22 +819,173 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -883,17 +1141,21 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabella5" displayName="Tabella5" ref="A2:G22" totalsRowShown="0">
-  <autoFilter ref="A2:G22" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabella5" displayName="Tabella5" ref="A2:E22" totalsRowShown="0">
+  <autoFilter ref="A2:E22" xr:uid="{00000000-0009-0000-0100-000005000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Low"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="d/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="d/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="P(Bt AND Pr)"/>
-    <tableColumn id="6" xr3:uid="{BA9696CB-973E-4C10-A048-3F2E161E3E03}" name="P(Bt | Pr)"/>
-    <tableColumn id="7" xr3:uid="{556A604F-B354-4937-B17D-BE37408A5600}" name="P(Pr | Bt)">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{A87F9785-8BDD-4C18-9179-285F88A533E8}" name="Probabilità" dataDxfId="0">
+      <calculatedColumnFormula>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -901,41 +1163,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabella511" displayName="Tabella511" ref="A25:G45" totalsRowShown="0">
-  <autoFilter ref="A25:G45" xr:uid="{00000000-0009-0000-0100-000006000000}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="A"/>
-        <filter val="AB"/>
-        <filter val="B"/>
-        <filter val="O"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabella511" displayName="Tabella511" ref="A25:E45" totalsRowShown="0">
+  <autoFilter ref="A25:E45" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Critical"/>
         <filter val="Low"/>
-        <filter val="Normal"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="7">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="r/anno (2014-2019)">
-      <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q49:V49)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(AVERAGE(Dati_OPTN!Q49:V49) &gt; Arrivi!C3, Arrivi!C3, AVERAGE(Dati_OPTN!Q49:V49))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="r/giorno (2014-2019)">
       <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="P(Bt AND Pr)">
-      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{E91D55C8-AA3E-42C5-9822-44CC27598042}" name="P(Bt | Pr)">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{FA8A30BA-728B-45BF-9A31-1E3623916B71}" name="P(Pr | Bt)">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Probabilità">
+      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -943,16 +1189,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabella512" displayName="Tabella512" ref="A49:G69" totalsRowShown="0">
-  <autoFilter ref="A49:G69" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabella512" displayName="Tabella512" ref="A49:E69" totalsRowShown="0">
+  <autoFilter ref="A49:E69" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="t/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="t/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="P(Bt AND Pr)" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{425A1A75-06E6-4CC9-B972-727A212EC0D3}" name="P(Bt | Pr)"/>
-    <tableColumn id="7" xr3:uid="{74CF2C72-BA58-4801-A149-31F371AAE7DA}" name="P(Pr | Bt)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Probabilità" dataDxfId="1">
+      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1081,30 +1327,46 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A2:F22" totalsRowShown="0">
+  <autoFilter ref="A2:F22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Lambda-Pazienti"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="p/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="p/anno (2009-2013)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="p/giorno (2009-2013)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!C3:H3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="p/giorno (2014-2019)">
+      <calculatedColumnFormula>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="p/anno (2009-2013)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!I3:M3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="p/giorno (2009-2013)">
+      <calculatedColumnFormula>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabella4" displayName="Tabella4" ref="A15:F27" totalsRowShown="0">
-  <autoFilter ref="A15:F27" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabella4" displayName="Tabella4" ref="A25:F40" totalsRowShown="0">
+  <autoFilter ref="A25:F40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Lambda - Organi"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tipo"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="o/anno (2014-2019)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="o/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="o/anno (2009-2013)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="o/giorno (2009-2013)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="o/anno (2014-2019)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q3:V3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="o/giorno (2014-2019)">
+      <calculatedColumnFormula>C26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="o/anno (2009-2013)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!W3:AA3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="o/giorno (2009-2013)">
+      <calculatedColumnFormula>E26/365</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1409,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,40 +1682,41 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1560,19 +1823,19 @@
       <c r="H3">
         <v>36154</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="3">
         <v>36393</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="3">
         <v>34831</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="3">
         <v>33560</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="3">
         <v>34400</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="3">
         <v>33646</v>
       </c>
       <c r="O3" t="s">
@@ -1599,19 +1862,19 @@
       <c r="V3">
         <v>13302</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="3">
         <v>13282</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="3">
         <v>13040</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="3">
         <v>13207</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="3">
         <v>13519</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="3">
         <v>13636</v>
       </c>
     </row>
@@ -1637,19 +1900,19 @@
       <c r="H4">
         <v>36</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="3">
         <v>29</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="3">
         <v>28</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="3">
         <v>29</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="3">
         <v>34</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="3">
         <v>35</v>
       </c>
       <c r="P4" t="s">
@@ -1673,19 +1936,19 @@
       <c r="V4">
         <v>7763</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="3">
         <v>7548</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="3">
         <v>7421</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="3">
         <v>7434</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="3">
         <v>7241</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="3">
         <v>7248</v>
       </c>
     </row>
@@ -1711,19 +1974,19 @@
       <c r="H5">
         <v>25197</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="3">
         <v>25120</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="3">
         <v>24125</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="3">
         <v>23502</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="3">
         <v>24367</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="3">
         <v>24299</v>
       </c>
       <c r="P5" t="s">
@@ -1747,19 +2010,19 @@
       <c r="V5">
         <v>5539</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="3">
         <v>5734</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="3">
         <v>5619</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="3">
         <v>5773</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="3">
         <v>6278</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="3">
         <v>6388</v>
       </c>
     </row>
@@ -1785,19 +2048,19 @@
       <c r="H6">
         <v>11390</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="3">
         <v>11725</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="3">
         <v>11107</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="3">
         <v>10405</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="3">
         <v>10365</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="3">
         <v>9726</v>
       </c>
       <c r="O6" t="s">
@@ -1824,19 +2087,19 @@
       <c r="V6">
         <v>7156</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="3">
         <v>7211</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="3">
         <v>7064</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="3">
         <v>7244</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="3">
         <v>7431</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="3">
         <v>7653</v>
       </c>
     </row>
@@ -1865,19 +2128,19 @@
       <c r="H7">
         <v>17581</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="3">
         <v>17643</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="3">
         <v>16975</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="3">
         <v>16237</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="3">
         <v>16668</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="3">
         <v>16325</v>
       </c>
       <c r="P7" t="s">
@@ -1901,19 +2164,19 @@
       <c r="V7">
         <v>3683</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="3">
         <v>3614</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="3">
         <v>3463</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="3">
         <v>3566</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="3">
         <v>3449</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="3">
         <v>3458</v>
       </c>
     </row>
@@ -1939,19 +2202,19 @@
       <c r="H8">
         <v>14</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="3">
         <v>13</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="3">
         <v>20</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="3">
         <v>16</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="3">
         <v>16</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="3">
         <v>15</v>
       </c>
       <c r="P8" t="s">
@@ -1975,19 +2238,19 @@
       <c r="V8">
         <v>3473</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="3">
         <v>3597</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="3">
         <v>3601</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="3">
         <v>3678</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="3">
         <v>3982</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="3">
         <v>4195</v>
       </c>
     </row>
@@ -2013,19 +2276,19 @@
       <c r="H9">
         <v>12356</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="3">
         <v>12164</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="3">
         <v>11814</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="3">
         <v>11454</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="3">
         <v>11807</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="3">
         <v>11751</v>
       </c>
       <c r="O9" t="s">
@@ -2052,19 +2315,19 @@
       <c r="V9">
         <v>4399</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="3">
         <v>4392</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="3">
         <v>4282</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="3">
         <v>4257</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="3">
         <v>4328</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="3">
         <v>4360</v>
       </c>
     </row>
@@ -2090,19 +2353,19 @@
       <c r="H10">
         <v>5434</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="3">
         <v>5680</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="3">
         <v>5334</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="3">
         <v>4945</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="3">
         <v>5031</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="3">
         <v>4759</v>
       </c>
       <c r="P10" t="s">
@@ -2126,19 +2389,19 @@
       <c r="V10">
         <v>2882</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="3">
         <v>2815</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="3">
         <v>2766</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="3">
         <v>2715</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="3">
         <v>2638</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="3">
         <v>2722</v>
       </c>
     </row>
@@ -2167,19 +2430,19 @@
       <c r="H11">
         <v>11808</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="3">
         <v>11907</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="3">
         <v>11429</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="3">
         <v>11234</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="3">
         <v>11387</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="3">
         <v>11084</v>
       </c>
       <c r="P11" t="s">
@@ -2203,19 +2466,19 @@
       <c r="V11">
         <v>1517</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="3">
         <v>1577</v>
       </c>
-      <c r="X11" s="11">
+      <c r="X11" s="3">
         <v>1516</v>
       </c>
-      <c r="Y11" s="11">
+      <c r="Y11" s="3">
         <v>1542</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="3">
         <v>1690</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="3">
         <v>1638</v>
       </c>
     </row>
@@ -2241,19 +2504,19 @@
       <c r="H12">
         <v>16</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="3">
         <v>7</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="3">
         <v>7</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="3">
         <v>12</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="3">
         <v>7</v>
       </c>
       <c r="O12" t="s">
@@ -2280,19 +2543,19 @@
       <c r="V12">
         <v>1400</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="3">
         <v>1361</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="3">
         <v>1362</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="3">
         <v>1374</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="3">
         <v>1442</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="3">
         <v>1349</v>
       </c>
     </row>
@@ -2318,19 +2581,19 @@
       <c r="H13">
         <v>8153</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="3">
         <v>8253</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="3">
         <v>7919</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="3">
         <v>7809</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="3">
         <v>8128</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="3">
         <v>8044</v>
       </c>
       <c r="P13" t="s">
@@ -2354,19 +2617,19 @@
       <c r="V13">
         <v>929</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="3">
         <v>874</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="3">
         <v>935</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="3">
         <v>889</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="3">
         <v>896</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="3">
         <v>850</v>
       </c>
     </row>
@@ -2392,19 +2655,19 @@
       <c r="H14">
         <v>3782</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="3">
         <v>3814</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="3">
         <v>3650</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="3">
         <v>3541</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="3">
         <v>3359</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="3">
         <v>3156</v>
       </c>
       <c r="P14" t="s">
@@ -2428,19 +2691,19 @@
       <c r="V14">
         <v>471</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="3">
         <v>487</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="3">
         <v>427</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="3">
         <v>485</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="3">
         <v>546</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="3">
         <v>499</v>
       </c>
     </row>
@@ -2469,19 +2732,19 @@
       <c r="H15">
         <v>5394</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="3">
         <v>5489</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="3">
         <v>5085</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="3">
         <v>4830</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="3">
         <v>4991</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="3">
         <v>4917</v>
       </c>
       <c r="O15" t="s">
@@ -2508,19 +2771,19 @@
       <c r="V15">
         <v>347</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="3">
         <v>318</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="3">
         <v>332</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="3">
         <v>332</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="3">
         <v>318</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15" s="3">
         <v>274</v>
       </c>
     </row>
@@ -2546,19 +2809,19 @@
       <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="3">
         <v>3</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="3">
         <v>5</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="3">
         <v>13</v>
       </c>
       <c r="P16" t="s">
@@ -2582,19 +2845,19 @@
       <c r="V16">
         <v>269</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="3">
         <v>245</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="3">
         <v>257</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="3">
         <v>264</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16" s="3">
         <v>258</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16" s="3">
         <v>218</v>
       </c>
     </row>
@@ -2620,19 +2883,19 @@
       <c r="H17">
         <v>3716</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="3">
         <v>3790</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="3">
         <v>3478</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="3">
         <v>3371</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="3">
         <v>3517</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="3">
         <v>3554</v>
       </c>
       <c r="P17" t="s">
@@ -2656,19 +2919,19 @@
       <c r="V17">
         <v>78</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W17" s="3">
         <v>73</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="3">
         <v>75</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="3">
         <v>68</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="3">
         <v>60</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17" s="3">
         <v>56</v>
       </c>
     </row>
@@ -2694,19 +2957,19 @@
       <c r="H18">
         <v>1758</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="3">
         <v>1773</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="3">
         <v>1680</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="3">
         <v>1517</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="3">
         <v>1518</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="3">
         <v>1424</v>
       </c>
     </row>
@@ -2735,19 +2998,19 @@
       <c r="H19">
         <v>1371</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="3">
         <v>1355</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="3">
         <v>1343</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="3">
         <v>1260</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="3">
         <v>1354</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="3">
         <v>1323</v>
       </c>
     </row>
@@ -2773,19 +3036,19 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2811,19 +3074,19 @@
       <c r="H21">
         <v>973</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="3">
         <v>914</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="3">
         <v>915</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="3">
         <v>869</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="3">
         <v>915</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="3">
         <v>952</v>
       </c>
     </row>
@@ -2849,60 +3112,60 @@
       <c r="H22">
         <v>416</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="3">
         <v>458</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="3">
         <v>443</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="3">
         <v>402</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="3">
         <v>457</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="3">
         <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="O24" s="10" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="O24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4495,36 +4758,36 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="O47" s="10" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="O47" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6337,13 +6600,13 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -6372,10 +6635,10 @@
       <c r="C72">
         <v>64123</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.4000000000000048E-2</v>
       </c>
@@ -6387,10 +6650,10 @@
       <c r="C73">
         <v>56240</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="3">
         <v>0.878</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.122</v>
       </c>
@@ -6402,10 +6665,10 @@
       <c r="C74">
         <v>47638</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="3">
         <v>0.78674999999999995</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.21325000000000005</v>
       </c>
@@ -6420,10 +6683,10 @@
       <c r="C75">
         <v>28779</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="3">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.4000000000000048E-2</v>
       </c>
@@ -6435,10 +6698,10 @@
       <c r="C76">
         <v>25312</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="3">
         <v>0.876</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.124</v>
       </c>
@@ -6450,10 +6713,10 @@
       <c r="C77">
         <v>21429</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.21499999999999997</v>
       </c>
@@ -6468,10 +6731,10 @@
       <c r="C78">
         <v>23687</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="3">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.3000000000000047E-2</v>
       </c>
@@ -6483,10 +6746,10 @@
       <c r="C79">
         <v>20747</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="3">
         <v>0.878</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.122</v>
       </c>
@@ -6498,10 +6761,10 @@
       <c r="C80">
         <v>17602</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.21499999999999997</v>
       </c>
@@ -6516,10 +6779,10 @@
       <c r="C81">
         <v>8436</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="3">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.600000000000005E-2</v>
       </c>
@@ -6531,10 +6794,10 @@
       <c r="C82">
         <v>7380</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="3">
         <v>0.876</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.124</v>
       </c>
@@ -6546,10 +6809,10 @@
       <c r="C83">
         <v>6279</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="3">
         <v>0.77600000000000002</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.22399999999999998</v>
       </c>
@@ -6564,10 +6827,10 @@
       <c r="C84">
         <v>3221</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="3">
         <v>0.94699999999999995</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>5.3000000000000047E-2</v>
       </c>
@@ -6579,10 +6842,10 @@
       <c r="C85">
         <v>2801</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="3">
         <v>0.88200000000000001</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.11799999999999999</v>
       </c>
@@ -6594,10 +6857,10 @@
       <c r="C86">
         <v>2328</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="3">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="3">
         <f>1-Tabella6[[#This Row],[P(successo)]]</f>
         <v>0.19899999999999995</v>
       </c>
@@ -6628,10 +6891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,598 +6907,870 @@
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <f>AVERAGE(Dati_OPTN!C3:H3)</f>
+        <v>37016.166666666664</v>
+      </c>
+      <c r="D3" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>101.41415525114155</v>
+      </c>
+      <c r="E3" s="3">
+        <f>AVERAGE(Dati_OPTN!I3:M3)</f>
+        <v>34566</v>
+      </c>
+      <c r="F3" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>94.701369863013696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <f>AVERAGE(Dati_OPTN!C4:H4)</f>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="D4" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>0.10228310502283106</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE(Dati_OPTN!I4:M4)</f>
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <f>AVERAGE(Dati_OPTN!C5:H5)</f>
+        <v>28004.833333333332</v>
+      </c>
+      <c r="D5" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>76.725570776255708</v>
+      </c>
+      <c r="E5" s="3">
+        <f>AVERAGE(Dati_OPTN!I5:M5)</f>
+        <v>24282.6</v>
+      </c>
+      <c r="F5" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>66.527671232876713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3">
+        <f>AVERAGE(Dati_OPTN!C6:H6)</f>
+        <v>9350.8333333333339</v>
+      </c>
+      <c r="D6" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>25.618721461187217</v>
+      </c>
+      <c r="E6" s="3">
+        <f>AVERAGE(Dati_OPTN!I6:M6)</f>
+        <v>10665.6</v>
+      </c>
+      <c r="F6" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>29.22082191780822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <f>AVERAGE(Dati_OPTN!C7:H7)</f>
+        <v>18053.666666666668</v>
+      </c>
+      <c r="D7" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>49.462100456621009</v>
+      </c>
+      <c r="E7" s="3">
+        <f>AVERAGE(Dati_OPTN!I7:M7)</f>
+        <v>16769.599999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>45.944109589041091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C8" s="3">
         <f>AVERAGE(Dati_OPTN!C8:H8)</f>
         <v>19</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D8" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>5.2054794520547946E-2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E8" s="3">
         <f>AVERAGE(Dati_OPTN!I8:M8)</f>
         <v>16</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F8" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>4.3835616438356165E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C9" s="3">
         <f>AVERAGE(Dati_OPTN!C9:H9)</f>
         <v>13753.333333333334</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D9" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>37.680365296803657</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E9" s="3">
         <f>AVERAGE(Dati_OPTN!I9:M9)</f>
         <v>11798</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F9" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>32.323287671232876</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C10" s="3">
         <f>AVERAGE(Dati_OPTN!C10:H10)</f>
         <v>4465</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D10" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>12.232876712328768</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E10" s="3">
         <f>AVERAGE(Dati_OPTN!I10:M10)</f>
         <v>5149.8</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F10" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>14.109041095890412</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <f>AVERAGE(Dati_OPTN!C11:H11)</f>
+        <v>12047.166666666666</v>
+      </c>
+      <c r="D11" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>33.00593607305936</v>
+      </c>
+      <c r="E11" s="3">
+        <f>AVERAGE(Dati_OPTN!I11:M11)</f>
+        <v>11408.2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>31.255342465753426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C12" s="3">
         <f>AVERAGE(Dati_OPTN!C12:H12)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D12" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>2.9223744292237442E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E12" s="3">
         <f>AVERAGE(Dati_OPTN!I12:M12)</f>
         <v>8.6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F12" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.3561643835616437E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C13" s="3">
         <f>AVERAGE(Dati_OPTN!C13:H13)</f>
         <v>9003.1666666666661</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D13" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>24.666210045662098</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E13" s="3">
         <f>AVERAGE(Dati_OPTN!I13:M13)</f>
         <v>8030.6</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F13" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>22.001643835616438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C14" s="3">
         <f>AVERAGE(Dati_OPTN!C14:H14)</f>
         <v>3154.3333333333335</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D14" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>8.6420091324200925</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E14" s="3">
         <f>AVERAGE(Dati_OPTN!I14:M14)</f>
         <v>3504</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F14" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <f>AVERAGE(Dati_OPTN!C15:H15)</f>
+        <v>5505.166666666667</v>
+      </c>
+      <c r="D15" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>15.082648401826486</v>
+      </c>
+      <c r="E15" s="3">
+        <f>AVERAGE(Dati_OPTN!I15:M15)</f>
+        <v>5062.3999999999996</v>
+      </c>
+      <c r="F15" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>13.869589041095889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C16" s="3">
         <f>AVERAGE(Dati_OPTN!C16:H16)</f>
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D16" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>1.643835616438356E-2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E16" s="3">
         <f>AVERAGE(Dati_OPTN!I16:M16)</f>
         <v>5.4</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F16" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>1.4794520547945207E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C17" s="3">
         <f>AVERAGE(Dati_OPTN!C17:H17)</f>
         <v>4198</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D17" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>11.501369863013698</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E17" s="3">
         <f>AVERAGE(Dati_OPTN!I17:M17)</f>
         <v>3542</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F17" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>9.7041095890410958</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C18" s="3">
         <f>AVERAGE(Dati_OPTN!C18:H18)</f>
         <v>1359.5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D18" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>3.7246575342465755</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E18" s="3">
         <f>AVERAGE(Dati_OPTN!I18:M18)</f>
         <v>1582.4</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F18" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>4.335342465753425</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <f>AVERAGE(Dati_OPTN!C19:H19)</f>
+        <v>1410.8333333333333</v>
+      </c>
+      <c r="D19" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
+        <v>3.865296803652968</v>
+      </c>
+      <c r="E19" s="3">
+        <f>AVERAGE(Dati_OPTN!I19:M19)</f>
+        <v>1327</v>
+      </c>
+      <c r="F19" s="3">
+        <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
+        <v>3.6356164383561644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C20" s="3">
         <f>AVERAGE(Dati_OPTN!C20:H20)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D20" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>4.5662100456621011E-3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E20" s="3">
         <f>AVERAGE(Dati_OPTN!I20:M20)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F20" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C21" s="3">
         <f>AVERAGE(Dati_OPTN!C21:H21)</f>
         <v>1051.1666666666667</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D21" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>2.8799086757990868</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E21" s="3">
         <f>AVERAGE(Dati_OPTN!I21:M21)</f>
         <v>913</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F21" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.5013698630136987</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C22" s="3">
         <f>AVERAGE(Dati_OPTN!C22:H22)</f>
         <v>372</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D22" s="3">
         <f>Tabella3[[#This Row],[p/anno (2014-2019)]]/365</f>
         <v>1.0191780821917809</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E22" s="3">
         <f>AVERAGE(Dati_OPTN!I22:M22)</f>
         <v>429.6</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F22" s="3">
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>1.1769863013698632</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="F25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3">
+        <f>AVERAGE(Dati_OPTN!Q3:V3)</f>
+        <v>15244.166666666666</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D40" si="0">C26/365</f>
+        <v>41.764840182648399</v>
+      </c>
+      <c r="E26" s="3">
+        <f>AVERAGE(Dati_OPTN!W3:AA3)</f>
+        <v>13336.8</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:F40" si="1">E26/365</f>
+        <v>36.539178082191782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3">
+        <f>AVERAGE(Dati_OPTN!Q4:V4)</f>
+        <v>9258.1666666666661</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>25.3648401826484</v>
+      </c>
+      <c r="E27" s="3">
+        <f>AVERAGE(Dati_OPTN!W4:AA4)</f>
+        <v>7378.4</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>20.214794520547944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <f>AVERAGE(Dati_OPTN!Q5:V5)</f>
+        <v>5986</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <f>AVERAGE(Dati_OPTN!W5:AA5)</f>
+        <v>5958.4</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>16.324383561643835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C29" s="3">
         <f>AVERAGE(Dati_OPTN!Q6:V6)</f>
         <v>8180.333333333333</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" ref="D16:D27" si="0">C16/365</f>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
         <v>22.411872146118721</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E29" s="3">
         <f>AVERAGE(Dati_OPTN!W6:AA6)</f>
         <v>7320.6</v>
       </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:F27" si="1">E16/365</f>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
         <v>20.056438356164385</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C30" s="3">
         <f>AVERAGE(Dati_OPTN!Q7:V7)</f>
         <v>4419</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>12.106849315068493</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E30" s="3">
         <f>AVERAGE(Dati_OPTN!W7:AA7)</f>
         <v>3510</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F30" s="3">
         <f t="shared" si="1"/>
         <v>9.6164383561643838</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C31" s="3">
         <f>AVERAGE(Dati_OPTN!Q8:V8)</f>
         <v>3761.3333333333335</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>10.305022831050229</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E31" s="3">
         <f>AVERAGE(Dati_OPTN!W8:AA8)</f>
         <v>3810.6</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F31" s="3">
         <f t="shared" si="1"/>
         <v>10.44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C32" s="3">
         <f>AVERAGE(Dati_OPTN!Q9:V9)</f>
         <v>5087.5</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>13.938356164383562</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E32" s="3">
         <f>AVERAGE(Dati_OPTN!W9:AA9)</f>
         <v>4323.8</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F32" s="3">
         <f t="shared" si="1"/>
         <v>11.846027397260274</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C33" s="3">
         <f>AVERAGE(Dati_OPTN!Q10:V10)</f>
         <v>3430.5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>9.3986301369863021</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E33" s="3">
         <f>AVERAGE(Dati_OPTN!W10:AA10)</f>
         <v>2731.2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F33" s="3">
         <f t="shared" si="1"/>
         <v>7.4827397260273969</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C34" s="3">
         <f>AVERAGE(Dati_OPTN!Q11:V11)</f>
         <v>1657</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>4.5397260273972604</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E34" s="3">
         <f>AVERAGE(Dati_OPTN!W11:AA11)</f>
         <v>1592.6</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
         <v>4.3632876712328761</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C35" s="3">
         <f>AVERAGE(Dati_OPTN!Q12:V12)</f>
         <v>1578.3333333333333</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>4.3242009132420085</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E35" s="3">
         <f>AVERAGE(Dati_OPTN!W12:AA12)</f>
         <v>1377.6</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F35" s="3">
         <f t="shared" si="1"/>
         <v>3.7742465753424654</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C36" s="3">
         <f>AVERAGE(Dati_OPTN!Q13:V13)</f>
         <v>1090.5</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>2.9876712328767123</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E36" s="3">
         <f>AVERAGE(Dati_OPTN!W13:AA13)</f>
         <v>888.8</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F36" s="3">
         <f t="shared" si="1"/>
         <v>2.435068493150685</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C37" s="3">
         <f>AVERAGE(Dati_OPTN!Q14:V14)</f>
         <v>487.83333333333331</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>1.3365296803652968</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E37" s="3">
         <f>AVERAGE(Dati_OPTN!W14:AA14)</f>
         <v>488.8</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F37" s="3">
         <f t="shared" si="1"/>
         <v>1.3391780821917809</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C38" s="3">
         <f>AVERAGE(Dati_OPTN!Q15:V15)</f>
         <v>398</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>1.0904109589041096</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E38" s="3">
         <f>AVERAGE(Dati_OPTN!W15:AA15)</f>
         <v>314.8</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F38" s="3">
         <f t="shared" si="1"/>
         <v>0.86246575342465759</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C39" s="3">
         <f>AVERAGE(Dati_OPTN!Q16:V16)</f>
         <v>318.16666666666669</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>0.87168949771689508</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E39" s="3">
         <f>AVERAGE(Dati_OPTN!W16:AA16)</f>
         <v>248.4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F39" s="3">
         <f t="shared" si="1"/>
         <v>0.68054794520547945</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C40" s="3">
         <f>AVERAGE(Dati_OPTN!Q17:V17)</f>
         <v>79.833333333333329</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>0.21872146118721461</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E40" s="3">
         <f>AVERAGE(Dati_OPTN!W17:AA17)</f>
         <v>66.400000000000006</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F40" s="3">
         <f t="shared" si="1"/>
         <v>0.18191780821917811</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A24:F24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:E69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7254,1798 +7789,1294 @@
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="5">
         <f>AVERAGE(Dati_OPTN!C26:H26)</f>
         <v>4418.5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>12.105479452054794</v>
       </c>
-      <c r="E3" s="15">
-        <f t="shared" ref="E3:E22" si="0">C3/$C$3</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/$C3</f>
-        <v>1</v>
-      </c>
-      <c r="G3" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="E3" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.1193667631710469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="5">
         <f>AVERAGE(Dati_OPTN!C27:H27)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.6529680365296802E-3</v>
       </c>
-      <c r="E4" s="15">
-        <f t="shared" si="0"/>
-        <v>3.0176153294858739E-4</v>
-      </c>
-      <c r="F4" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="E4" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="5">
         <f>AVERAGE(Dati_OPTN!C28:H28)</f>
         <v>1681</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>4.6054794520547944</v>
       </c>
-      <c r="E5" s="15">
-        <f t="shared" si="0"/>
-        <v>0.38044585266493153</v>
-      </c>
-      <c r="F5" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="E5" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>6.0025352766486739E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="5">
         <f>AVERAGE(Dati_OPTN!C29:H29)</f>
         <v>2813.5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>7.7082191780821914</v>
       </c>
-      <c r="E6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.63675455471313791</v>
-      </c>
-      <c r="F6" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="E6" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.30088227430710274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="5">
         <f>AVERAGE(Dati_OPTN!C30:H30)</f>
         <v>2313.5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>6.338356164383562</v>
       </c>
-      <c r="E7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.52359397985741762</v>
-      </c>
-      <c r="F7" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="E7" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.12814571370543379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <f>AVERAGE(Dati_OPTN!C31:H31)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E8" s="15">
-        <f t="shared" si="0"/>
-        <v>2.2632114971144054E-4</v>
-      </c>
-      <c r="F8" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="E8" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="5">
         <f>AVERAGE(Dati_OPTN!C32:H32)</f>
         <v>913.83333333333337</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.5036529680365298</v>
       </c>
-      <c r="E9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.20681981064463809</v>
-      </c>
-      <c r="F9" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+      <c r="E9" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>6.6444498303441596E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="5">
         <f>AVERAGE(Dati_OPTN!C33:H33)</f>
         <v>1440.6666666666667</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.9470319634703199</v>
       </c>
-      <c r="E10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.32605333635094869</v>
-      </c>
-      <c r="F10" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.32265770810003735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="5">
         <f>AVERAGE(Dati_OPTN!C34:H34)</f>
         <v>1276.8333333333333</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>3.4981735159817351</v>
       </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.28897438798989095</v>
-      </c>
-      <c r="F11" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+      <c r="E11" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.10598619315745057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="5">
         <f>AVERAGE(Dati_OPTN!C35:H35)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>9.1324200913242006E-4</v>
       </c>
-      <c r="E12" s="15">
-        <f t="shared" si="0"/>
-        <v>7.5440383237146847E-5</v>
-      </c>
-      <c r="F12" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
+      <c r="E12" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="5">
         <f>AVERAGE(Dati_OPTN!C36:H36)</f>
         <v>445.5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.2205479452054795</v>
       </c>
-      <c r="E13" s="15">
-        <f t="shared" si="0"/>
-        <v>0.10082607219644676</v>
-      </c>
-      <c r="F13" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
+      <c r="E13" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>4.9482589459264335E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="5">
         <f>AVERAGE(Dati_OPTN!C37:H37)</f>
         <v>848.16666666666663</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>2.3237442922374427</v>
       </c>
-      <c r="E14" s="15">
-        <f t="shared" si="0"/>
-        <v>0.19195805514692013</v>
-      </c>
-      <c r="F14" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="E14" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.26888935855436963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="5">
         <f>AVERAGE(Dati_OPTN!C38:H38)</f>
         <v>708.83333333333337</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.9420091324200914</v>
       </c>
-      <c r="E15" s="15">
-        <f t="shared" si="0"/>
-        <v>0.16042397495379276</v>
-      </c>
-      <c r="F15" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
+      <c r="E15" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.12875783355030124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="5">
         <f>AVERAGE(Dati_OPTN!C39:H39)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0</v>
       </c>
-      <c r="E16" s="15">
-        <f t="shared" si="0"/>
+      <c r="E16" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0</v>
       </c>
-      <c r="F16" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="5">
         <f>AVERAGE(Dati_OPTN!C40:H40)</f>
         <v>283.16666666666669</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.77579908675799092</v>
       </c>
-      <c r="E17" s="15">
-        <f t="shared" si="0"/>
-        <v>6.4086605559956253E-2</v>
-      </c>
-      <c r="F17" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
+      <c r="E17" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>6.7452755280292209E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="5">
         <f>AVERAGE(Dati_OPTN!C41:H41)</f>
         <v>442.5</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>1.2123287671232876</v>
       </c>
-      <c r="E18" s="15">
-        <f t="shared" si="0"/>
-        <v>0.10014710874731243</v>
-      </c>
-      <c r="F18" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="E18" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.32548731151158516</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="5">
         <f>AVERAGE(Dati_OPTN!C42:H42)</f>
         <v>119.33333333333333</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.32694063926940636</v>
       </c>
-      <c r="E19" s="15">
-        <f t="shared" si="0"/>
-        <v>2.7007657198898569E-2</v>
-      </c>
-      <c r="F19" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
+      <c r="E19" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>8.45835794447726E-2</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="5">
         <f>AVERAGE(Dati_OPTN!C43:H43)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0</v>
       </c>
-      <c r="F20" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="5">
         <f>AVERAGE(Dati_OPTN!C44:H44)</f>
         <v>38.5</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.10547945205479452</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="0"/>
-        <v>8.7133642638904611E-3</v>
-      </c>
-      <c r="F21" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="E21" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>3.662597114317425E-2</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="5">
         <f>AVERAGE(Dati_OPTN!C45:H45)</f>
         <v>82.166666666666671</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="5">
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/365</f>
         <v>0.22511415525114156</v>
       </c>
-      <c r="E22" s="15">
-        <f t="shared" si="0"/>
-        <v>1.8596054467956698E-2</v>
-      </c>
-      <c r="F22" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="E22" s="5">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.22087813620071686</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="15">
-        <f>AVERAGE(Dati_OPTN!Q49:V49)</f>
+      <c r="C26" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q49:V49) &gt; Arrivi!C3, Arrivi!C3, AVERAGE(Dati_OPTN!Q49:V49))</f>
         <v>11046.5</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>30.264383561643836</v>
       </c>
-      <c r="E26" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>1</v>
-      </c>
-      <c r="F26" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12" t="s">
+      <c r="E26" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C3</f>
+        <v>0.2984236617333868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="15">
-        <f>AVERAGE(Dati_OPTN!Q50:V50)</f>
+      <c r="C27" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q50:V50) &gt; Arrivi!C4, Arrivi!C4, AVERAGE(Dati_OPTN!Q50:V50))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>9.1324200913242021E-3</v>
       </c>
-      <c r="E27" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>3.0175470360144241E-4</v>
-      </c>
-      <c r="F27" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
+      <c r="E27" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C4</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="15">
-        <f>AVERAGE(Dati_OPTN!Q51:V51)</f>
+      <c r="C28" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q51:V51) &gt; Arrivi!C5, Arrivi!C5, AVERAGE(Dati_OPTN!Q51:V51))</f>
         <v>2905.8333333333335</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.961187214611873</v>
       </c>
-      <c r="E28" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.26305466286455742</v>
-      </c>
-      <c r="F28" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
+      <c r="E28" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C5</f>
+        <v>0.10376185063292646</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="15">
-        <f>AVERAGE(Dati_OPTN!Q52:V52)</f>
+      <c r="C29" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q52:V52) &gt; Arrivi!C6, Arrivi!C6, AVERAGE(Dati_OPTN!Q52:V52))</f>
         <v>9278.6666666666661</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>25.421004566210044</v>
       </c>
-      <c r="E29" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.83996439294497494</v>
-      </c>
-      <c r="F29" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
+      <c r="E29" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C6</f>
+        <v>0.99228232777827274</v>
       </c>
     </row>
     <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="15">
-        <f>AVERAGE(Dati_OPTN!Q53:V53)</f>
+      <c r="C30" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q53:V53) &gt; Arrivi!C7, Arrivi!C7, AVERAGE(Dati_OPTN!Q53:V53))</f>
         <v>5731.833333333333</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>15.703652968036529</v>
       </c>
-      <c r="E30" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.51888230057786022</v>
-      </c>
-      <c r="F30" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
+      <c r="E30" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C7</f>
+        <v>0.31748859880725983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="15">
-        <f>AVERAGE(Dati_OPTN!Q54:V54)</f>
+      <c r="C31" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q54:V54) &gt; Arrivi!C8, Arrivi!C8, AVERAGE(Dati_OPTN!Q54:V54))</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>6.392694063926941E-3</v>
       </c>
-      <c r="E31" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>2.1122829252100968E-4</v>
-      </c>
-      <c r="F31" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
+      <c r="E31" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C8</f>
+        <v>0.12280701754385966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="15">
-        <f>AVERAGE(Dati_OPTN!Q55:V55)</f>
+      <c r="C32" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q55:V55) &gt; Arrivi!C9, Arrivi!C9, AVERAGE(Dati_OPTN!Q55:V55))</f>
         <v>1521.5</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.1684931506849319</v>
       </c>
-      <c r="E32" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.13773593445887838</v>
-      </c>
-      <c r="F32" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
+      <c r="E32" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C9</f>
+        <v>0.11062772661173048</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="15">
-        <f>AVERAGE(Dati_OPTN!Q56:V56)</f>
-        <v>4760.833333333333</v>
-      </c>
-      <c r="D33" s="15">
+      <c r="C33" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q56:V56) &gt; Arrivi!C10, Arrivi!C10, AVERAGE(Dati_OPTN!Q56:V56))</f>
+        <v>4465</v>
+      </c>
+      <c r="D33" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
-        <v>13.043378995433789</v>
-      </c>
-      <c r="E33" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.43098115541876009</v>
-      </c>
-      <c r="F33" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
+        <v>12.232876712328768</v>
+      </c>
+      <c r="E33" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="15">
-        <f>AVERAGE(Dati_OPTN!Q57:V57)</f>
+      <c r="C34" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q57:V57) &gt; Arrivi!C11, Arrivi!C11, AVERAGE(Dati_OPTN!Q57:V57))</f>
         <v>3254.1666666666665</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>8.9155251141552512</v>
       </c>
-      <c r="E34" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.29458802939090811</v>
-      </c>
-      <c r="F34" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
+      <c r="E34" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C11</f>
+        <v>0.27011883845440837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="15">
-        <f>AVERAGE(Dati_OPTN!Q58:V58)</f>
+      <c r="C35" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q58:V58) &gt; Arrivi!C12, Arrivi!C12, AVERAGE(Dati_OPTN!Q58:V58))</f>
         <v>0.5</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="E35" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>4.5263205540216361E-5</v>
-      </c>
-      <c r="F35" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
+      <c r="E35" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C12</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="15">
-        <f>AVERAGE(Dati_OPTN!Q59:V59)</f>
+      <c r="C36" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q59:V59) &gt; Arrivi!C13, Arrivi!C13, AVERAGE(Dati_OPTN!Q59:V59))</f>
         <v>853.33333333333337</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>2.3378995433789957</v>
       </c>
-      <c r="E36" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>7.7249204121969256E-2</v>
-      </c>
-      <c r="F36" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
+      <c r="E36" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C13</f>
+        <v>9.4781465780558696E-2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="15">
-        <f>AVERAGE(Dati_OPTN!Q60:V60)</f>
+      <c r="C37" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q60:V60) &gt; Arrivi!C14, Arrivi!C14, AVERAGE(Dati_OPTN!Q60:V60))</f>
         <v>2782.5</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.6232876712328768</v>
       </c>
-      <c r="E37" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.25188973883130406</v>
-      </c>
-      <c r="F37" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
+      <c r="E37" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C14</f>
+        <v>0.88211983514741621</v>
       </c>
     </row>
     <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="15">
-        <f>AVERAGE(Dati_OPTN!Q61:V61)</f>
+      <c r="C38" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q61:V61) &gt; Arrivi!C15, Arrivi!C15, AVERAGE(Dati_OPTN!Q61:V61))</f>
         <v>1750.8333333333333</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.7968036529680367</v>
       </c>
-      <c r="E38" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.15849665806665761</v>
-      </c>
-      <c r="F38" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12" t="s">
+      <c r="E38" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C15</f>
+        <v>0.31803457358239229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="15">
-        <f>AVERAGE(Dati_OPTN!Q62:V62)</f>
+      <c r="C39" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q62:V62) &gt; Arrivi!C16, Arrivi!C16, AVERAGE(Dati_OPTN!Q62:V62))</f>
         <v>0</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0</v>
       </c>
-      <c r="E39" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
+      <c r="E39" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C16</f>
         <v>0</v>
       </c>
-      <c r="F39" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
+    </row>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="15">
-        <f>AVERAGE(Dati_OPTN!Q63:V63)</f>
+      <c r="C40" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q63:V63) &gt; Arrivi!C17, Arrivi!C17, AVERAGE(Dati_OPTN!Q63:V63))</f>
         <v>454</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.2438356164383562</v>
       </c>
-      <c r="E40" s="15">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>4.1098990630516453E-2</v>
-      </c>
-      <c r="F40" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
+      <c r="E40" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C17</f>
+        <v>0.1081467365412101</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="15">
-        <f>AVERAGE(Dati_OPTN!Q64:V64)</f>
-        <v>1459.6666666666667</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="C41" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q64:V64) &gt; Arrivi!C18, Arrivi!C18, AVERAGE(Dati_OPTN!Q64:V64))</f>
+        <v>1359.5</v>
+      </c>
+      <c r="D41" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
-        <v>3.999086757990868</v>
-      </c>
-      <c r="E41" s="16">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.13213838470707162</v>
-      </c>
-      <c r="F41" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
+        <v>3.7246575342465755</v>
+      </c>
+      <c r="E41" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C18</f>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="15">
-        <f>AVERAGE(Dati_OPTN!Q65:V65)</f>
+      <c r="C42" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q65:V65) &gt; Arrivi!C19, Arrivi!C19, AVERAGE(Dati_OPTN!Q65:V65))</f>
         <v>309.83333333333331</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.84885844748858441</v>
       </c>
-      <c r="E42" s="16">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>2.8048099699754067E-2</v>
-      </c>
-      <c r="F42" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12" t="s">
+      <c r="E42" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C19</f>
+        <v>0.21961015948021265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="15">
-        <f>AVERAGE(Dati_OPTN!Q66:V66)</f>
+      <c r="C43" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q66:V66) &gt; Arrivi!C20, Arrivi!C20, AVERAGE(Dati_OPTN!Q66:V66))</f>
         <v>0.5</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="E43" s="16">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>4.5263205540216361E-5</v>
-      </c>
-      <c r="F43" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
+      <c r="E43" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C20</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="15">
-        <f>AVERAGE(Dati_OPTN!Q67:V67)</f>
+      <c r="C44" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q67:V67) &gt; Arrivi!C21, Arrivi!C21, AVERAGE(Dati_OPTN!Q67:V67))</f>
         <v>77</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.21095890410958903</v>
       </c>
-      <c r="E44" s="16">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>6.970533653193319E-3</v>
-      </c>
-      <c r="F44" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
+      <c r="E44" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C21</f>
+        <v>7.3251942286348501E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="15">
-        <f>AVERAGE(Dati_OPTN!Q68:V68)</f>
+      <c r="C45" s="5">
+        <f>IF(AVERAGE(Dati_OPTN!Q68:V68) &gt; Arrivi!C22, Arrivi!C22, AVERAGE(Dati_OPTN!Q68:V68))</f>
         <v>275.83333333333331</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.75570776255707761</v>
       </c>
-      <c r="E45" s="16">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>2.4970201723019357E-2</v>
-      </c>
-      <c r="F45" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
+      <c r="E45" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C22</f>
+        <v>0.74148745519713255</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A48" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="14" t="s">
+      <c r="C49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="5">
         <f>AVERAGE(Dati_OPTN!C49:H49)</f>
         <v>19743.833333333332</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>54.092694063926935</v>
       </c>
-      <c r="E50" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12" t="s">
+      <c r="E50" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C3</f>
+        <v>0.53338406191889132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="5">
         <f>AVERAGE(Dati_OPTN!C50:H50)</f>
         <v>16.5</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.5205479452054796E-2</v>
       </c>
-      <c r="E51" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>8.3570397508082699E-4</v>
-      </c>
-      <c r="F51">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>8.3570397508082699E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12" t="s">
+      <c r="E51" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C4</f>
+        <v>0.4419642857142857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="5">
         <f>AVERAGE(Dati_OPTN!C51:H51)</f>
         <v>18036.166666666668</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>49.414155251141558</v>
       </c>
-      <c r="E52" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.91350885930628145</v>
-      </c>
-      <c r="F52">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.91350885930628145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12" t="s">
+      <c r="E52" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C5</f>
+        <v>0.64403763636039024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="5">
         <f>AVERAGE(Dati_OPTN!C52:H52)</f>
         <v>1546</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.2356164383561641</v>
       </c>
-      <c r="E53" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>7.830293002878537E-2</v>
-      </c>
-      <c r="F53">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>7.830293002878537E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="E53" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C6</f>
+        <v>0.1653328580340433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="5">
         <f>AVERAGE(Dati_OPTN!C53:H53)</f>
         <v>8915.5</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>24.426027397260274</v>
       </c>
-      <c r="E54" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.45155871453534019</v>
-      </c>
-      <c r="F54">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>0.45155871453534019</v>
-      </c>
-      <c r="G54">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12" t="s">
+      <c r="E54" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C7</f>
+        <v>0.49383320101179812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="5">
         <f>AVERAGE(Dati_OPTN!C54:H54)</f>
         <v>7.5</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.0547945205479451E-2</v>
       </c>
-      <c r="E55" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.7986544321855773E-4</v>
-      </c>
-      <c r="F55">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="G55">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>8.4123156300824409E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12" t="s">
+      <c r="E55" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C8</f>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="5">
         <f>AVERAGE(Dati_OPTN!C55:H55)</f>
         <v>8187</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>22.43013698630137</v>
       </c>
-      <c r="E56" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.41466111781737758</v>
-      </c>
-      <c r="F56">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>0.45392128778288066</v>
-      </c>
-      <c r="G56">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>0.91828837417979925</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12" t="s">
+      <c r="E56" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C9</f>
+        <v>0.59527387300048473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="5">
         <f>AVERAGE(Dati_OPTN!C56:H56)</f>
         <v>657.16666666666663</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.800456621004566</v>
       </c>
-      <c r="E57" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.3284654280239398E-2</v>
-      </c>
-      <c r="F57">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>0.42507546356188008</v>
-      </c>
-      <c r="G57">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>7.3710578954255687E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="E57" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C10</f>
+        <v>0.14718178424785366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="5">
         <f>AVERAGE(Dati_OPTN!C57:H57)</f>
         <v>7162.333333333333</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>19.62283105022831</v>
       </c>
-      <c r="E58" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.36276305681942883</v>
-      </c>
-      <c r="F58">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>0.36276305681942883</v>
-      </c>
-      <c r="G58">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12" t="s">
+      <c r="E58" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C11</f>
+        <v>0.59452430031957726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="5">
         <f>AVERAGE(Dati_OPTN!C58:H58)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.187214611872146E-2</v>
       </c>
-      <c r="E59" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>2.1947781163738888E-4</v>
-      </c>
-      <c r="F59">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>0.2626262626262626</v>
-      </c>
-      <c r="G59">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>6.0501698701540462E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12" t="s">
+      <c r="E59" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C12</f>
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="5">
         <f>AVERAGE(Dati_OPTN!C59:H59)</f>
         <v>6475</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>17.739726027397261</v>
       </c>
-      <c r="E60" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.32795049931202147</v>
-      </c>
-      <c r="F60">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>0.35900089634715432</v>
-      </c>
-      <c r="G60">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>0.90403499790571051</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12" t="s">
+      <c r="E60" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C13</f>
+        <v>0.71919139562005963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="5">
         <f>AVERAGE(Dati_OPTN!C60:H60)</f>
         <v>625.33333333333337</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.7132420091324201</v>
       </c>
-      <c r="E61" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.1672336510133972E-2</v>
-      </c>
-      <c r="F61">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>0.40448469167744722</v>
-      </c>
-      <c r="G61">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>8.7308605203146095E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="E61" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C14</f>
+        <v>0.19824579942935644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="5">
         <f>AVERAGE(Dati_OPTN!C61:H61)</f>
         <v>2700.5</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>7.3986301369863012</v>
       </c>
-      <c r="E62" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.13677688392156201</v>
-      </c>
-      <c r="F62">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>0.13677688392156201</v>
-      </c>
-      <c r="G62">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12" t="s">
+      <c r="E62" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C15</f>
+        <v>0.49053919045744904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="5">
         <f>AVERAGE(Dati_OPTN!C62:H62)</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.0502283105022832E-2</v>
       </c>
-      <c r="E63" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1.9415344875615173E-4</v>
-      </c>
-      <c r="F63">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>0.23232323232323232</v>
-      </c>
-      <c r="G63">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>1.4194902178608899E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12" t="s">
+      <c r="E63" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C16</f>
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="5">
         <f>AVERAGE(Dati_OPTN!C63:H63)</f>
         <v>2481.5</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>6.7986301369863016</v>
       </c>
-      <c r="E64" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.12568481297958012</v>
-      </c>
-      <c r="F64">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>0.1375846678433148</v>
-      </c>
-      <c r="G64">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>0.91890390668394739</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12" t="s">
+      <c r="E64" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C17</f>
+        <v>0.59111481657932352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="5">
         <f>AVERAGE(Dati_OPTN!C64:H64)</f>
         <v>198.16666666666666</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>0.54292237442922375</v>
       </c>
-      <c r="E65" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1.0036889155263668E-2</v>
-      </c>
-      <c r="F65">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>0.12818025010780509</v>
-      </c>
-      <c r="G65">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>7.3381472566808617E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="E65" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C18</f>
+        <v>0.14576437415716562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="5">
         <f>AVERAGE(Dati_OPTN!C65:H65)</f>
         <v>965.5</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.6452054794520548</v>
       </c>
-      <c r="E66" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>4.8901344723668999E-2</v>
-      </c>
-      <c r="F66">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>4.8901344723668999E-2</v>
-      </c>
-      <c r="G66">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12" t="s">
+      <c r="E66" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C19</f>
+        <v>0.68434731246308333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="5">
         <f>AVERAGE(Dati_OPTN!C66:H66)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.2831050228310505E-3</v>
       </c>
-      <c r="E67" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>4.2207271468728638E-5</v>
-      </c>
-      <c r="F67">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>5.0505050505050504E-2</v>
-      </c>
-      <c r="G67">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>8.6311065078543069E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12" t="s">
+      <c r="E67" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C20</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="5">
         <f>AVERAGE(Dati_OPTN!C67:H67)</f>
         <v>892.66666666666663</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.4456621004566208</v>
       </c>
-      <c r="E68" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>4.5212429197302111E-2</v>
-      </c>
-      <c r="F68">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>4.9493148026650148E-2</v>
-      </c>
-      <c r="G68">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>0.92456412912135333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12" t="s">
+      <c r="E68" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C21</f>
+        <v>0.84921515776121759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="5">
         <f>AVERAGE(Dati_OPTN!C68:H68)</f>
         <v>65.333333333333329</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>0.17899543378995433</v>
       </c>
-      <c r="E69" s="16">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.3090500831483246E-3</v>
-      </c>
-      <c r="F69">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>4.2259594652867612E-2</v>
-      </c>
-      <c r="G69">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>6.7667875021577756E-2</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E69" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C22</f>
+        <v>0.17562724014336917</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9053,7 +9084,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
@@ -9065,1233 +9096,1133 @@
     <col min="16" max="16" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="K2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="47"/>
+      <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="17" t="s">
+      <c r="N2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="18" t="s">
+      <c r="P2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="F3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="H3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="18">
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E4" s="18">
+        <v>6.392694063926941E-3</v>
+      </c>
+      <c r="F4" s="32" t="e">
+        <f>C4*(1-Uscite!#REF!-Uscite!E31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="18">
+        <v>22.411872146118721</v>
+      </c>
+      <c r="J4" s="21" t="e">
+        <f>1/(I$4+SUM(F$4:F$6))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" s="22" t="e">
+        <f>F4*J4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" s="22" t="e">
+        <f>SUM(K$4:K$6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M4" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N4" s="21" t="e">
+        <f t="shared" ref="N4:N15" si="0">M4+J4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O4" s="21" t="e">
+        <f t="shared" ref="O4:O15" si="1">M4*F4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P4" s="21" t="e">
+        <f t="shared" ref="P4:P15" si="2">N4*F4</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18">
+        <v>37.680365296803657</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2.5036529680365298</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4.1684931506849319</v>
+      </c>
+      <c r="F5" s="32" t="e">
+        <f>C5*(1-Uscite!#REF!-Uscite!E32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="18">
+        <v>12.106849315068493</v>
+      </c>
+      <c r="J5" s="21" t="e">
+        <f>J4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K5" s="22" t="e">
+        <f t="shared" ref="K4:K15" si="3">F5*J5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L5" s="22" t="e">
+        <f>L4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M5" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N5" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O5" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P5" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="18">
+        <v>12.232876712328768</v>
+      </c>
+      <c r="D6" s="18">
+        <v>3.9470319634703199</v>
+      </c>
+      <c r="E6" s="18">
+        <v>13.043378995433789</v>
+      </c>
+      <c r="F6" s="32" t="e">
+        <f>C6*(1-Uscite!#REF!-Uscite!E33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="18">
+        <v>10.305022831050229</v>
+      </c>
+      <c r="J6" s="21" t="e">
+        <f>J5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L6" s="22" t="e">
+        <f>L5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M6" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N6" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O6" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P6" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2.9223744292237442E-2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>9.1324200913242006E-4</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.3698630136986301E-3</v>
+      </c>
+      <c r="F7" s="32" t="e">
+        <f>C7*(1-Uscite!#REF!-Uscite!E35)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="18">
+        <v>13.938356164383562</v>
+      </c>
+      <c r="J7" s="21" t="e">
+        <f>1/(I$7+SUM(F7:F9))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="22" t="e">
+        <f>SUM(K$7:K$9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M7" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N7" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O7" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P7" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="18">
+        <v>24.666210045662098</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1.2205479452054795</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2.3378995433789957</v>
+      </c>
+      <c r="F8" s="32" t="e">
+        <f>C8*(1-Uscite!#REF!-Uscite!E36)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="18">
+        <v>9.3986301369863021</v>
+      </c>
+      <c r="J8" s="21" t="e">
+        <f>J7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="22" t="e">
+        <f>L7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N8" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O8" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P8" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8.6420091324200925</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2.3237442922374427</v>
+      </c>
+      <c r="E9" s="18">
+        <v>7.6232876712328768</v>
+      </c>
+      <c r="F9" s="32" t="e">
+        <f>C9*(1-Uscite!#REF!-Uscite!E37)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="18">
+        <v>4.5397260273972604</v>
+      </c>
+      <c r="J9" s="21" t="e">
+        <f>J8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="22" t="e">
+        <f>L8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N9" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O9" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P9" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1.643835616438356E-2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32" t="e">
+        <f>C10*(1-Uscite!#REF!-Uscite!E39)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="18">
+        <v>4.3242009132420085</v>
+      </c>
+      <c r="J10" s="21" t="e">
+        <f>1/(I$10+SUM(F10:F12))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="22" t="e">
+        <f>SUM(K$10:K$12)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M10" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N10" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O10" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P10" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18">
+        <v>11.501369863013698</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.77579908675799092</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.2438356164383562</v>
+      </c>
+      <c r="F11" s="32" t="e">
+        <f>C11*(1-Uscite!#REF!-Uscite!E40)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="18">
+        <v>2.9876712328767123</v>
+      </c>
+      <c r="J11" s="21" t="e">
+        <f>J10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="22" t="e">
+        <f>L10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M11" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N11" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O11" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P11" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="18">
+        <v>3.7246575342465755</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1.2123287671232876</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3.999086757990868</v>
+      </c>
+      <c r="F12" s="32" t="e">
+        <f>C12*(1-Uscite!#REF!-Uscite!E41)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1.3365296803652968</v>
+      </c>
+      <c r="J12" s="21" t="e">
+        <f>J11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K12" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="22" t="e">
+        <f>L11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M12" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N12" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O12" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4.5662100456621011E-3</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.3698630136986301E-3</v>
+      </c>
+      <c r="F13" s="32" t="e">
+        <f>C13*(1-Uscite!#REF!-Uscite!E43)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1.0904109589041096</v>
+      </c>
+      <c r="J13" s="21" t="e">
+        <f>1/(I$13+SUM(F13:F15))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="22" t="e">
+        <f>SUM(K$13:K$15)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O13" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2.8799086757990868</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.10547945205479452</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.21095890410958903</v>
+      </c>
+      <c r="F14" s="32" t="e">
+        <f>C14*(1-Uscite!#REF!-Uscite!E44)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.87168949771689508</v>
+      </c>
+      <c r="J14" s="21" t="e">
+        <f>J13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="22" t="e">
+        <f>L13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M14" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1.0191780821917809</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.22511415525114156</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.75570776255707761</v>
+      </c>
+      <c r="F15" s="32" t="e">
+        <f>C15*(1-Uscite!#REF!-Uscite!E45)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.21872146118721461</v>
+      </c>
+      <c r="J15" s="21" t="e">
+        <f>J14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="22" t="e">
+        <f>L14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="21" t="e">
+        <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="C19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="45">
-        <f>Arrivi!D2</f>
-        <v>5.2054794520547946E-2</v>
-      </c>
-      <c r="D4" s="45">
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="E4" s="45">
-        <v>6.392694063926941E-3</v>
-      </c>
-      <c r="F4" s="45">
-        <f>C4*(1-Uscite!E8-Uscite!E31)</f>
-        <v>5.2032017974239959E-2</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="32">
-        <f>Arrivi!D16</f>
-        <v>22.411872146118721</v>
-      </c>
-      <c r="J4" s="33">
-        <f>1/(I$4+SUM(F$4:F$6))</f>
-        <v>1.9946762001335716E-2</v>
-      </c>
-      <c r="K4" s="34">
-        <f t="shared" ref="K4:K15" si="0">F4*J4</f>
-        <v>1.0378702789813866E-3</v>
-      </c>
-      <c r="L4" s="34">
-        <f>SUM(K$4:K$6)</f>
-        <v>0.55295572029700468</v>
-      </c>
-      <c r="M4" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
-        <v>1.1041135416336339E-2</v>
-      </c>
-      <c r="N4" s="33">
-        <f t="shared" ref="N4:N15" si="1">M4+J4</f>
-        <v>3.0987897417672057E-2</v>
-      </c>
-      <c r="O4" s="33">
-        <f t="shared" ref="O4:O15" si="2">M4*F4</f>
-        <v>5.7449255643882982E-4</v>
-      </c>
-      <c r="P4" s="33">
-        <f t="shared" ref="P4:P15" si="3">N4*F4</f>
-        <v>1.6123628354202165E-3</v>
-      </c>
-      <c r="Q4" s="35">
-        <f t="shared" ref="Q4:Q15" si="4">(D4/E4)</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="45">
-        <f>Arrivi!D3</f>
-        <v>37.680365296803657</v>
-      </c>
-      <c r="D5" s="45">
-        <v>2.5036529680365298</v>
-      </c>
-      <c r="E5" s="45">
-        <v>4.1684931506849319</v>
-      </c>
-      <c r="F5" s="45">
-        <f>C5*(1-Uscite!E9-Uscite!E32)</f>
-        <v>24.697378956190793</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="32">
-        <f>Arrivi!D17</f>
-        <v>12.106849315068493</v>
-      </c>
-      <c r="J5" s="33">
-        <f>J4</f>
-        <v>1.9946762001335716E-2</v>
-      </c>
-      <c r="K5" s="34">
-        <f t="shared" si="0"/>
-        <v>0.49263274009593488</v>
-      </c>
-      <c r="L5" s="34">
-        <f>L4</f>
-        <v>0.55295572029700468</v>
-      </c>
-      <c r="M5" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
-        <v>2.1806230573563679E-2</v>
-      </c>
-      <c r="N5" s="33">
-        <f t="shared" si="1"/>
-        <v>4.1752992574899395E-2</v>
-      </c>
-      <c r="O5" s="33">
-        <f t="shared" si="2"/>
-        <v>0.53855674008137588</v>
-      </c>
-      <c r="P5" s="33">
-        <f t="shared" si="3"/>
-        <v>1.0311894801773107</v>
-      </c>
-      <c r="Q5" s="35">
-        <f t="shared" si="4"/>
-        <v>0.60061342972943366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="45">
-        <f>Arrivi!D4</f>
-        <v>12.232876712328768</v>
-      </c>
-      <c r="D6" s="45">
-        <v>3.9470319634703199</v>
-      </c>
-      <c r="E6" s="45">
-        <v>13.043378995433789</v>
-      </c>
-      <c r="F6" s="45">
-        <f>C6*(1-Uscite!E10-Uscite!E33)</f>
-        <v>2.9721671075294531</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="32">
-        <f>Arrivi!D18</f>
-        <v>10.305022831050229</v>
-      </c>
-      <c r="J6" s="33">
-        <f>J5</f>
-        <v>1.9946762001335716E-2</v>
-      </c>
-      <c r="K6" s="34">
-        <f t="shared" si="0"/>
-        <v>5.928510992208838E-2</v>
-      </c>
-      <c r="L6" s="34">
-        <f>L5</f>
-        <v>0.55295572029700468</v>
-      </c>
-      <c r="M6" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
-        <v>4.8728055640097266E-2</v>
-      </c>
-      <c r="N6" s="33">
-        <f t="shared" si="1"/>
-        <v>6.8674817641432989E-2</v>
-      </c>
-      <c r="O6" s="33">
-        <f t="shared" si="2"/>
-        <v>0.14482792418736215</v>
-      </c>
-      <c r="P6" s="33">
-        <f t="shared" si="3"/>
-        <v>0.20411303410945056</v>
-      </c>
-      <c r="Q6" s="35">
-        <f t="shared" si="4"/>
-        <v>0.30260808681953444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="45">
-        <f>Arrivi!D5</f>
-        <v>2.9223744292237442E-2</v>
-      </c>
-      <c r="D7" s="45">
-        <v>9.1324200913242006E-4</v>
-      </c>
-      <c r="E7" s="45">
-        <v>1.3698630136986301E-3</v>
-      </c>
-      <c r="F7" s="45">
-        <f>C7*(1-Uscite!E12-Uscite!E35)</f>
-        <v>2.9220216881423858E-2</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="32">
-        <f>Arrivi!D19</f>
-        <v>13.938356164383562</v>
-      </c>
-      <c r="J7" s="33">
-        <f>1/(I$7+SUM(F7:F9))</f>
-        <v>2.5609757636762279E-2</v>
-      </c>
-      <c r="K7" s="34">
-        <f t="shared" si="0"/>
-        <v>7.4832267242689471E-4</v>
-      </c>
-      <c r="L7" s="34">
-        <f>SUM(K$7:K$9)</f>
-        <v>0.64304207677526548</v>
-      </c>
-      <c r="M7" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
-        <v>1.6480484456626303E-2</v>
-      </c>
-      <c r="N7" s="33">
-        <f t="shared" si="1"/>
-        <v>4.2090242093388582E-2</v>
-      </c>
-      <c r="O7" s="33">
-        <f t="shared" si="2"/>
-        <v>4.8156333013355538E-4</v>
-      </c>
-      <c r="P7" s="33">
-        <f t="shared" si="3"/>
-        <v>1.22988600256045E-3</v>
-      </c>
-      <c r="Q7" s="35">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="45">
-        <f>Arrivi!D6</f>
-        <v>24.666210045662098</v>
-      </c>
-      <c r="D8" s="45">
-        <v>1.2205479452054795</v>
-      </c>
-      <c r="E8" s="45">
-        <v>2.3378995433789957</v>
-      </c>
-      <c r="F8" s="45">
-        <f>C8*(1-Uscite!E13-Uscite!E36)</f>
-        <v>20.27376787605273</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="32">
-        <f>Arrivi!D20</f>
-        <v>9.3986301369863021</v>
-      </c>
-      <c r="J8" s="33">
-        <f>J7</f>
-        <v>2.5609757636762279E-2</v>
-      </c>
-      <c r="K8" s="34">
-        <f t="shared" si="0"/>
-        <v>0.51920628168968719</v>
-      </c>
-      <c r="L8" s="34">
-        <f>L7</f>
-        <v>0.64304207677526548</v>
-      </c>
-      <c r="M8" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
-        <v>3.4331095780487549E-2</v>
-      </c>
-      <c r="N8" s="33">
-        <f t="shared" si="1"/>
-        <v>5.9940853417249827E-2</v>
-      </c>
-      <c r="O8" s="33">
-        <f t="shared" si="2"/>
-        <v>0.69602066678413788</v>
-      </c>
-      <c r="P8" s="33">
-        <f t="shared" si="3"/>
-        <v>1.2152269484738252</v>
-      </c>
-      <c r="Q8" s="35">
-        <f t="shared" si="4"/>
-        <v>0.52207031249999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="45">
-        <f>Arrivi!D7</f>
-        <v>8.6420091324200925</v>
-      </c>
-      <c r="D9" s="45">
-        <v>2.3237442922374427</v>
-      </c>
-      <c r="E9" s="45">
-        <v>7.6232876712328768</v>
-      </c>
-      <c r="F9" s="45">
-        <f>C9*(1-Uscite!E14-Uscite!E37)</f>
-        <v>4.806272443455768</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="32">
-        <f>Arrivi!D21</f>
-        <v>4.5397260273972604</v>
-      </c>
-      <c r="J9" s="33">
-        <f>J8</f>
-        <v>2.5609757636762279E-2</v>
-      </c>
-      <c r="K9" s="34">
-        <f t="shared" si="0"/>
-        <v>0.12308747241315145</v>
-      </c>
-      <c r="L9" s="34">
-        <f>L8</f>
-        <v>0.64304207677526548</v>
-      </c>
-      <c r="M9" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
-        <v>9.6104898676104361E-2</v>
-      </c>
-      <c r="N9" s="33">
-        <f t="shared" si="1"/>
-        <v>0.12171465631286664</v>
-      </c>
-      <c r="O9" s="33">
-        <f t="shared" si="2"/>
-        <v>0.46190632618806909</v>
-      </c>
-      <c r="P9" s="33">
-        <f t="shared" si="3"/>
-        <v>0.58499379860122058</v>
-      </c>
-      <c r="Q9" s="35">
-        <f t="shared" si="4"/>
-        <v>0.30482180293501043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="45">
-        <f>Arrivi!D8</f>
-        <v>1.643835616438356E-2</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0</v>
-      </c>
-      <c r="F10" s="45">
-        <f>C10*(1-Uscite!E16-Uscite!E39)</f>
-        <v>1.643835616438356E-2</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="32">
-        <f>Arrivi!D22</f>
-        <v>4.3242009132420085</v>
-      </c>
-      <c r="J10" s="33">
-        <f>1/(I$10+SUM(F10:F12))</f>
-        <v>5.7169957965793758E-2</v>
-      </c>
-      <c r="K10" s="34">
-        <f t="shared" si="0"/>
-        <v>9.3978013094455487E-4</v>
-      </c>
-      <c r="L10" s="34">
-        <f>SUM(K$10:K$12)</f>
-        <v>0.75278561555430723</v>
-      </c>
-      <c r="M10" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
-        <v>4.3077205099943477E-2</v>
-      </c>
-      <c r="N10" s="33">
-        <f t="shared" si="1"/>
-        <v>0.10024716306573724</v>
-      </c>
-      <c r="O10" s="33">
-        <f t="shared" si="2"/>
-        <v>7.081184399990708E-4</v>
-      </c>
-      <c r="P10" s="33">
-        <f t="shared" si="3"/>
-        <v>1.6478985709436256E-3</v>
-      </c>
-      <c r="Q10" s="35" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="45">
-        <f>Arrivi!D9</f>
-        <v>11.501369863013698</v>
-      </c>
-      <c r="D11" s="45">
-        <v>0.77579908675799092</v>
-      </c>
-      <c r="E11" s="45">
-        <v>1.2438356164383562</v>
-      </c>
-      <c r="F11" s="45">
-        <f>C11*(1-Uscite!E17-Uscite!E40)</f>
-        <v>10.291591416965467</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="32">
-        <f>Arrivi!D23</f>
-        <v>2.9876712328767123</v>
-      </c>
-      <c r="J11" s="33">
-        <f>J10</f>
-        <v>5.7169957965793758E-2</v>
-      </c>
-      <c r="K11" s="34">
-        <f t="shared" si="0"/>
-        <v>0.58836984870903952</v>
-      </c>
-      <c r="L11" s="34">
-        <f>L10</f>
-        <v>0.75278561555430723</v>
-      </c>
-      <c r="M11" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
-        <v>0.10488973719610156</v>
-      </c>
-      <c r="N11" s="33">
-        <f t="shared" si="1"/>
-        <v>0.16205969516189533</v>
-      </c>
-      <c r="O11" s="33">
-        <f t="shared" si="2"/>
-        <v>1.0794823190551623</v>
-      </c>
-      <c r="P11" s="33">
-        <f t="shared" si="3"/>
-        <v>1.667852167764202</v>
-      </c>
-      <c r="Q11" s="35">
-        <f t="shared" si="4"/>
-        <v>0.62371512481644642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="45">
-        <f>Arrivi!D10</f>
-        <v>3.7246575342465755</v>
-      </c>
-      <c r="D12" s="45">
-        <v>1.2123287671232876</v>
-      </c>
-      <c r="E12" s="45">
-        <v>3.999086757990868</v>
-      </c>
-      <c r="F12" s="45">
-        <f>C12*(1-Uscite!E18-Uscite!E41)</f>
-        <v>2.8594736209555203</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="32">
-        <f>Arrivi!D24</f>
-        <v>1.3365296803652968</v>
-      </c>
-      <c r="J12" s="33">
-        <f>J11</f>
-        <v>5.7169957965793758E-2</v>
-      </c>
-      <c r="K12" s="34">
-        <f t="shared" si="0"/>
-        <v>0.16347598671432317</v>
-      </c>
-      <c r="L12" s="34">
-        <f>L11</f>
-        <v>0.75278561555430723</v>
-      </c>
-      <c r="M12" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
-        <v>0.4238878095225273</v>
-      </c>
-      <c r="N12" s="33">
-        <f t="shared" si="1"/>
-        <v>0.48105776748832108</v>
-      </c>
-      <c r="O12" s="33">
-        <f t="shared" si="2"/>
-        <v>1.212096009574285</v>
-      </c>
-      <c r="P12" s="33">
-        <f t="shared" si="3"/>
-        <v>1.3755719962886082</v>
-      </c>
-      <c r="Q12" s="35">
-        <f t="shared" si="4"/>
-        <v>0.30315140443023519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="45">
-        <f>Arrivi!D11</f>
-        <v>4.5662100456621011E-3</v>
-      </c>
-      <c r="D13" s="45">
-        <v>0</v>
-      </c>
-      <c r="E13" s="45">
-        <v>1.3698630136986301E-3</v>
-      </c>
-      <c r="F13" s="45">
-        <f>C13*(1-Uscite!E20-Uscite!E43)</f>
-        <v>4.5660033643582648E-3</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="32">
-        <f>Arrivi!D25</f>
-        <v>1.0904109589041096</v>
-      </c>
-      <c r="J13" s="33">
-        <f>1/(I$13+SUM(F13:F15))</f>
-        <v>0.20389464241010324</v>
-      </c>
-      <c r="K13" s="34">
-        <f t="shared" si="0"/>
-        <v>9.3098362321915676E-4</v>
-      </c>
-      <c r="L13" s="34">
-        <f>SUM(K$13:K$15)</f>
-        <v>0.77767104745418902</v>
-      </c>
-      <c r="M13" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
-        <v>0.15871071721191596</v>
-      </c>
-      <c r="N13" s="33">
-        <f t="shared" si="1"/>
-        <v>0.36260535962201923</v>
-      </c>
-      <c r="O13" s="33">
-        <f t="shared" si="2"/>
-        <v>7.2467366874932144E-4</v>
-      </c>
-      <c r="P13" s="33">
-        <f t="shared" si="3"/>
-        <v>1.6556572919684783E-3</v>
-      </c>
-      <c r="Q13" s="35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="45">
-        <f>Arrivi!D12</f>
-        <v>2.8799086757990868</v>
-      </c>
-      <c r="D14" s="45">
-        <v>0.10547945205479452</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0.21095890410958903</v>
-      </c>
-      <c r="F14" s="45">
-        <f>C14*(1-Uscite!E21-Uscite!E44)</f>
-        <v>2.8347404821173301</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="32">
-        <f>Arrivi!D26</f>
-        <v>0.87168949771689508</v>
-      </c>
-      <c r="J14" s="33">
-        <f>J13</f>
-        <v>0.20389464241010324</v>
-      </c>
-      <c r="K14" s="34">
-        <f t="shared" si="0"/>
-        <v>0.57798839692675674</v>
-      </c>
-      <c r="L14" s="34">
-        <f>L13</f>
-        <v>0.77767104745418902</v>
-      </c>
-      <c r="M14" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
-        <v>0.37691289952790746</v>
-      </c>
-      <c r="N14" s="33">
-        <f t="shared" si="1"/>
-        <v>0.58080754193801076</v>
-      </c>
-      <c r="O14" s="33">
-        <f t="shared" si="2"/>
-        <v>1.0684502545239811</v>
-      </c>
-      <c r="P14" s="33">
-        <f t="shared" si="3"/>
-        <v>1.6464386514507381</v>
-      </c>
-      <c r="Q14" s="35">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="45">
-        <f>Arrivi!D13</f>
-        <v>1.0191780821917809</v>
-      </c>
-      <c r="D15" s="45">
-        <v>0.22511415525114156</v>
-      </c>
-      <c r="E15" s="45">
-        <v>0.75570776255707761</v>
-      </c>
-      <c r="F15" s="45">
-        <f>C15*(1-Uscite!E22-Uscite!E45)</f>
-        <v>0.97477630875878618</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="32">
-        <f>Arrivi!D27</f>
-        <v>0.21872146118721461</v>
-      </c>
-      <c r="J15" s="33">
-        <f>J14</f>
-        <v>0.20389464241010324</v>
-      </c>
-      <c r="K15" s="34">
-        <f t="shared" si="0"/>
-        <v>0.19875166690421309</v>
-      </c>
-      <c r="L15" s="34">
-        <f>L14</f>
-        <v>0.77767104745418902</v>
-      </c>
-      <c r="M15" s="33">
-        <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
-        <v>1.6937155304299658</v>
-      </c>
-      <c r="N15" s="33">
-        <f t="shared" si="1"/>
-        <v>1.8976101728400692</v>
-      </c>
-      <c r="O15" s="33">
-        <f t="shared" si="2"/>
-        <v>1.6509937728399517</v>
-      </c>
-      <c r="P15" s="33">
-        <f t="shared" si="3"/>
-        <v>1.8497454397441648</v>
-      </c>
-      <c r="Q15" s="35">
-        <f t="shared" si="4"/>
-        <v>0.29788519637462235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="44">
+      <c r="C20" s="31">
         <f>Uscite!D55</f>
         <v>2.0547945205479451E-2</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="34">
-        <f t="shared" ref="F20:F31" si="5">4/24</f>
+      <c r="D20" s="22">
+        <f>4/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G20" s="34">
+      <c r="E20" s="22">
+        <f t="shared" ref="E20:E31" si="4">D20*C20</f>
+        <v>3.4246575342465752E-3</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" ref="F20:F31" si="5">D20</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G20" s="22">
         <f t="shared" ref="G20:G31" si="6">F20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
-      <c r="H20" s="34">
-        <f t="shared" ref="H20:H31" si="7">F20</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I20" s="34">
-        <f t="shared" ref="I20:I31" si="8">H20*C20</f>
-        <v>3.4246575342465752E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="28" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="31">
         <f>Uscite!D56</f>
         <v>22.43013698630137</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="34">
+      <c r="D21" s="22">
+        <f t="shared" ref="D21:D31" si="7">4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="4"/>
+        <v>3.7383561643835614</v>
+      </c>
+      <c r="F21" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>3.7383561643835614</v>
       </c>
-      <c r="H21" s="34">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="31">
+        <f>Uscite!D57</f>
+        <v>1.800456621004566</v>
+      </c>
+      <c r="D22" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I21" s="34">
-        <f t="shared" si="8"/>
-        <v>3.7383561643835614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="44">
-        <f>Uscite!D57</f>
-        <v>1.800456621004566</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="34">
+      <c r="E22" s="22">
+        <f t="shared" si="4"/>
+        <v>0.30007610350076097</v>
+      </c>
+      <c r="F22" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>0.30007610350076097</v>
       </c>
-      <c r="H22" s="34">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="18">
+        <f>Uscite!D59</f>
+        <v>1.187214611872146E-2</v>
+      </c>
+      <c r="D23" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I22" s="34">
-        <f t="shared" si="8"/>
-        <v>0.30007610350076097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="29">
-        <f>Uscite!D59</f>
-        <v>1.187214611872146E-2</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="34">
+      <c r="E23" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9786910197869098E-3</v>
+      </c>
+      <c r="F23" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>1.9786910197869098E-3</v>
       </c>
-      <c r="H23" s="34">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18">
+        <f>Uscite!D60</f>
+        <v>17.739726027397261</v>
+      </c>
+      <c r="D24" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I23" s="34">
-        <f t="shared" si="8"/>
-        <v>1.9786910197869098E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="29">
-        <f>Uscite!D60</f>
-        <v>17.739726027397261</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="34">
+      <c r="E24" s="22">
+        <f t="shared" si="4"/>
+        <v>2.9566210045662098</v>
+      </c>
+      <c r="F24" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>2.9566210045662098</v>
       </c>
-      <c r="H24" s="34">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="18">
+        <f>Uscite!D61</f>
+        <v>1.7132420091324201</v>
+      </c>
+      <c r="D25" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I24" s="34">
-        <f t="shared" si="8"/>
-        <v>2.9566210045662098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="29">
-        <f>Uscite!D61</f>
-        <v>1.7132420091324201</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="34">
+      <c r="E25" s="22">
+        <f t="shared" si="4"/>
+        <v>0.28554033485540331</v>
+      </c>
+      <c r="F25" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>0.28554033485540331</v>
       </c>
-      <c r="H25" s="34">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="18">
+        <f>Uscite!D63</f>
+        <v>1.0502283105022832E-2</v>
+      </c>
+      <c r="D26" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I25" s="34">
-        <f t="shared" si="8"/>
-        <v>0.28554033485540331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="29">
-        <f>Uscite!D63</f>
-        <v>1.0502283105022832E-2</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="34">
+      <c r="E26" s="22">
+        <f t="shared" si="4"/>
+        <v>1.7503805175038052E-3</v>
+      </c>
+      <c r="F26" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>1.7503805175038052E-3</v>
       </c>
-      <c r="H26" s="34">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="18">
+        <f>Uscite!D64</f>
+        <v>6.7986301369863016</v>
+      </c>
+      <c r="D27" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I26" s="34">
-        <f t="shared" si="8"/>
-        <v>1.7503805175038052E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="29">
-        <f>Uscite!D64</f>
-        <v>6.7986301369863016</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="34">
+      <c r="E27" s="22">
+        <f t="shared" si="4"/>
+        <v>1.1331050228310502</v>
+      </c>
+      <c r="F27" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="22">
         <f t="shared" si="6"/>
         <v>1.1331050228310502</v>
       </c>
-      <c r="H27" s="34">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18">
+        <f>Uscite!D65</f>
+        <v>0.54292237442922375</v>
+      </c>
+      <c r="D28" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I27" s="34">
-        <f t="shared" si="8"/>
-        <v>1.1331050228310502</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="29">
-        <f>Uscite!D65</f>
-        <v>0.54292237442922375</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="34">
+      <c r="E28" s="22">
+        <f t="shared" si="4"/>
+        <v>9.0487062404870616E-2</v>
+      </c>
+      <c r="F28" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="22">
         <f t="shared" si="6"/>
         <v>9.0487062404870616E-2</v>
       </c>
-      <c r="H28" s="34">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="18">
+        <f>Uscite!D67</f>
+        <v>2.2831050228310505E-3</v>
+      </c>
+      <c r="D29" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I28" s="34">
-        <f t="shared" si="8"/>
-        <v>9.0487062404870616E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="29">
-        <f>Uscite!D67</f>
-        <v>2.2831050228310505E-3</v>
-      </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="34">
+      <c r="E29" s="22">
+        <f t="shared" si="4"/>
+        <v>3.8051750380517507E-4</v>
+      </c>
+      <c r="F29" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="22">
         <f t="shared" si="6"/>
         <v>3.8051750380517507E-4</v>
       </c>
-      <c r="H29" s="34">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="18">
+        <f>Uscite!D68</f>
+        <v>2.4456621004566208</v>
+      </c>
+      <c r="D30" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I29" s="34">
-        <f t="shared" si="8"/>
-        <v>3.8051750380517507E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="29">
-        <f>Uscite!D68</f>
-        <v>2.4456621004566208</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="34">
+      <c r="E30" s="22">
+        <f t="shared" si="4"/>
+        <v>0.40761035007610347</v>
+      </c>
+      <c r="F30" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="22">
         <f t="shared" si="6"/>
         <v>0.40761035007610347</v>
       </c>
-      <c r="H30" s="34">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="18">
+        <f>Uscite!D69</f>
+        <v>0.17899543378995433</v>
+      </c>
+      <c r="D31" s="22">
         <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I30" s="34">
-        <f t="shared" si="8"/>
-        <v>0.40761035007610347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="29">
-        <f>Uscite!D69</f>
-        <v>0.17899543378995433</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="34">
+      <c r="E31" s="22">
+        <f t="shared" si="4"/>
+        <v>2.983257229832572E-2</v>
+      </c>
+      <c r="F31" s="22">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="22">
         <f t="shared" si="6"/>
         <v>2.983257229832572E-2</v>
       </c>
-      <c r="H31" s="34">
-        <f t="shared" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I31" s="34">
-        <f t="shared" si="8"/>
-        <v>2.983257229832572E-2</v>
-      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10299,7 +10230,7 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10308,6 +10239,945 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A70289-E0EB-4E13-B21C-62A20F7D26A8}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="31">
+        <v>12.232876712328768</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.32265770810003735</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="55">
+        <f>B3*(1-(C3/B3)-(D3/B3))</f>
+        <v>10.910219004228731</v>
+      </c>
+      <c r="F3" s="21">
+        <f>(5*365)/2</f>
+        <v>912.5</v>
+      </c>
+      <c r="G3" s="21">
+        <f>(5*365)/2</f>
+        <v>912.5</v>
+      </c>
+      <c r="H3" s="21">
+        <f>G3*E3</f>
+        <v>9955.5748413587171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="18">
+        <v>8.6420091324200925</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.26888935855436963</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.88211983514741621</v>
+      </c>
+      <c r="E4" s="55">
+        <f t="shared" ref="E4:E6" si="0">B4*(1-(C4/B4)-(D4/B4))</f>
+        <v>7.4909999387183062</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:G6" si="1">(5*365)/2</f>
+        <v>912.5</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="H4" s="21">
+        <f>G4*E4</f>
+        <v>6835.5374440804544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3.7246575342465755</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.32548731151158516</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="55">
+        <f t="shared" si="0"/>
+        <v>2.3991702227349903</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="H5" s="21">
+        <f>G5*E5</f>
+        <v>2189.2428282456785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1.0191780821917809</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.22087813620071686</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.74148745519713255</v>
+      </c>
+      <c r="E6" s="55">
+        <f t="shared" si="0"/>
+        <v>5.6812490793931421E-2</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="H6" s="21">
+        <f>G6*E6</f>
+        <v>51.841397849462425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="31">
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="D10" s="31">
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E10" s="31">
+        <v>6.392694063926941E-3</v>
+      </c>
+      <c r="F10" s="55" t="e">
+        <f>C10*(1-Uscite!#REF!-Uscite!E31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" t="e">
+        <f>C10*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18">
+        <v>37.6803652968037</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2.5036529680365298</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4.1684931506849319</v>
+      </c>
+      <c r="F11" s="55" t="e">
+        <f>C11*(1-Uscite!#REF!-Uscite!E32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" t="e">
+        <f>C11*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.9223744292237442E-2</v>
+      </c>
+      <c r="D12" s="18">
+        <v>9.1324200913242006E-4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1.3698630136986301E-3</v>
+      </c>
+      <c r="F12" s="32" t="e">
+        <f>C12*(1-Uscite!#REF!-Uscite!E35)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" t="e">
+        <f>C12*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18">
+        <v>24.666210045662098</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1.2205479452054795</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2.3378995433789957</v>
+      </c>
+      <c r="F13" s="32" t="e">
+        <f>C13*(1-Uscite!#REF!-Uscite!E36)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" t="e">
+        <f>C13*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.643835616438356E-2</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32" t="e">
+        <f>C14*(1-Uscite!#REF!-Uscite!E39)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" t="e">
+        <f>C14*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18">
+        <v>11.501369863013698</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.77579908675799092</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1.2438356164383562</v>
+      </c>
+      <c r="F15" s="32" t="e">
+        <f>C15*(1-Uscite!#REF!-Uscite!E40)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" t="e">
+        <f>C15*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4.5662100456621011E-3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1.3698630136986301E-3</v>
+      </c>
+      <c r="F16" s="32" t="e">
+        <f>C16*(1-Uscite!#REF!-Uscite!E43)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" t="e">
+        <f>C16*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.8799086757990868</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.10547945205479452</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.21095890410958903</v>
+      </c>
+      <c r="F17" s="32" t="e">
+        <f>C17*(1-Uscite!#REF!-Uscite!E44)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" t="e">
+        <f>C17*Uscite!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="31">
+        <v>22.411872146118721</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="70"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="18">
+        <v>12.106849315068493</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="22">
+        <f>1/(C$21)</f>
+        <v>4.4619208671203295E-2</v>
+      </c>
+      <c r="H22" s="22" t="e">
+        <f>F10*G22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="22" t="e">
+        <f>SUM(H22:H23)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J22" s="22" t="e">
+        <f>IF(F22="Critical",(I22*G22)/(1-H22),IF(F22="Normal",(I22*G22)/((1-H21)*(1-I22))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="22" t="e">
+        <f>J22+G22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="22" t="e">
+        <f>J22*F10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="22" t="e">
+        <f>K22*F10</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="18">
+        <v>10.305022831050229</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="21">
+        <f>G22</f>
+        <v>4.4619208671203295E-2</v>
+      </c>
+      <c r="H23" s="22" t="e">
+        <f>F11*G23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="22" t="e">
+        <f>I22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J23" s="22" t="e">
+        <f>IF(F23="Critical",(I23*G23)/(1-H23),IF(F23="Normal",(I23*G23)/((1-H22)*(1-I23))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="22" t="e">
+        <f t="shared" ref="K23:K29" si="2">J23+G23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="22" t="e">
+        <f t="shared" ref="L23:L29" si="3">J23*F11</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="22" t="e">
+        <f t="shared" ref="M23:M29" si="4">K23*F11</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="18">
+        <v>13.938356164383562</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="21">
+        <f>1/(C24)</f>
+        <v>7.1744471744471738E-2</v>
+      </c>
+      <c r="H24" s="22" t="e">
+        <f t="shared" ref="H23:H29" si="5">F12*G24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="22" t="e">
+        <f>SUM(H24:H25)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="22" t="e">
+        <f t="shared" ref="J23:J29" si="6">IF(F24="Critical",(I24*G24)/(1-H24),IF(F24="Normal",(I24*G24)/((1-H23)*(1-I24))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L24" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M24" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="18">
+        <v>9.3986301369863021</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="21">
+        <f>G24</f>
+        <v>7.1744471744471738E-2</v>
+      </c>
+      <c r="H25" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="22" t="e">
+        <f>I24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="22" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L25" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M25" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="18">
+        <v>4.5397260273972604</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="21">
+        <f>1/(C27)</f>
+        <v>0.2312565997888068</v>
+      </c>
+      <c r="H26" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="21" t="e">
+        <f>SUM(H26:H27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J26" s="22" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K26" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L26" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M26" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="18">
+        <v>4.3242009132420085</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="21">
+        <f>G26</f>
+        <v>0.2312565997888068</v>
+      </c>
+      <c r="H27" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="21" t="e">
+        <f>I26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="22" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K27" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M27" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.9876712328767123</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="21">
+        <f>1/(C30)</f>
+        <v>0.91708542713567842</v>
+      </c>
+      <c r="H28" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="21" t="e">
+        <f>SUM(H28:H29)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="22" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K28" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M28" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1.3365296803652968</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="21">
+        <f>G28</f>
+        <v>0.91708542713567842</v>
+      </c>
+      <c r="H29" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="21" t="e">
+        <f>I28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J29" s="22" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K29" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M29" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1.0904109589041096</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.87168949771689508</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0.21872146118721461</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="53"/>
+      <c r="F35" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A6:C6"/>
   <sheetViews>
@@ -10322,11 +11192,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
